--- a/data/people.xlsx
+++ b/data/people.xlsx
@@ -2220,31 +2220,31 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B58" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C58" t="str">
-        <v>Admi</v>
+        <v>Jurriaan</v>
       </c>
       <c r="D58" t="str">
-        <v/>
+        <v>Kasius</v>
       </c>
       <c r="E58" t="str">
-        <v>Admi</v>
+        <v>Jurriaan Kasius</v>
       </c>
       <c r="F58" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G58" t="str">
         <v>Gouweloos Elektrotechniek</v>
       </c>
       <c r="H58" t="str">
-        <v/>
+        <v>jurriaan.kasius@gouweloos.nl</v>
       </c>
       <c r="I58" t="str">
-        <v>admi@gouweloos.nl</v>
+        <v/>
       </c>
       <c r="J58" t="str">
         <v/>
@@ -2258,22 +2258,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C59" t="str">
-        <v>Thijs</v>
+        <v>Niels</v>
       </c>
       <c r="D59" t="str">
-        <v>Grimbergen</v>
+        <v>Wagemans</v>
       </c>
       <c r="E59" t="str">
-        <v>Thijs Grimbergen</v>
+        <v>Niels Wagemans</v>
       </c>
       <c r="F59" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern)</v>
       </c>
       <c r="G59" t="str">
-        <v>Grimbergen Installaties</v>
+        <v>Gouweloos Elektrotechniek</v>
       </c>
       <c r="H59" t="str">
-        <v>mcg@grimbergeninstallaties.nl</v>
+        <v>niels.wagemans@gouweloos.nl</v>
       </c>
       <c r="I59" t="str">
         <v/>
@@ -2284,31 +2284,31 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B60" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C60" t="str">
-        <v>Rob</v>
+        <v>Admi</v>
       </c>
       <c r="D60" t="str">
-        <v>Grimbergen</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v>Rob Grimbergen</v>
+        <v>Admi</v>
       </c>
       <c r="F60" t="str">
-        <v>Directie, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G60" t="str">
-        <v>Grimbergen Installaties</v>
+        <v>Gouweloos Elektrotechniek</v>
       </c>
       <c r="H60" t="str">
-        <v>rpg@grimbergeninstallaties.nl</v>
+        <v/>
       </c>
       <c r="I60" t="str">
-        <v/>
+        <v>admi@gouweloos.nl</v>
       </c>
       <c r="J60" t="str">
         <v/>
@@ -2316,28 +2316,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B61" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C61" t="str">
-        <v>Pieter</v>
+        <v>Admi</v>
       </c>
       <c r="D61" t="str">
-        <v>Hoogendoorn</v>
+        <v/>
       </c>
       <c r="E61" t="str">
-        <v>Pieter Hoogendoorn</v>
+        <v>Admi</v>
       </c>
       <c r="F61" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G61" t="str">
-        <v>Hoogendoorn</v>
+        <v>Gouweloos Elektrotechniek</v>
       </c>
       <c r="H61" t="str">
-        <v>pj.hoogendoorn@hoogendoornbv.nl</v>
+        <v/>
       </c>
       <c r="I61" t="str">
         <v/>
@@ -2354,22 +2354,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C62" t="str">
-        <v>Guido</v>
+        <v>Thijs</v>
       </c>
       <c r="D62" t="str">
-        <v>van der Vlist</v>
+        <v>Grimbergen</v>
       </c>
       <c r="E62" t="str">
-        <v>Guido van der Vlist</v>
+        <v>Thijs Grimbergen</v>
       </c>
       <c r="F62" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G62" t="str">
-        <v>Hoogendoorn</v>
+        <v>Grimbergen Installaties</v>
       </c>
       <c r="H62" t="str">
-        <v>g.vandervlist@hoogendoornbv.nl</v>
+        <v>mcg@grimbergeninstallaties.nl</v>
       </c>
       <c r="I62" t="str">
         <v/>
@@ -2386,22 +2386,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C63" t="str">
-        <v>Arie</v>
+        <v>Rob</v>
       </c>
       <c r="D63" t="str">
-        <v>de Groot - Hoogendoorn (GU)</v>
+        <v>Grimbergen</v>
       </c>
       <c r="E63" t="str">
-        <v>Arie de Groot - Hoogendoorn (GU)</v>
+        <v>Rob Grimbergen</v>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v>Directie, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G63" t="str">
-        <v>Hoogendoorn</v>
+        <v>Grimbergen Installaties</v>
       </c>
       <c r="H63" t="str">
-        <v>a.degroot@hoogendoornbv.nl</v>
+        <v>rpg@grimbergeninstallaties.nl</v>
       </c>
       <c r="I63" t="str">
         <v/>
@@ -2418,22 +2418,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C64" t="str">
-        <v>Christiaan</v>
+        <v>Pieter</v>
       </c>
       <c r="D64" t="str">
-        <v>Eichholtz - Hoogendoorn (GU)</v>
+        <v>Hoogendoorn</v>
       </c>
       <c r="E64" t="str">
-        <v>Christiaan Eichholtz - Hoogendoorn (GU)</v>
+        <v>Pieter Hoogendoorn</v>
       </c>
       <c r="F64" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G64" t="str">
         <v>Hoogendoorn</v>
       </c>
       <c r="H64" t="str">
-        <v>c.eichholtz@hoogendoornbv.nl</v>
+        <v>pj.hoogendoorn@hoogendoornbv.nl</v>
       </c>
       <c r="I64" t="str">
         <v/>
@@ -2450,22 +2450,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C65" t="str">
-        <v>Frido</v>
+        <v>Guido</v>
       </c>
       <c r="D65" t="str">
-        <v>Elshout</v>
+        <v>van der Vlist</v>
       </c>
       <c r="E65" t="str">
-        <v>Frido Elshout</v>
+        <v>Guido van der Vlist</v>
       </c>
       <c r="F65" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G65" t="str">
         <v>Hoogendoorn</v>
       </c>
       <c r="H65" t="str">
-        <v>f.elshout@hoogendoornbv.nl</v>
+        <v>g.vandervlist@hoogendoornbv.nl</v>
       </c>
       <c r="I65" t="str">
         <v/>
@@ -2482,13 +2482,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C66" t="str">
-        <v>Ilona</v>
+        <v>Arie</v>
       </c>
       <c r="D66" t="str">
-        <v>Hemmer</v>
+        <v>de Groot - Hoogendoorn (GU)</v>
       </c>
       <c r="E66" t="str">
-        <v>Ilona Hemmer</v>
+        <v>Arie de Groot - Hoogendoorn (GU)</v>
       </c>
       <c r="F66" t="str">
         <v/>
@@ -2497,7 +2497,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H66" t="str">
-        <v>i.hemmer@hoogendoornbv.nl</v>
+        <v>a.degroot@hoogendoornbv.nl</v>
       </c>
       <c r="I66" t="str">
         <v/>
@@ -2514,13 +2514,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C67" t="str">
-        <v>Marco</v>
+        <v>Christiaan</v>
       </c>
       <c r="D67" t="str">
-        <v>Lek - Hoogendoorn (GU)</v>
+        <v>Eichholtz - Hoogendoorn (GU)</v>
       </c>
       <c r="E67" t="str">
-        <v>Marco Lek - Hoogendoorn (GU)</v>
+        <v>Christiaan Eichholtz - Hoogendoorn (GU)</v>
       </c>
       <c r="F67" t="str">
         <v/>
@@ -2529,7 +2529,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H67" t="str">
-        <v>m.lek@hoogendoornbv.nl</v>
+        <v>c.eichholtz@hoogendoornbv.nl</v>
       </c>
       <c r="I67" t="str">
         <v/>
@@ -2546,13 +2546,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C68" t="str">
-        <v>Marga</v>
+        <v>Frido</v>
       </c>
       <c r="D68" t="str">
-        <v>de Jong</v>
+        <v>Elshout</v>
       </c>
       <c r="E68" t="str">
-        <v>Marga de Jong</v>
+        <v>Frido Elshout</v>
       </c>
       <c r="F68" t="str">
         <v/>
@@ -2561,7 +2561,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H68" t="str">
-        <v>m.dejong@hoogendoornbv.nl</v>
+        <v>f.elshout@hoogendoornbv.nl</v>
       </c>
       <c r="I68" t="str">
         <v/>
@@ -2578,13 +2578,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C69" t="str">
-        <v>Michel</v>
+        <v>Ilona</v>
       </c>
       <c r="D69" t="str">
-        <v>van der Lingen - Hoogendoorn (GU)</v>
+        <v>Hemmer</v>
       </c>
       <c r="E69" t="str">
-        <v>Michel van der Lingen - Hoogendoorn (GU)</v>
+        <v>Ilona Hemmer</v>
       </c>
       <c r="F69" t="str">
         <v/>
@@ -2593,7 +2593,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H69" t="str">
-        <v>m.vanderlingen@hoogendoornbv.nl</v>
+        <v>i.hemmer@hoogendoornbv.nl</v>
       </c>
       <c r="I69" t="str">
         <v/>
@@ -2610,13 +2610,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C70" t="str">
-        <v>Michiel</v>
+        <v>Marco</v>
       </c>
       <c r="D70" t="str">
-        <v>Karels - Hoogendoorn (GU)</v>
+        <v>Lek - Hoogendoorn (GU)</v>
       </c>
       <c r="E70" t="str">
-        <v>Michiel Karels - Hoogendoorn (GU)</v>
+        <v>Marco Lek - Hoogendoorn (GU)</v>
       </c>
       <c r="F70" t="str">
         <v/>
@@ -2625,7 +2625,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H70" t="str">
-        <v>m.karels@hoogendoornbv.nl</v>
+        <v>m.lek@hoogendoornbv.nl</v>
       </c>
       <c r="I70" t="str">
         <v/>
@@ -2642,13 +2642,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C71" t="str">
-        <v>Piet</v>
+        <v>Marga</v>
       </c>
       <c r="D71" t="str">
-        <v>Hoogendoorn - Hoogendoorn (GU)</v>
+        <v>de Jong</v>
       </c>
       <c r="E71" t="str">
-        <v>Piet Hoogendoorn - Hoogendoorn (GU)</v>
+        <v>Marga de Jong</v>
       </c>
       <c r="F71" t="str">
         <v/>
@@ -2657,7 +2657,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H71" t="str">
-        <v>p.hoogendoorn@hoogendoornbv.nl</v>
+        <v>m.dejong@hoogendoornbv.nl</v>
       </c>
       <c r="I71" t="str">
         <v/>
@@ -2674,13 +2674,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C72" t="str">
-        <v>RenÃ©</v>
+        <v>Michel</v>
       </c>
       <c r="D72" t="str">
-        <v>Kamer</v>
+        <v>van der Lingen - Hoogendoorn (GU)</v>
       </c>
       <c r="E72" t="str">
-        <v>RenÃ© Kamer</v>
+        <v>Michel van der Lingen - Hoogendoorn (GU)</v>
       </c>
       <c r="F72" t="str">
         <v/>
@@ -2689,7 +2689,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H72" t="str">
-        <v>r.kamer@hoogendoornbv.nl</v>
+        <v>m.vanderlingen@hoogendoornbv.nl</v>
       </c>
       <c r="I72" t="str">
         <v/>
@@ -2706,13 +2706,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C73" t="str">
-        <v>Robert</v>
+        <v>Michiel</v>
       </c>
       <c r="D73" t="str">
-        <v>Heuzen - Hoogendoorn (GU)</v>
+        <v>Karels - Hoogendoorn (GU)</v>
       </c>
       <c r="E73" t="str">
-        <v>Robert Heuzen - Hoogendoorn (GU)</v>
+        <v>Michiel Karels - Hoogendoorn (GU)</v>
       </c>
       <c r="F73" t="str">
         <v/>
@@ -2721,7 +2721,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H73" t="str">
-        <v>r.heuzen@hoogendoornbv.nl</v>
+        <v>m.karels@hoogendoornbv.nl</v>
       </c>
       <c r="I73" t="str">
         <v/>
@@ -2738,13 +2738,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C74" t="str">
-        <v>Ronald</v>
+        <v>Piet</v>
       </c>
       <c r="D74" t="str">
-        <v>Kortekaas</v>
+        <v>Hoogendoorn - Hoogendoorn (GU)</v>
       </c>
       <c r="E74" t="str">
-        <v>Ronald Kortekaas</v>
+        <v>Piet Hoogendoorn - Hoogendoorn (GU)</v>
       </c>
       <c r="F74" t="str">
         <v/>
@@ -2753,7 +2753,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H74" t="str">
-        <v>r.kortekaas@hoogendoornbv.nl</v>
+        <v>p.hoogendoorn@hoogendoornbv.nl</v>
       </c>
       <c r="I74" t="str">
         <v/>
@@ -2770,13 +2770,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C75" t="str">
-        <v>Sander</v>
+        <v>RenÃ©</v>
       </c>
       <c r="D75" t="str">
-        <v>Pots</v>
+        <v>Kamer</v>
       </c>
       <c r="E75" t="str">
-        <v>Sander Pots</v>
+        <v>RenÃ© Kamer</v>
       </c>
       <c r="F75" t="str">
         <v/>
@@ -2785,7 +2785,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H75" t="str">
-        <v>s.pots@hoogendoornbv.nl</v>
+        <v>r.kamer@hoogendoornbv.nl</v>
       </c>
       <c r="I75" t="str">
         <v/>
@@ -2802,13 +2802,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C76" t="str">
-        <v>Savan</v>
+        <v>Robert</v>
       </c>
       <c r="D76" t="str">
-        <v>de Jager</v>
+        <v>Heuzen - Hoogendoorn (GU)</v>
       </c>
       <c r="E76" t="str">
-        <v>Savan de Jager</v>
+        <v>Robert Heuzen - Hoogendoorn (GU)</v>
       </c>
       <c r="F76" t="str">
         <v/>
@@ -2817,7 +2817,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H76" t="str">
-        <v>s.dejager@hoogendoornbv.nl</v>
+        <v>r.heuzen@hoogendoornbv.nl</v>
       </c>
       <c r="I76" t="str">
         <v/>
@@ -2834,13 +2834,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C77" t="str">
-        <v>Stephanie</v>
+        <v>Ronald</v>
       </c>
       <c r="D77" t="str">
-        <v>Hoogendoorn</v>
+        <v>Kortekaas</v>
       </c>
       <c r="E77" t="str">
-        <v>Stephanie Hoogendoorn</v>
+        <v>Ronald Kortekaas</v>
       </c>
       <c r="F77" t="str">
         <v/>
@@ -2849,7 +2849,7 @@
         <v>Hoogendoorn</v>
       </c>
       <c r="H77" t="str">
-        <v>s.hoogendoorn@hoogendoornbv.nl</v>
+        <v>r.kortekaas@hoogendoornbv.nl</v>
       </c>
       <c r="I77" t="str">
         <v/>
@@ -2866,22 +2866,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C78" t="str">
-        <v>Matthijs</v>
+        <v>Sander</v>
       </c>
       <c r="D78" t="str">
-        <v>de Pater</v>
+        <v>Pots</v>
       </c>
       <c r="E78" t="str">
-        <v>Matthijs de Pater</v>
+        <v>Sander Pots</v>
       </c>
       <c r="F78" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G78" t="str">
-        <v>Instain</v>
+        <v>Hoogendoorn</v>
       </c>
       <c r="H78" t="str">
-        <v>matthijs@instain.nl</v>
+        <v>s.pots@hoogendoornbv.nl</v>
       </c>
       <c r="I78" t="str">
         <v/>
@@ -2898,22 +2898,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C79" t="str">
-        <v>Willem</v>
+        <v>Savan</v>
       </c>
       <c r="D79" t="str">
-        <v>Lievestro</v>
+        <v>de Jager</v>
       </c>
       <c r="E79" t="str">
-        <v>Willem Lievestro</v>
+        <v>Savan de Jager</v>
       </c>
       <c r="F79" t="str">
-        <v>Directie, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G79" t="str">
-        <v>Instain</v>
+        <v>Hoogendoorn</v>
       </c>
       <c r="H79" t="str">
-        <v>willem.lievestro@instain.nl</v>
+        <v>s.dejager@hoogendoornbv.nl</v>
       </c>
       <c r="I79" t="str">
         <v/>
@@ -2930,22 +2930,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C80" t="str">
-        <v>Gerwin</v>
+        <v>Stephanie</v>
       </c>
       <c r="D80" t="str">
-        <v>Stijf</v>
+        <v>Hoogendoorn</v>
       </c>
       <c r="E80" t="str">
-        <v>Gerwin Stijf</v>
+        <v>Stephanie Hoogendoorn</v>
       </c>
       <c r="F80" t="str">
         <v/>
       </c>
       <c r="G80" t="str">
-        <v>Instain</v>
+        <v>Hoogendoorn</v>
       </c>
       <c r="H80" t="str">
-        <v>gerwin.stijf@instain.nl</v>
+        <v>s.hoogendoorn@hoogendoornbv.nl</v>
       </c>
       <c r="I80" t="str">
         <v/>
@@ -2962,22 +2962,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C81" t="str">
-        <v>Guido</v>
+        <v>Matthijs</v>
       </c>
       <c r="D81" t="str">
-        <v>de Haas</v>
+        <v>de Pater</v>
       </c>
       <c r="E81" t="str">
-        <v>Guido de Haas</v>
+        <v>Matthijs de Pater</v>
       </c>
       <c r="F81" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G81" t="str">
         <v>Instain</v>
       </c>
       <c r="H81" t="str">
-        <v>guido@instain.nl</v>
+        <v>matthijs@instain.nl</v>
       </c>
       <c r="I81" t="str">
         <v/>
@@ -2994,22 +2994,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C82" t="str">
-        <v>Rob</v>
+        <v>Willem</v>
       </c>
       <c r="D82" t="str">
-        <v>van Hoorn</v>
+        <v>Lievestro</v>
       </c>
       <c r="E82" t="str">
-        <v>Rob van Hoorn</v>
+        <v>Willem Lievestro</v>
       </c>
       <c r="F82" t="str">
         <v>Directie, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G82" t="str">
-        <v>Intelectric</v>
+        <v>Instain</v>
       </c>
       <c r="H82" t="str">
-        <v>r.vanhoorn@intelectric.nl</v>
+        <v>willem.lievestro@instain.nl</v>
       </c>
       <c r="I82" t="str">
         <v/>
@@ -3026,22 +3026,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C83" t="str">
-        <v>Wendy</v>
+        <v>Gerwin</v>
       </c>
       <c r="D83" t="str">
-        <v>Maas</v>
+        <v>Stijf</v>
       </c>
       <c r="E83" t="str">
-        <v>Wendy Maas</v>
+        <v>Gerwin Stijf</v>
       </c>
       <c r="F83" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G83" t="str">
-        <v>Intelectric</v>
+        <v>Instain</v>
       </c>
       <c r="H83" t="str">
-        <v>w.maas@intelectric.nl</v>
+        <v>gerwin.stijf@instain.nl</v>
       </c>
       <c r="I83" t="str">
         <v/>
@@ -3052,31 +3052,31 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B84" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C84" t="str">
-        <v>Administratie</v>
+        <v>Guido</v>
       </c>
       <c r="D84" t="str">
-        <v/>
+        <v>de Haas</v>
       </c>
       <c r="E84" t="str">
-        <v>Administratie</v>
+        <v>Guido de Haas</v>
       </c>
       <c r="F84" t="str">
         <v/>
       </c>
       <c r="G84" t="str">
-        <v>Intelectric</v>
+        <v>Instain</v>
       </c>
       <c r="H84" t="str">
-        <v/>
+        <v>guido@instain.nl</v>
       </c>
       <c r="I84" t="str">
-        <v>administratie@intelectric.nl</v>
+        <v/>
       </c>
       <c r="J84" t="str">
         <v/>
@@ -3090,22 +3090,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C85" t="str">
-        <v>John</v>
+        <v>Rob</v>
       </c>
       <c r="D85" t="str">
-        <v>Ketelaars</v>
+        <v>van Hoorn</v>
       </c>
       <c r="E85" t="str">
-        <v>John Ketelaars</v>
+        <v>Rob van Hoorn</v>
       </c>
       <c r="F85" t="str">
-        <v/>
+        <v>Directie, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G85" t="str">
         <v>Intelectric</v>
       </c>
       <c r="H85" t="str">
-        <v>j.ketelaars@intelectric.nl</v>
+        <v>r.vanhoorn@intelectric.nl</v>
       </c>
       <c r="I85" t="str">
         <v/>
@@ -3122,22 +3122,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C86" t="str">
-        <v>Patric</v>
+        <v>Wendy</v>
       </c>
       <c r="D86" t="str">
-        <v>Vranckx</v>
+        <v>Maas</v>
       </c>
       <c r="E86" t="str">
-        <v>Patric Vranckx</v>
+        <v>Wendy Maas</v>
       </c>
       <c r="F86" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G86" t="str">
         <v>Intelectric</v>
       </c>
       <c r="H86" t="str">
-        <v>p.vranckx@intelectric.nl</v>
+        <v>w.maas@intelectric.nl</v>
       </c>
       <c r="I86" t="str">
         <v/>
@@ -3148,31 +3148,31 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B87" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C87" t="str">
-        <v>Martijn</v>
+        <v>Administratie</v>
       </c>
       <c r="D87" t="str">
-        <v>Groenen</v>
+        <v/>
       </c>
       <c r="E87" t="str">
-        <v>Martijn Groenen</v>
+        <v>Administratie</v>
       </c>
       <c r="F87" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G87" t="str">
-        <v>Kanters e.Tech</v>
+        <v>Intelectric</v>
       </c>
       <c r="H87" t="str">
-        <v>mgroenen@kantersetech.nl</v>
+        <v/>
       </c>
       <c r="I87" t="str">
-        <v/>
+        <v>administratie@intelectric.nl</v>
       </c>
       <c r="J87" t="str">
         <v/>
@@ -3186,22 +3186,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C88" t="str">
-        <v>Rfesten</v>
+        <v>John</v>
       </c>
       <c r="D88" t="str">
-        <v/>
+        <v>Ketelaars</v>
       </c>
       <c r="E88" t="str">
-        <v>Rfesten</v>
+        <v>John Ketelaars</v>
       </c>
       <c r="F88" t="str">
         <v/>
       </c>
       <c r="G88" t="str">
-        <v>Kanters e.Tech</v>
+        <v>Intelectric</v>
       </c>
       <c r="H88" t="str">
-        <v>rfesten@kantersetech.nl</v>
+        <v>j.ketelaars@intelectric.nl</v>
       </c>
       <c r="I88" t="str">
         <v/>
@@ -3218,22 +3218,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C89" t="str">
-        <v>Chantal</v>
+        <v>Patric</v>
       </c>
       <c r="D89" t="str">
-        <v>Sterken</v>
+        <v>Vranckx</v>
       </c>
       <c r="E89" t="str">
-        <v>Chantal Sterken</v>
+        <v>Patric Vranckx</v>
       </c>
       <c r="F89" t="str">
         <v/>
       </c>
       <c r="G89" t="str">
-        <v>Kanters e.Tech</v>
+        <v>Intelectric</v>
       </c>
       <c r="H89" t="str">
-        <v>csterken@kantersetech.nl</v>
+        <v>p.vranckx@intelectric.nl</v>
       </c>
       <c r="I89" t="str">
         <v/>
@@ -3244,28 +3244,28 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B90" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C90" t="str">
-        <v>Maarten</v>
+        <v>Martijn</v>
       </c>
       <c r="D90" t="str">
-        <v>Kanters</v>
+        <v>Groenen</v>
       </c>
       <c r="E90" t="str">
-        <v>Maarten Kanters</v>
+        <v>Martijn Groenen</v>
       </c>
       <c r="F90" t="str">
-        <v>Directie</v>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G90" t="str">
         <v>Kanters e.Tech</v>
       </c>
       <c r="H90" t="str">
-        <v>mkanters@kantersetech.nl</v>
+        <v>mgroenen@kantersetech.nl</v>
       </c>
       <c r="I90" t="str">
         <v/>
@@ -3276,19 +3276,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B91" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C91" t="str">
-        <v>Facturen</v>
+        <v>Rfesten</v>
       </c>
       <c r="D91" t="str">
         <v/>
       </c>
       <c r="E91" t="str">
-        <v>Facturen</v>
+        <v>Rfesten</v>
       </c>
       <c r="F91" t="str">
         <v/>
@@ -3297,10 +3297,10 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H91" t="str">
-        <v/>
+        <v>rfesten@kantersetech.nl</v>
       </c>
       <c r="I91" t="str">
-        <v>facturen@kantersetech.nl</v>
+        <v/>
       </c>
       <c r="J91" t="str">
         <v/>
@@ -3314,13 +3314,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C92" t="str">
-        <v>Andrea</v>
+        <v>Chantal</v>
       </c>
       <c r="D92" t="str">
-        <v>van Kuijeren</v>
+        <v>Sterken</v>
       </c>
       <c r="E92" t="str">
-        <v>Andrea van Kuijeren</v>
+        <v>Chantal Sterken</v>
       </c>
       <c r="F92" t="str">
         <v/>
@@ -3329,7 +3329,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H92" t="str">
-        <v>avankuijeren@kantersetech.nl</v>
+        <v>csterken@kantersetech.nl</v>
       </c>
       <c r="I92" t="str">
         <v/>
@@ -3340,28 +3340,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B93" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C93" t="str">
-        <v>Bart</v>
+        <v>Maarten</v>
       </c>
       <c r="D93" t="str">
-        <v>van der Rijt</v>
+        <v>Kanters</v>
       </c>
       <c r="E93" t="str">
-        <v>Bart van der Rijt</v>
+        <v>Maarten Kanters</v>
       </c>
       <c r="F93" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G93" t="str">
         <v>Kanters e.Tech</v>
       </c>
       <c r="H93" t="str">
-        <v>bvanderrijt@kantersetech.nl</v>
+        <v>mkanters@kantersetech.nl</v>
       </c>
       <c r="I93" t="str">
         <v/>
@@ -3372,19 +3372,19 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B94" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C94" t="str">
-        <v>Dennis</v>
+        <v>Facturen</v>
       </c>
       <c r="D94" t="str">
-        <v>Verhoeven</v>
+        <v/>
       </c>
       <c r="E94" t="str">
-        <v>Dennis Verhoeven</v>
+        <v>Facturen</v>
       </c>
       <c r="F94" t="str">
         <v/>
@@ -3393,10 +3393,10 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H94" t="str">
-        <v>dverhoeven@kantersetech.nl</v>
+        <v/>
       </c>
       <c r="I94" t="str">
-        <v/>
+        <v>facturen@kantersetech.nl</v>
       </c>
       <c r="J94" t="str">
         <v/>
@@ -3410,13 +3410,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C95" t="str">
-        <v>Erik</v>
+        <v>Andrea</v>
       </c>
       <c r="D95" t="str">
-        <v>Koolen</v>
+        <v>van Kuijeren</v>
       </c>
       <c r="E95" t="str">
-        <v>Erik Koolen</v>
+        <v>Andrea van Kuijeren</v>
       </c>
       <c r="F95" t="str">
         <v/>
@@ -3425,7 +3425,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H95" t="str">
-        <v>ekoolen@kantersetech.nl</v>
+        <v>avankuijeren@kantersetech.nl</v>
       </c>
       <c r="I95" t="str">
         <v/>
@@ -3442,13 +3442,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C96" t="str">
-        <v>Han</v>
+        <v>Bart</v>
       </c>
       <c r="D96" t="str">
-        <v>van den Bosch</v>
+        <v>van der Rijt</v>
       </c>
       <c r="E96" t="str">
-        <v>Han van den Bosch</v>
+        <v>Bart van der Rijt</v>
       </c>
       <c r="F96" t="str">
         <v/>
@@ -3457,7 +3457,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H96" t="str">
-        <v>hvandenbosch@kantersetech.nl</v>
+        <v>bvanderrijt@kantersetech.nl</v>
       </c>
       <c r="I96" t="str">
         <v/>
@@ -3474,13 +3474,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C97" t="str">
-        <v>J</v>
+        <v>Dennis</v>
       </c>
       <c r="D97" t="str">
         <v>Verhoeven</v>
       </c>
       <c r="E97" t="str">
-        <v>J Verhoeven</v>
+        <v>Dennis Verhoeven</v>
       </c>
       <c r="F97" t="str">
         <v/>
@@ -3489,7 +3489,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H97" t="str">
-        <v>jverhoeven@kantersetech.nl</v>
+        <v>dverhoeven@kantersetech.nl</v>
       </c>
       <c r="I97" t="str">
         <v/>
@@ -3506,13 +3506,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C98" t="str">
-        <v>J</v>
+        <v>Erik</v>
       </c>
       <c r="D98" t="str">
-        <v>de Wolff</v>
+        <v>Koolen</v>
       </c>
       <c r="E98" t="str">
-        <v>J de Wolff</v>
+        <v>Erik Koolen</v>
       </c>
       <c r="F98" t="str">
         <v/>
@@ -3521,7 +3521,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H98" t="str">
-        <v>jdewolff@kantersetech.nl</v>
+        <v>ekoolen@kantersetech.nl</v>
       </c>
       <c r="I98" t="str">
         <v/>
@@ -3538,13 +3538,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C99" t="str">
-        <v>Stijn</v>
+        <v>Han</v>
       </c>
       <c r="D99" t="str">
-        <v>Jansma</v>
+        <v>van den Bosch</v>
       </c>
       <c r="E99" t="str">
-        <v>Stijn Jansma</v>
+        <v>Han van den Bosch</v>
       </c>
       <c r="F99" t="str">
         <v/>
@@ -3553,7 +3553,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H99" t="str">
-        <v>sjansma@kantersetech.nl</v>
+        <v>hvandenbosch@kantersetech.nl</v>
       </c>
       <c r="I99" t="str">
         <v/>
@@ -3570,13 +3570,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C100" t="str">
-        <v>T</v>
+        <v>J</v>
       </c>
       <c r="D100" t="str">
-        <v>Huinink</v>
+        <v>Verhoeven</v>
       </c>
       <c r="E100" t="str">
-        <v>T Huinink</v>
+        <v>J Verhoeven</v>
       </c>
       <c r="F100" t="str">
         <v/>
@@ -3585,7 +3585,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H100" t="str">
-        <v>thuinink@kantersetech.nl</v>
+        <v>jverhoeven@kantersetech.nl</v>
       </c>
       <c r="I100" t="str">
         <v/>
@@ -3602,13 +3602,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C101" t="str">
-        <v>Werner</v>
+        <v>J</v>
       </c>
       <c r="D101" t="str">
-        <v>Roovers</v>
+        <v>de Wolff</v>
       </c>
       <c r="E101" t="str">
-        <v>Werner Roovers</v>
+        <v>J de Wolff</v>
       </c>
       <c r="F101" t="str">
         <v/>
@@ -3617,7 +3617,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H101" t="str">
-        <v>wroovers@kantersetech.nl</v>
+        <v>jdewolff@kantersetech.nl</v>
       </c>
       <c r="I101" t="str">
         <v/>
@@ -3634,13 +3634,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C102" t="str">
-        <v>Willem</v>
+        <v>Stijn</v>
       </c>
       <c r="D102" t="str">
-        <v>van Pelt</v>
+        <v>Jansma</v>
       </c>
       <c r="E102" t="str">
-        <v>Willem van Pelt</v>
+        <v>Stijn Jansma</v>
       </c>
       <c r="F102" t="str">
         <v/>
@@ -3649,7 +3649,7 @@
         <v>Kanters e.Tech</v>
       </c>
       <c r="H102" t="str">
-        <v>wvanpelt@kantersetech.nl</v>
+        <v>sjansma@kantersetech.nl</v>
       </c>
       <c r="I102" t="str">
         <v/>
@@ -3666,22 +3666,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C103" t="str">
-        <v>Duke</v>
+        <v>T</v>
       </c>
       <c r="D103" t="str">
-        <v>Kolsters</v>
+        <v>Huinink</v>
       </c>
       <c r="E103" t="str">
-        <v>Duke Kolsters</v>
+        <v>T Huinink</v>
       </c>
       <c r="F103" t="str">
-        <v>Directie, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G103" t="str">
-        <v>Kolsters Installatietechniek</v>
+        <v>Kanters e.Tech</v>
       </c>
       <c r="H103" t="str">
-        <v>duke@kolsters.eu</v>
+        <v>thuinink@kantersetech.nl</v>
       </c>
       <c r="I103" t="str">
         <v/>
@@ -3698,22 +3698,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C104" t="str">
-        <v>Tino</v>
+        <v>Werner</v>
       </c>
       <c r="D104" t="str">
-        <v>Kolsters</v>
+        <v>Roovers</v>
       </c>
       <c r="E104" t="str">
-        <v>Tino Kolsters</v>
+        <v>Werner Roovers</v>
       </c>
       <c r="F104" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G104" t="str">
-        <v>Kolsters Installatietechniek</v>
+        <v>Kanters e.Tech</v>
       </c>
       <c r="H104" t="str">
-        <v>tino@kolsters.eu</v>
+        <v>wroovers@kantersetech.nl</v>
       </c>
       <c r="I104" t="str">
         <v/>
@@ -3730,22 +3730,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C105" t="str">
-        <v>Peter</v>
+        <v>Willem</v>
       </c>
       <c r="D105" t="str">
-        <v>van de Sande</v>
+        <v>van Pelt</v>
       </c>
       <c r="E105" t="str">
-        <v>Peter van de Sande</v>
+        <v>Willem van Pelt</v>
       </c>
       <c r="F105" t="str">
         <v/>
       </c>
       <c r="G105" t="str">
-        <v>Kolsters Installatietechniek</v>
+        <v>Kanters e.Tech</v>
       </c>
       <c r="H105" t="str">
-        <v>pvdsande@kolsters.eu</v>
+        <v>wvanpelt@kantersetech.nl</v>
       </c>
       <c r="I105" t="str">
         <v/>
@@ -3762,22 +3762,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C106" t="str">
-        <v>Adriaan</v>
+        <v>Duke</v>
       </c>
       <c r="D106" t="str">
-        <v>Der Neut</v>
+        <v>Kolsters</v>
       </c>
       <c r="E106" t="str">
-        <v>Adriaan Der Neut</v>
+        <v>Duke Kolsters</v>
       </c>
       <c r="F106" t="str">
-        <v/>
+        <v>Directie, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G106" t="str">
-        <v>Kromwijk Elektrotechniek</v>
+        <v>Kolsters Installatietechniek</v>
       </c>
       <c r="H106" t="str">
-        <v>avdneut@kromwijkelektro.nl</v>
+        <v>duke@kolsters.eu</v>
       </c>
       <c r="I106" t="str">
         <v/>
@@ -3794,22 +3794,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C107" t="str">
-        <v>Patrick</v>
+        <v>Tino</v>
       </c>
       <c r="D107" t="str">
-        <v>Voorbij</v>
+        <v>Kolsters</v>
       </c>
       <c r="E107" t="str">
-        <v>Patrick Voorbij</v>
+        <v>Tino Kolsters</v>
       </c>
       <c r="F107" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G107" t="str">
-        <v>Kromwijk Elektrotechniek</v>
+        <v>Kolsters Installatietechniek</v>
       </c>
       <c r="H107" t="str">
-        <v>patrick@kromwijkelectro.nl</v>
+        <v>tino@kolsters.eu</v>
       </c>
       <c r="I107" t="str">
         <v/>
@@ -3826,22 +3826,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C108" t="str">
-        <v>Adriaan</v>
+        <v>Peter</v>
       </c>
       <c r="D108" t="str">
-        <v>van der Neut</v>
+        <v>van de Sande</v>
       </c>
       <c r="E108" t="str">
-        <v>Adriaan van der Neut</v>
+        <v>Peter van de Sande</v>
       </c>
       <c r="F108" t="str">
         <v/>
       </c>
       <c r="G108" t="str">
-        <v>Kromwijk Elektrotechniek</v>
+        <v>Kolsters Installatietechniek</v>
       </c>
       <c r="H108" t="str">
-        <v>avdneut@kromwijkelektro.nl, adriaan@kromwijkelektro.nl</v>
+        <v>pvdsande@kolsters.eu</v>
       </c>
       <c r="I108" t="str">
         <v/>
@@ -3858,22 +3858,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C109" t="str">
-        <v>Ernst</v>
+        <v>Adriaan</v>
       </c>
       <c r="D109" t="str">
-        <v>Kronenburg</v>
+        <v>Der Neut</v>
       </c>
       <c r="E109" t="str">
-        <v>Ernst Kronenburg</v>
+        <v>Adriaan Der Neut</v>
       </c>
       <c r="F109" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G109" t="str">
-        <v>Kronenburg Techniek</v>
+        <v>Kromwijk Elektrotechniek</v>
       </c>
       <c r="H109" t="str">
-        <v>ernstkronenburg@kronenburg-techniek.nl</v>
+        <v>avdneut@kromwijkelektro.nl</v>
       </c>
       <c r="I109" t="str">
         <v/>
@@ -3884,28 +3884,28 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <v>Niet bezorgd</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B110" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C110" t="str">
-        <v>Peter</v>
+        <v>Patrick</v>
       </c>
       <c r="D110" t="str">
-        <v>de Vries</v>
+        <v>Voorbij</v>
       </c>
       <c r="E110" t="str">
-        <v>Peter de Vries</v>
+        <v>Patrick Voorbij</v>
       </c>
       <c r="F110" t="str">
         <v/>
       </c>
       <c r="G110" t="str">
-        <v>Kronenburg Techniek</v>
+        <v>Kromwijk Elektrotechniek</v>
       </c>
       <c r="H110" t="str">
-        <v>peterdevries@kronenburg-techniek.nl, peter.devries@pranger-rosier.nl</v>
+        <v>patrick@kromwijkelectro.nl</v>
       </c>
       <c r="I110" t="str">
         <v/>
@@ -3916,28 +3916,28 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B111" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C111" t="str">
-        <v>Brian</v>
+        <v>Adriaan</v>
       </c>
       <c r="D111" t="str">
-        <v>Osman</v>
+        <v>van der Neut</v>
       </c>
       <c r="E111" t="str">
-        <v>Brian Osman</v>
+        <v>Adriaan van der Neut</v>
       </c>
       <c r="F111" t="str">
         <v/>
       </c>
       <c r="G111" t="str">
-        <v>Kronenburg Techniek</v>
+        <v>Kromwijk Elektrotechniek</v>
       </c>
       <c r="H111" t="str">
-        <v/>
+        <v>avdneut@kromwijkelektro.nl, adriaan@kromwijkelektro.nl</v>
       </c>
       <c r="I111" t="str">
         <v/>
@@ -3954,22 +3954,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C112" t="str">
-        <v>Myriam</v>
+        <v>Ernst</v>
       </c>
       <c r="D112" t="str">
-        <v>van Veen</v>
+        <v>Kronenburg</v>
       </c>
       <c r="E112" t="str">
-        <v>Myriam van Veen</v>
+        <v>Ernst Kronenburg</v>
       </c>
       <c r="F112" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G112" t="str">
         <v>Kronenburg Techniek</v>
       </c>
       <c r="H112" t="str">
-        <v>myriamvanveen@kronenburg-techniek.nl</v>
+        <v>ernstkronenburg@kronenburg-techniek.nl</v>
       </c>
       <c r="I112" t="str">
         <v/>
@@ -3980,19 +3980,19 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <v>Geabonneerd</v>
+        <v>Niet bezorgd</v>
       </c>
       <c r="B113" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C113" t="str">
-        <v>Damaris</v>
+        <v>Peter</v>
       </c>
       <c r="D113" t="str">
-        <v>Roodhart</v>
+        <v>de Vries</v>
       </c>
       <c r="E113" t="str">
-        <v>Damaris Roodhart</v>
+        <v>Peter de Vries</v>
       </c>
       <c r="F113" t="str">
         <v/>
@@ -4001,7 +4001,7 @@
         <v>Kronenburg Techniek</v>
       </c>
       <c r="H113" t="str">
-        <v>damarisroodhart@kronenburg-techniek.nl</v>
+        <v>peterdevries@kronenburg-techniek.nl, peter.devries@pranger-rosier.nl</v>
       </c>
       <c r="I113" t="str">
         <v/>
@@ -4012,19 +4012,19 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B114" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C114" t="str">
-        <v>Cyrille</v>
+        <v>Brian</v>
       </c>
       <c r="D114" t="str">
-        <v>de Haan - Kronenburg Techniek</v>
+        <v>Osman</v>
       </c>
       <c r="E114" t="str">
-        <v>Cyrille de Haan - Kronenburg Techniek</v>
+        <v>Brian Osman</v>
       </c>
       <c r="F114" t="str">
         <v/>
@@ -4033,7 +4033,7 @@
         <v>Kronenburg Techniek</v>
       </c>
       <c r="H114" t="str">
-        <v>cyrilledehaan@kronenburg-techniek.nl</v>
+        <v/>
       </c>
       <c r="I114" t="str">
         <v/>
@@ -4050,13 +4050,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C115" t="str">
-        <v>Gerben</v>
+        <v>Myriam</v>
       </c>
       <c r="D115" t="str">
-        <v>van der GaliÃ«n - Kronenburg Techniek</v>
+        <v>van Veen</v>
       </c>
       <c r="E115" t="str">
-        <v>Gerben van der GaliÃ«n - Kronenburg Techniek</v>
+        <v>Myriam van Veen</v>
       </c>
       <c r="F115" t="str">
         <v/>
@@ -4065,7 +4065,7 @@
         <v>Kronenburg Techniek</v>
       </c>
       <c r="H115" t="str">
-        <v>gerbenvandergalien@kronenburg-techniek.nl</v>
+        <v>myriamvanveen@kronenburg-techniek.nl</v>
       </c>
       <c r="I115" t="str">
         <v/>
@@ -4076,19 +4076,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B116" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C116" t="str">
-        <v>Jeffrey</v>
+        <v>Damaris</v>
       </c>
       <c r="D116" t="str">
-        <v>Verhoeven - Kronenburg Techniek</v>
+        <v>Roodhart</v>
       </c>
       <c r="E116" t="str">
-        <v>Jeffrey Verhoeven - Kronenburg Techniek</v>
+        <v>Damaris Roodhart</v>
       </c>
       <c r="F116" t="str">
         <v/>
@@ -4097,7 +4097,7 @@
         <v>Kronenburg Techniek</v>
       </c>
       <c r="H116" t="str">
-        <v>jeffreyverhoeven@kronenburg-techniek.nl</v>
+        <v>damarisroodhart@kronenburg-techniek.nl</v>
       </c>
       <c r="I116" t="str">
         <v/>
@@ -4114,13 +4114,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C117" t="str">
-        <v>Laura</v>
+        <v>Cyrille</v>
       </c>
       <c r="D117" t="str">
-        <v>Zegers - Kronenburg Techniek</v>
+        <v>de Haan - Kronenburg Techniek</v>
       </c>
       <c r="E117" t="str">
-        <v>Laura Zegers - Kronenburg Techniek</v>
+        <v>Cyrille de Haan - Kronenburg Techniek</v>
       </c>
       <c r="F117" t="str">
         <v/>
@@ -4129,7 +4129,7 @@
         <v>Kronenburg Techniek</v>
       </c>
       <c r="H117" t="str">
-        <v>laurazegers@kronenburg-techniek.nl</v>
+        <v>cyrilledehaan@kronenburg-techniek.nl</v>
       </c>
       <c r="I117" t="str">
         <v/>
@@ -4146,13 +4146,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C118" t="str">
-        <v>Matthieu</v>
+        <v>Gerben</v>
       </c>
       <c r="D118" t="str">
-        <v>van Roest - Kronenburg Techniek</v>
+        <v>van der GaliÃ«n - Kronenburg Techniek</v>
       </c>
       <c r="E118" t="str">
-        <v>Matthieu van Roest - Kronenburg Techniek</v>
+        <v>Gerben van der GaliÃ«n - Kronenburg Techniek</v>
       </c>
       <c r="F118" t="str">
         <v/>
@@ -4161,7 +4161,7 @@
         <v>Kronenburg Techniek</v>
       </c>
       <c r="H118" t="str">
-        <v>matthieuvanroest@kronenburg-techniek.nl</v>
+        <v>gerbenvandergalien@kronenburg-techniek.nl</v>
       </c>
       <c r="I118" t="str">
         <v/>
@@ -4172,28 +4172,28 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B119" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C119" t="str">
-        <v>Niels</v>
+        <v>Jeffrey</v>
       </c>
       <c r="D119" t="str">
-        <v>Lammens</v>
+        <v>Verhoeven - Kronenburg Techniek</v>
       </c>
       <c r="E119" t="str">
-        <v>Niels Lammens</v>
+        <v>Jeffrey Verhoeven - Kronenburg Techniek</v>
       </c>
       <c r="F119" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G119" t="str">
-        <v>Mampaey</v>
+        <v>Kronenburg Techniek</v>
       </c>
       <c r="H119" t="str">
-        <v>n.lammens@mampaey.nl</v>
+        <v>jeffreyverhoeven@kronenburg-techniek.nl</v>
       </c>
       <c r="I119" t="str">
         <v/>
@@ -4210,22 +4210,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C120" t="str">
-        <v>Jordi</v>
+        <v>Laura</v>
       </c>
       <c r="D120" t="str">
-        <v>Breedveld</v>
+        <v>Zegers - Kronenburg Techniek</v>
       </c>
       <c r="E120" t="str">
-        <v>Jordi Breedveld</v>
+        <v>Laura Zegers - Kronenburg Techniek</v>
       </c>
       <c r="F120" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G120" t="str">
-        <v>Mampaey</v>
+        <v>Kronenburg Techniek</v>
       </c>
       <c r="H120" t="str">
-        <v>j.breedveld@mampaey.nl</v>
+        <v>laurazegers@kronenburg-techniek.nl</v>
       </c>
       <c r="I120" t="str">
         <v/>
@@ -4236,31 +4236,31 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B121" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C121" t="str">
-        <v>Icfmit</v>
+        <v>Matthieu</v>
       </c>
       <c r="D121" t="str">
-        <v/>
+        <v>van Roest - Kronenburg Techniek</v>
       </c>
       <c r="E121" t="str">
-        <v>Icfmit</v>
+        <v>Matthieu van Roest - Kronenburg Techniek</v>
       </c>
       <c r="F121" t="str">
         <v/>
       </c>
       <c r="G121" t="str">
-        <v>Mampaey</v>
+        <v>Kronenburg Techniek</v>
       </c>
       <c r="H121" t="str">
-        <v/>
+        <v>matthieuvanroest@kronenburg-techniek.nl</v>
       </c>
       <c r="I121" t="str">
-        <v>icfmit@mampaey.nl</v>
+        <v/>
       </c>
       <c r="J121" t="str">
         <v/>
@@ -4274,22 +4274,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C122" t="str">
-        <v>Johan</v>
+        <v>Niels</v>
       </c>
       <c r="D122" t="str">
-        <v>Paping</v>
+        <v>Lammens</v>
       </c>
       <c r="E122" t="str">
-        <v>Johan Paping</v>
+        <v>Niels Lammens</v>
       </c>
       <c r="F122" t="str">
-        <v>Controller, Contactpersoon IT (intern)</v>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G122" t="str">
         <v>Mampaey</v>
       </c>
       <c r="H122" t="str">
-        <v>j.paping@mampaey.nl</v>
+        <v>n.lammens@mampaey.nl</v>
       </c>
       <c r="I122" t="str">
         <v/>
@@ -4306,22 +4306,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C123" t="str">
-        <v>Alex</v>
+        <v>Jordi</v>
       </c>
       <c r="D123" t="str">
-        <v>Hallatu</v>
+        <v>Breedveld</v>
       </c>
       <c r="E123" t="str">
-        <v>Alex Hallatu</v>
+        <v>Jordi Breedveld</v>
       </c>
       <c r="F123" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G123" t="str">
         <v>Mampaey</v>
       </c>
       <c r="H123" t="str">
-        <v>a.hallatu@mampaey.nl</v>
+        <v>j.breedveld@mampaey.nl</v>
       </c>
       <c r="I123" t="str">
         <v/>
@@ -4332,19 +4332,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B124" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C124" t="str">
-        <v>Arthur</v>
+        <v>Icfmit</v>
       </c>
       <c r="D124" t="str">
-        <v>van der Hilst - Mampaey (GU)</v>
+        <v/>
       </c>
       <c r="E124" t="str">
-        <v>Arthur van der Hilst - Mampaey (GU)</v>
+        <v>Icfmit</v>
       </c>
       <c r="F124" t="str">
         <v/>
@@ -4353,10 +4353,10 @@
         <v>Mampaey</v>
       </c>
       <c r="H124" t="str">
-        <v>a.vanderhilst@mampaey.nl</v>
+        <v/>
       </c>
       <c r="I124" t="str">
-        <v/>
+        <v>icfmit@mampaey.nl</v>
       </c>
       <c r="J124" t="str">
         <v/>
@@ -4370,22 +4370,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C125" t="str">
-        <v>Cees</v>
+        <v>Johan</v>
       </c>
       <c r="D125" t="str">
-        <v>Jongkoen - Mamapey (GU)</v>
+        <v>Paping</v>
       </c>
       <c r="E125" t="str">
-        <v>Cees Jongkoen - Mamapey (GU)</v>
+        <v>Johan Paping</v>
       </c>
       <c r="F125" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern)</v>
       </c>
       <c r="G125" t="str">
         <v>Mampaey</v>
       </c>
       <c r="H125" t="str">
-        <v>c.jongkoen@mampaey.nl</v>
+        <v>j.paping@mampaey.nl</v>
       </c>
       <c r="I125" t="str">
         <v/>
@@ -4402,13 +4402,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C126" t="str">
-        <v>Chris</v>
+        <v>Alex</v>
       </c>
       <c r="D126" t="str">
-        <v>Kafoe</v>
+        <v>Hallatu</v>
       </c>
       <c r="E126" t="str">
-        <v>Chris Kafoe</v>
+        <v>Alex Hallatu</v>
       </c>
       <c r="F126" t="str">
         <v/>
@@ -4417,7 +4417,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H126" t="str">
-        <v>c.kafoe@mampaey.nl</v>
+        <v>a.hallatu@mampaey.nl</v>
       </c>
       <c r="I126" t="str">
         <v/>
@@ -4434,13 +4434,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C127" t="str">
-        <v>Georgina</v>
+        <v>Arthur</v>
       </c>
       <c r="D127" t="str">
-        <v>van Dijk-Kwee - Mampaey (GU)</v>
+        <v>van der Hilst - Mampaey (GU)</v>
       </c>
       <c r="E127" t="str">
-        <v>Georgina van Dijk-Kwee - Mampaey (GU)</v>
+        <v>Arthur van der Hilst - Mampaey (GU)</v>
       </c>
       <c r="F127" t="str">
         <v/>
@@ -4449,7 +4449,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H127" t="str">
-        <v>g.vandijk@mampaey.nl</v>
+        <v>a.vanderhilst@mampaey.nl</v>
       </c>
       <c r="I127" t="str">
         <v/>
@@ -4466,13 +4466,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C128" t="str">
-        <v>Joeri</v>
+        <v>Cees</v>
       </c>
       <c r="D128" t="str">
-        <v>van Zijl - Mampaey (GU)</v>
+        <v>Jongkoen - Mamapey (GU)</v>
       </c>
       <c r="E128" t="str">
-        <v>Joeri van Zijl - Mampaey (GU)</v>
+        <v>Cees Jongkoen - Mamapey (GU)</v>
       </c>
       <c r="F128" t="str">
         <v/>
@@ -4481,7 +4481,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H128" t="str">
-        <v>j.vanzijl@mampaey.nl</v>
+        <v>c.jongkoen@mampaey.nl</v>
       </c>
       <c r="I128" t="str">
         <v/>
@@ -4498,13 +4498,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C129" t="str">
-        <v>Niels</v>
+        <v>Chris</v>
       </c>
       <c r="D129" t="str">
-        <v>Luksemburg - Mampaey (GU)</v>
+        <v>Kafoe</v>
       </c>
       <c r="E129" t="str">
-        <v>Niels Luksemburg - Mampaey (GU)</v>
+        <v>Chris Kafoe</v>
       </c>
       <c r="F129" t="str">
         <v/>
@@ -4513,7 +4513,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H129" t="str">
-        <v>n.luksemburg@mampaey.nl</v>
+        <v>c.kafoe@mampaey.nl</v>
       </c>
       <c r="I129" t="str">
         <v/>
@@ -4530,13 +4530,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C130" t="str">
-        <v>Patrick</v>
+        <v>Georgina</v>
       </c>
       <c r="D130" t="str">
-        <v>Klop - Mampaey (GU)</v>
+        <v>van Dijk-Kwee - Mampaey (GU)</v>
       </c>
       <c r="E130" t="str">
-        <v>Patrick Klop - Mampaey (GU)</v>
+        <v>Georgina van Dijk-Kwee - Mampaey (GU)</v>
       </c>
       <c r="F130" t="str">
         <v/>
@@ -4545,7 +4545,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H130" t="str">
-        <v>p.klop@mampaey.nl</v>
+        <v>g.vandijk@mampaey.nl</v>
       </c>
       <c r="I130" t="str">
         <v/>
@@ -4562,13 +4562,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C131" t="str">
-        <v>Remco</v>
+        <v>Joeri</v>
       </c>
       <c r="D131" t="str">
-        <v>Vlak - Mampaey (GU)</v>
+        <v>van Zijl - Mampaey (GU)</v>
       </c>
       <c r="E131" t="str">
-        <v>Remco Vlak - Mampaey (GU)</v>
+        <v>Joeri van Zijl - Mampaey (GU)</v>
       </c>
       <c r="F131" t="str">
         <v/>
@@ -4577,7 +4577,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H131" t="str">
-        <v>r.vlak@mampaey.nl</v>
+        <v>j.vanzijl@mampaey.nl</v>
       </c>
       <c r="I131" t="str">
         <v/>
@@ -4594,13 +4594,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C132" t="str">
-        <v>Robbert</v>
+        <v>Niels</v>
       </c>
       <c r="D132" t="str">
-        <v>Boset - Mampaey (GU)</v>
+        <v>Luksemburg - Mampaey (GU)</v>
       </c>
       <c r="E132" t="str">
-        <v>Robbert Boset - Mampaey (GU)</v>
+        <v>Niels Luksemburg - Mampaey (GU)</v>
       </c>
       <c r="F132" t="str">
         <v/>
@@ -4609,7 +4609,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H132" t="str">
-        <v>r.boset@mampaey.nl</v>
+        <v>n.luksemburg@mampaey.nl</v>
       </c>
       <c r="I132" t="str">
         <v/>
@@ -4620,19 +4620,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <v>Niet bezorgd</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B133" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C133" t="str">
-        <v>Sanne</v>
+        <v>Patrick</v>
       </c>
       <c r="D133" t="str">
-        <v>Timmer</v>
+        <v>Klop - Mampaey (GU)</v>
       </c>
       <c r="E133" t="str">
-        <v>Sanne Timmer</v>
+        <v>Patrick Klop - Mampaey (GU)</v>
       </c>
       <c r="F133" t="str">
         <v/>
@@ -4641,7 +4641,7 @@
         <v>Mampaey</v>
       </c>
       <c r="H133" t="str">
-        <v>s.timmer@mampaey.nl</v>
+        <v>p.klop@mampaey.nl</v>
       </c>
       <c r="I133" t="str">
         <v/>
@@ -4652,28 +4652,28 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B134" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C134" t="str">
-        <v>Jos</v>
+        <v>Remco</v>
       </c>
       <c r="D134" t="str">
-        <v>Ruijs</v>
+        <v>Vlak - Mampaey (GU)</v>
       </c>
       <c r="E134" t="str">
-        <v>Jos Ruijs</v>
+        <v>Remco Vlak - Mampaey (GU)</v>
       </c>
       <c r="F134" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G134" t="str">
-        <v>Megens Druten</v>
+        <v>Mampaey</v>
       </c>
       <c r="H134" t="str">
-        <v>j.ruijs@megens-installaties.nl</v>
+        <v>r.vlak@mampaey.nl</v>
       </c>
       <c r="I134" t="str">
         <v/>
@@ -4690,22 +4690,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C135" t="str">
-        <v>Dennis</v>
+        <v>Robbert</v>
       </c>
       <c r="D135" t="str">
-        <v>van Hees</v>
+        <v>Boset - Mampaey (GU)</v>
       </c>
       <c r="E135" t="str">
-        <v>Dennis van Hees</v>
+        <v>Robbert Boset - Mampaey (GU)</v>
       </c>
       <c r="F135" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G135" t="str">
-        <v>Megens Druten</v>
+        <v>Mampaey</v>
       </c>
       <c r="H135" t="str">
-        <v>d.vanhees@megens-installaties.nl</v>
+        <v>r.boset@mampaey.nl</v>
       </c>
       <c r="I135" t="str">
         <v/>
@@ -4716,28 +4716,28 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <v>Geabonneerd</v>
+        <v>Niet bezorgd</v>
       </c>
       <c r="B136" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C136" t="str">
-        <v>Paul</v>
+        <v>Sanne</v>
       </c>
       <c r="D136" t="str">
-        <v>vos</v>
+        <v>Timmer</v>
       </c>
       <c r="E136" t="str">
-        <v>Paul vos</v>
+        <v>Sanne Timmer</v>
       </c>
       <c r="F136" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G136" t="str">
-        <v>Megens Druten</v>
+        <v>Mampaey</v>
       </c>
       <c r="H136" t="str">
-        <v>p.vos@megens-installaties.nl</v>
+        <v>s.timmer@mampaey.nl</v>
       </c>
       <c r="I136" t="str">
         <v/>
@@ -4748,31 +4748,31 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <v>Geen toestemming</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B137" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C137" t="str">
-        <v>Cred</v>
+        <v>Jos</v>
       </c>
       <c r="D137" t="str">
-        <v/>
+        <v>Ruijs</v>
       </c>
       <c r="E137" t="str">
-        <v>Cred</v>
+        <v>Jos Ruijs</v>
       </c>
       <c r="F137" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G137" t="str">
         <v>Megens Druten</v>
       </c>
       <c r="H137" t="str">
-        <v/>
+        <v>j.ruijs@megens-installaties.nl</v>
       </c>
       <c r="I137" t="str">
-        <v>cred@megens-installaties.nl</v>
+        <v/>
       </c>
       <c r="J137" t="str">
         <v/>
@@ -4786,22 +4786,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C138" t="str">
-        <v>r.van.der.hoeven@megens.tech</v>
+        <v>Dennis</v>
       </c>
       <c r="D138" t="str">
-        <v/>
+        <v>van Hees</v>
       </c>
       <c r="E138" t="str">
-        <v>r.van.der.hoeven@megens.tech</v>
+        <v>Dennis van Hees</v>
       </c>
       <c r="F138" t="str">
-        <v/>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G138" t="str">
         <v>Megens Druten</v>
       </c>
       <c r="H138" t="str">
-        <v>r.van.der.hoeven@megens.tech</v>
+        <v>d.vanhees@megens-installaties.nl</v>
       </c>
       <c r="I138" t="str">
         <v/>
@@ -4818,22 +4818,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C139" t="str">
-        <v>Constant</v>
+        <v>Paul</v>
       </c>
       <c r="D139" t="str">
-        <v>Jurgens - Megens Installaties Groep B.V.</v>
+        <v>vos</v>
       </c>
       <c r="E139" t="str">
-        <v>Constant Jurgens - Megens Installaties Groep B.V.</v>
+        <v>Paul vos</v>
       </c>
       <c r="F139" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G139" t="str">
         <v>Megens Druten</v>
       </c>
       <c r="H139" t="str">
-        <v>c.jurgens@megens.tech</v>
+        <v>p.vos@megens-installaties.nl</v>
       </c>
       <c r="I139" t="str">
         <v/>
@@ -4844,19 +4844,19 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B140" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C140" t="str">
-        <v>Erik</v>
+        <v>Cred</v>
       </c>
       <c r="D140" t="str">
-        <v>Diekmeier - Megens Installaties Amsterdam B.V.</v>
+        <v/>
       </c>
       <c r="E140" t="str">
-        <v>Erik Diekmeier - Megens Installaties Amsterdam B.V.</v>
+        <v>Cred</v>
       </c>
       <c r="F140" t="str">
         <v/>
@@ -4865,10 +4865,10 @@
         <v>Megens Druten</v>
       </c>
       <c r="H140" t="str">
-        <v>e.diekmeier@megens.tech</v>
+        <v/>
       </c>
       <c r="I140" t="str">
-        <v/>
+        <v>cred@megens-installaties.nl</v>
       </c>
       <c r="J140" t="str">
         <v/>
@@ -4882,13 +4882,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C141" t="str">
-        <v>Frank</v>
+        <v>r.van.der.hoeven@megens.tech</v>
       </c>
       <c r="D141" t="str">
-        <v>Molenaar - Megens Installaties Apeldoorn B.V.</v>
+        <v/>
       </c>
       <c r="E141" t="str">
-        <v>Frank Molenaar - Megens Installaties Apeldoorn B.V.</v>
+        <v>r.van.der.hoeven@megens.tech</v>
       </c>
       <c r="F141" t="str">
         <v/>
@@ -4897,7 +4897,7 @@
         <v>Megens Druten</v>
       </c>
       <c r="H141" t="str">
-        <v>f.molenaar@megens.tech</v>
+        <v>r.van.der.hoeven@megens.tech</v>
       </c>
       <c r="I141" t="str">
         <v/>
@@ -4914,22 +4914,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C142" t="str">
-        <v>Ronnie</v>
+        <v>Constant</v>
       </c>
       <c r="D142" t="str">
-        <v>Rutten</v>
+        <v>Jurgens - Megens Installaties Groep B.V.</v>
       </c>
       <c r="E142" t="str">
-        <v>Ronnie Rutten</v>
+        <v>Constant Jurgens - Megens Installaties Groep B.V.</v>
       </c>
       <c r="F142" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G142" t="str">
-        <v>Megens Milsbeek</v>
+        <v>Megens Druten</v>
       </c>
       <c r="H142" t="str">
-        <v>ronnie.rutten@megensbv.nl</v>
+        <v>c.jurgens@megens.tech</v>
       </c>
       <c r="I142" t="str">
         <v/>
@@ -4940,28 +4940,28 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <v>Gearchiveerde</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B143" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C143" t="str">
-        <v>Tom</v>
+        <v>Erik</v>
       </c>
       <c r="D143" t="str">
-        <v>Wienhofen</v>
+        <v>Diekmeier - Megens Installaties Amsterdam B.V.</v>
       </c>
       <c r="E143" t="str">
-        <v>Tom Wienhofen</v>
+        <v>Erik Diekmeier - Megens Installaties Amsterdam B.V.</v>
       </c>
       <c r="F143" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G143" t="str">
-        <v>Megens Milsbeek</v>
+        <v>Megens Druten</v>
       </c>
       <c r="H143" t="str">
-        <v>tom@megensbv.nl, tom.wienhofen@megensbv.nl</v>
+        <v>e.diekmeier@megens.tech</v>
       </c>
       <c r="I143" t="str">
         <v/>
@@ -4978,22 +4978,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C144" t="str">
-        <v>Bianca</v>
+        <v>Frank</v>
       </c>
       <c r="D144" t="str">
-        <v>Vullings</v>
+        <v>Molenaar - Megens Installaties Apeldoorn B.V.</v>
       </c>
       <c r="E144" t="str">
-        <v>Bianca Vullings</v>
+        <v>Frank Molenaar - Megens Installaties Apeldoorn B.V.</v>
       </c>
       <c r="F144" t="str">
         <v/>
       </c>
       <c r="G144" t="str">
-        <v>Megens Milsbeek</v>
+        <v>Megens Druten</v>
       </c>
       <c r="H144" t="str">
-        <v>bianca.vullings@megensbv.nl</v>
+        <v>f.molenaar@megens.tech</v>
       </c>
       <c r="I144" t="str">
         <v/>
@@ -5010,22 +5010,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C145" t="str">
-        <v>Mike</v>
+        <v>Ronnie</v>
       </c>
       <c r="D145" t="str">
-        <v>Pauwelsen</v>
+        <v>Rutten</v>
       </c>
       <c r="E145" t="str">
-        <v>Mike Pauwelsen</v>
+        <v>Ronnie Rutten</v>
       </c>
       <c r="F145" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G145" t="str">
         <v>Megens Milsbeek</v>
       </c>
       <c r="H145" t="str">
-        <v>mike.pauwelsen@megensbv.nl</v>
+        <v>ronnie.rutten@megensbv.nl</v>
       </c>
       <c r="I145" t="str">
         <v/>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <v>Geabonneerd</v>
+        <v>Gearchiveerde</v>
       </c>
       <c r="B146" t="str">
         <v>Niet bevestigd</v>
@@ -5057,7 +5057,7 @@
         <v>Megens Milsbeek</v>
       </c>
       <c r="H146" t="str">
-        <v>tom.wienhofen@megensbv.nl, tom@megensbv.nl</v>
+        <v>tom@megensbv.nl, tom.wienhofen@megensbv.nl</v>
       </c>
       <c r="I146" t="str">
         <v/>
@@ -5074,22 +5074,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C147" t="str">
-        <v>Christie</v>
+        <v>Bianca</v>
       </c>
       <c r="D147" t="str">
-        <v>Dijkstra</v>
+        <v>Vullings</v>
       </c>
       <c r="E147" t="str">
-        <v>Christie Dijkstra</v>
+        <v>Bianca Vullings</v>
       </c>
       <c r="F147" t="str">
         <v/>
       </c>
       <c r="G147" t="str">
-        <v>Mensonides Installatie</v>
+        <v>Megens Milsbeek</v>
       </c>
       <c r="H147" t="str">
-        <v>c.dijkstra@mensonides.nl</v>
+        <v>bianca.vullings@megensbv.nl</v>
       </c>
       <c r="I147" t="str">
         <v/>
@@ -5106,22 +5106,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C148" t="str">
-        <v>Niels</v>
+        <v>Mike</v>
       </c>
       <c r="D148" t="str">
-        <v>Mensonides</v>
+        <v>Pauwelsen</v>
       </c>
       <c r="E148" t="str">
-        <v>Niels Mensonides</v>
+        <v>Mike Pauwelsen</v>
       </c>
       <c r="F148" t="str">
         <v/>
       </c>
       <c r="G148" t="str">
-        <v>Mensonides Installatie</v>
+        <v>Megens Milsbeek</v>
       </c>
       <c r="H148" t="str">
-        <v>n.mensonides@mensonides.nl</v>
+        <v>mike.pauwelsen@megensbv.nl</v>
       </c>
       <c r="I148" t="str">
         <v/>
@@ -5132,28 +5132,28 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B149" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C149" t="str">
-        <v>Lowie</v>
+        <v>Tom</v>
       </c>
       <c r="D149" t="str">
-        <v>van Eck</v>
+        <v>Wienhofen</v>
       </c>
       <c r="E149" t="str">
-        <v>Lowie van Eck</v>
+        <v>Tom Wienhofen</v>
       </c>
       <c r="F149" t="str">
         <v>Directie</v>
       </c>
       <c r="G149" t="str">
-        <v>Nikkelen</v>
+        <v>Megens Milsbeek</v>
       </c>
       <c r="H149" t="str">
-        <v>lowie@nikkelen.nl</v>
+        <v>tom.wienhofen@megensbv.nl, tom@megensbv.nl</v>
       </c>
       <c r="I149" t="str">
         <v/>
@@ -5170,22 +5170,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C150" t="str">
-        <v>Maaike</v>
+        <v>Christie</v>
       </c>
       <c r="D150" t="str">
-        <v>Coenen</v>
+        <v>Dijkstra</v>
       </c>
       <c r="E150" t="str">
-        <v>Maaike Coenen</v>
+        <v>Christie Dijkstra</v>
       </c>
       <c r="F150" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G150" t="str">
-        <v>Nikkelen</v>
+        <v>Mensonides Installatie</v>
       </c>
       <c r="H150" t="str">
-        <v>mcoenen@nikkelen.nl</v>
+        <v>c.dijkstra@mensonides.nl</v>
       </c>
       <c r="I150" t="str">
         <v/>
@@ -5202,22 +5202,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C151" t="str">
-        <v>Jon</v>
+        <v>Niels</v>
       </c>
       <c r="D151" t="str">
-        <v>Wijers</v>
+        <v>Mensonides</v>
       </c>
       <c r="E151" t="str">
-        <v>Jon Wijers</v>
+        <v>Niels Mensonides</v>
       </c>
       <c r="F151" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G151" t="str">
-        <v>Nikkelen</v>
+        <v>Mensonides Installatie</v>
       </c>
       <c r="H151" t="str">
-        <v>jwijers@nikkelen.nl</v>
+        <v>n.mensonides@mensonides.nl</v>
       </c>
       <c r="I151" t="str">
         <v/>
@@ -5234,13 +5234,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C152" t="str">
-        <v>Theo</v>
+        <v>Lowie</v>
       </c>
       <c r="D152" t="str">
-        <v>Wijers</v>
+        <v>van Eck</v>
       </c>
       <c r="E152" t="str">
-        <v>Theo Wijers</v>
+        <v>Lowie van Eck</v>
       </c>
       <c r="F152" t="str">
         <v>Directie</v>
@@ -5249,7 +5249,7 @@
         <v>Nikkelen</v>
       </c>
       <c r="H152" t="str">
-        <v>twijers@nikkelen.nl</v>
+        <v>lowie@nikkelen.nl</v>
       </c>
       <c r="I152" t="str">
         <v/>
@@ -5266,22 +5266,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C153" t="str">
-        <v>Mike</v>
+        <v>Maaike</v>
       </c>
       <c r="D153" t="str">
-        <v>Teunissen</v>
+        <v>Coenen</v>
       </c>
       <c r="E153" t="str">
-        <v>Mike Teunissen</v>
+        <v>Maaike Coenen</v>
       </c>
       <c r="F153" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G153" t="str">
         <v>Nikkelen</v>
       </c>
       <c r="H153" t="str">
-        <v>mteunissen@nikkelen.nl</v>
+        <v>mcoenen@nikkelen.nl</v>
       </c>
       <c r="I153" t="str">
         <v/>
@@ -5298,22 +5298,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C154" t="str">
-        <v>Rob</v>
+        <v>Jon</v>
       </c>
       <c r="D154" t="str">
-        <v>Houkes</v>
+        <v>Wijers</v>
       </c>
       <c r="E154" t="str">
-        <v>Rob Houkes</v>
+        <v>Jon Wijers</v>
       </c>
       <c r="F154" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G154" t="str">
         <v>Nikkelen</v>
       </c>
       <c r="H154" t="str">
-        <v>rhoukes@nikkelen.nl</v>
+        <v>jwijers@nikkelen.nl</v>
       </c>
       <c r="I154" t="str">
         <v/>
@@ -5324,28 +5324,28 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B155" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C155" t="str">
-        <v>Ronnie</v>
+        <v>Theo</v>
       </c>
       <c r="D155" t="str">
-        <v>van der Made</v>
+        <v>Wijers</v>
       </c>
       <c r="E155" t="str">
-        <v>Ronnie van der Made</v>
+        <v>Theo Wijers</v>
       </c>
       <c r="F155" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G155" t="str">
         <v>Nikkelen</v>
       </c>
       <c r="H155" t="str">
-        <v>rvandermade@nikkelen.nl</v>
+        <v>twijers@nikkelen.nl</v>
       </c>
       <c r="I155" t="str">
         <v/>
@@ -5362,22 +5362,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C156" t="str">
-        <v>Twan</v>
+        <v>Mike</v>
       </c>
       <c r="D156" t="str">
-        <v>Aarts</v>
+        <v>Teunissen</v>
       </c>
       <c r="E156" t="str">
-        <v>Twan Aarts</v>
+        <v>Mike Teunissen</v>
       </c>
       <c r="F156" t="str">
-        <v>Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G156" t="str">
-        <v>PCT Koudetechniek</v>
+        <v>Nikkelen</v>
       </c>
       <c r="H156" t="str">
-        <v>twan.aarts@pct.nl</v>
+        <v>mteunissen@nikkelen.nl</v>
       </c>
       <c r="I156" t="str">
         <v/>
@@ -5394,22 +5394,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C157" t="str">
-        <v>Ilse</v>
+        <v>Rob</v>
       </c>
       <c r="D157" t="str">
-        <v>Oosterhout</v>
+        <v>Houkes</v>
       </c>
       <c r="E157" t="str">
-        <v>Ilse Oosterhout</v>
+        <v>Rob Houkes</v>
       </c>
       <c r="F157" t="str">
         <v/>
       </c>
       <c r="G157" t="str">
-        <v>PCT Koudetechniek</v>
+        <v>Nikkelen</v>
       </c>
       <c r="H157" t="str">
-        <v>Ilse.vanOosterhout@pct.nl</v>
+        <v>rhoukes@nikkelen.nl</v>
       </c>
       <c r="I157" t="str">
         <v/>
@@ -5426,22 +5426,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C158" t="str">
-        <v>Dirk</v>
+        <v>Ronnie</v>
       </c>
       <c r="D158" t="str">
-        <v>Broen - PCT</v>
+        <v>van der Made</v>
       </c>
       <c r="E158" t="str">
-        <v>Dirk Broen - PCT</v>
+        <v>Ronnie van der Made</v>
       </c>
       <c r="F158" t="str">
         <v/>
       </c>
       <c r="G158" t="str">
-        <v>PCT Koudetechniek</v>
+        <v>Nikkelen</v>
       </c>
       <c r="H158" t="str">
-        <v>dirk.broen@pct.nl</v>
+        <v>rvandermade@nikkelen.nl</v>
       </c>
       <c r="I158" t="str">
         <v/>
@@ -5458,22 +5458,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C159" t="str">
-        <v>Gijs</v>
+        <v>Twan</v>
       </c>
       <c r="D159" t="str">
-        <v>Wolters - PCT</v>
+        <v>Aarts</v>
       </c>
       <c r="E159" t="str">
-        <v>Gijs Wolters - PCT</v>
+        <v>Twan Aarts</v>
       </c>
       <c r="F159" t="str">
-        <v/>
+        <v>Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G159" t="str">
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H159" t="str">
-        <v>gijs.wolters@pct.nl</v>
+        <v>twan.aarts@pct.nl</v>
       </c>
       <c r="I159" t="str">
         <v/>
@@ -5490,13 +5490,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C160" t="str">
-        <v>Harm</v>
+        <v>Ilse</v>
       </c>
       <c r="D160" t="str">
-        <v>Simons - PCT</v>
+        <v>Oosterhout</v>
       </c>
       <c r="E160" t="str">
-        <v>Harm Simons - PCT</v>
+        <v>Ilse Oosterhout</v>
       </c>
       <c r="F160" t="str">
         <v/>
@@ -5505,7 +5505,7 @@
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H160" t="str">
-        <v>harm.simons@pct.nl</v>
+        <v>Ilse.vanOosterhout@pct.nl</v>
       </c>
       <c r="I160" t="str">
         <v/>
@@ -5522,13 +5522,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C161" t="str">
-        <v>Harm</v>
+        <v>Dirk</v>
       </c>
       <c r="D161" t="str">
-        <v>Betten</v>
+        <v>Broen - PCT</v>
       </c>
       <c r="E161" t="str">
-        <v>Harm Betten</v>
+        <v>Dirk Broen - PCT</v>
       </c>
       <c r="F161" t="str">
         <v/>
@@ -5537,7 +5537,7 @@
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H161" t="str">
-        <v>harm.betten@pct.nl</v>
+        <v>dirk.broen@pct.nl</v>
       </c>
       <c r="I161" t="str">
         <v/>
@@ -5554,13 +5554,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C162" t="str">
-        <v>Marcel</v>
+        <v>Gijs</v>
       </c>
       <c r="D162" t="str">
-        <v>Donkers - PCT</v>
+        <v>Wolters - PCT</v>
       </c>
       <c r="E162" t="str">
-        <v>Marcel Donkers - PCT</v>
+        <v>Gijs Wolters - PCT</v>
       </c>
       <c r="F162" t="str">
         <v/>
@@ -5569,7 +5569,7 @@
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H162" t="str">
-        <v>marcel.donkers@pct.nl</v>
+        <v>gijs.wolters@pct.nl</v>
       </c>
       <c r="I162" t="str">
         <v/>
@@ -5586,13 +5586,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C163" t="str">
-        <v>Stefan</v>
+        <v>Harm</v>
       </c>
       <c r="D163" t="str">
-        <v>van Vark</v>
+        <v>Simons - PCT</v>
       </c>
       <c r="E163" t="str">
-        <v>Stefan van Vark</v>
+        <v>Harm Simons - PCT</v>
       </c>
       <c r="F163" t="str">
         <v/>
@@ -5601,7 +5601,7 @@
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H163" t="str">
-        <v>stefan.vanvark@pct.nl</v>
+        <v>harm.simons@pct.nl</v>
       </c>
       <c r="I163" t="str">
         <v/>
@@ -5612,19 +5612,19 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B164" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C164" t="str">
-        <v>Martine</v>
+        <v>Harm</v>
       </c>
       <c r="D164" t="str">
-        <v>Maas - PCT</v>
+        <v>Betten</v>
       </c>
       <c r="E164" t="str">
-        <v>Martine Maas - PCT</v>
+        <v>Harm Betten</v>
       </c>
       <c r="F164" t="str">
         <v/>
@@ -5633,7 +5633,7 @@
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H164" t="str">
-        <v>martine.maas@pct.nl</v>
+        <v>harm.betten@pct.nl</v>
       </c>
       <c r="I164" t="str">
         <v/>
@@ -5650,13 +5650,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C165" t="str">
-        <v>Trijsje</v>
+        <v>Marcel</v>
       </c>
       <c r="D165" t="str">
-        <v>van den Broek - PCT</v>
+        <v>Donkers - PCT</v>
       </c>
       <c r="E165" t="str">
-        <v>Trijsje van den Broek - PCT</v>
+        <v>Marcel Donkers - PCT</v>
       </c>
       <c r="F165" t="str">
         <v/>
@@ -5665,7 +5665,7 @@
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H165" t="str">
-        <v>trijsje.vandenbroek@pct.nl</v>
+        <v>marcel.donkers@pct.nl</v>
       </c>
       <c r="I165" t="str">
         <v/>
@@ -5682,13 +5682,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C166" t="str">
-        <v>Willem</v>
+        <v>Stefan</v>
       </c>
       <c r="D166" t="str">
-        <v>Pijnenburg - PCT</v>
+        <v>van Vark</v>
       </c>
       <c r="E166" t="str">
-        <v>Willem Pijnenburg - PCT</v>
+        <v>Stefan van Vark</v>
       </c>
       <c r="F166" t="str">
         <v/>
@@ -5697,7 +5697,7 @@
         <v>PCT Koudetechniek</v>
       </c>
       <c r="H166" t="str">
-        <v>willem.pijnenburg@pct.nl</v>
+        <v>stefan.vanvark@pct.nl</v>
       </c>
       <c r="I166" t="str">
         <v/>
@@ -5714,22 +5714,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C167" t="str">
-        <v>Berry</v>
+        <v>Martine</v>
       </c>
       <c r="D167" t="str">
-        <v>Roelofs</v>
+        <v>Maas - PCT</v>
       </c>
       <c r="E167" t="str">
-        <v>Berry Roelofs</v>
+        <v>Martine Maas - PCT</v>
       </c>
       <c r="F167" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G167" t="str">
-        <v>Peters Installatietechniek</v>
+        <v>PCT Koudetechniek</v>
       </c>
       <c r="H167" t="str">
-        <v>b.roelofs@p-inst.nl</v>
+        <v>martine.maas@pct.nl</v>
       </c>
       <c r="I167" t="str">
         <v/>
@@ -5746,22 +5746,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C168" t="str">
-        <v>Joseph</v>
+        <v>Trijsje</v>
       </c>
       <c r="D168" t="str">
-        <v>Tsun Kiet Man</v>
+        <v>van den Broek - PCT</v>
       </c>
       <c r="E168" t="str">
-        <v>Joseph Tsun Kiet Man</v>
+        <v>Trijsje van den Broek - PCT</v>
       </c>
       <c r="F168" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G168" t="str">
-        <v>Peters Installatietechniek</v>
+        <v>PCT Koudetechniek</v>
       </c>
       <c r="H168" t="str">
-        <v>josephman@essescapitalpartners.com</v>
+        <v>trijsje.vandenbroek@pct.nl</v>
       </c>
       <c r="I168" t="str">
         <v/>
@@ -5778,22 +5778,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C169" t="str">
-        <v>Glenn</v>
+        <v>Willem</v>
       </c>
       <c r="D169" t="str">
-        <v>van Londen</v>
+        <v>Pijnenburg - PCT</v>
       </c>
       <c r="E169" t="str">
-        <v>Glenn van Londen</v>
+        <v>Willem Pijnenburg - PCT</v>
       </c>
       <c r="F169" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G169" t="str">
-        <v>Peters Installatietechniek</v>
+        <v>PCT Koudetechniek</v>
       </c>
       <c r="H169" t="str">
-        <v>g.vanlonden@p-inst.nl</v>
+        <v>willem.pijnenburg@pct.nl</v>
       </c>
       <c r="I169" t="str">
         <v/>
@@ -5804,28 +5804,28 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B170" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C170" t="str">
-        <v>John</v>
+        <v>Berry</v>
       </c>
       <c r="D170" t="str">
-        <v>van Schendel</v>
+        <v>Roelofs</v>
       </c>
       <c r="E170" t="str">
-        <v>John van Schendel</v>
+        <v>Berry Roelofs</v>
       </c>
       <c r="F170" t="str">
-        <v>Controller</v>
+        <v>Directie</v>
       </c>
       <c r="G170" t="str">
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H170" t="str">
-        <v>j.vanschendel@p-inst.nl</v>
+        <v>b.roelofs@p-inst.nl</v>
       </c>
       <c r="I170" t="str">
         <v/>
@@ -5836,31 +5836,31 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B171" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C171" t="str">
-        <v>Facturenl</v>
+        <v>Joseph</v>
       </c>
       <c r="D171" t="str">
-        <v/>
+        <v>Tsun Kiet Man</v>
       </c>
       <c r="E171" t="str">
-        <v>Facturenl</v>
+        <v>Joseph Tsun Kiet Man</v>
       </c>
       <c r="F171" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G171" t="str">
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H171" t="str">
-        <v/>
+        <v>josephman@essescapitalpartners.com</v>
       </c>
       <c r="I171" t="str">
-        <v>facturenl@p-inst.nl</v>
+        <v/>
       </c>
       <c r="J171" t="str">
         <v/>
@@ -5868,28 +5868,28 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <v>Niet bezorgd</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B172" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C172" t="str">
-        <v>Johan</v>
+        <v>Glenn</v>
       </c>
       <c r="D172" t="str">
-        <v>Franken</v>
+        <v>van Londen</v>
       </c>
       <c r="E172" t="str">
-        <v>Johan Franken</v>
+        <v>Glenn van Londen</v>
       </c>
       <c r="F172" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v>Controller</v>
       </c>
       <c r="G172" t="str">
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H172" t="str">
-        <v>j.franken@p-inst.nl</v>
+        <v>g.vanlonden@p-inst.nl</v>
       </c>
       <c r="I172" t="str">
         <v/>
@@ -5906,22 +5906,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C173" t="str">
-        <v>Lotte</v>
+        <v>John</v>
       </c>
       <c r="D173" t="str">
-        <v>Nolet</v>
+        <v>van Schendel</v>
       </c>
       <c r="E173" t="str">
-        <v>Lotte Nolet</v>
+        <v>John van Schendel</v>
       </c>
       <c r="F173" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v>Controller</v>
       </c>
       <c r="G173" t="str">
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H173" t="str">
-        <v>l.nolet@p-inst.nl</v>
+        <v>j.vanschendel@p-inst.nl</v>
       </c>
       <c r="I173" t="str">
         <v/>
@@ -5932,19 +5932,19 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B174" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C174" t="str">
-        <v>r.gerritsen@p-inst.nl</v>
+        <v>Facturenl</v>
       </c>
       <c r="D174" t="str">
         <v/>
       </c>
       <c r="E174" t="str">
-        <v>r.gerritsen@p-inst.nl</v>
+        <v>Facturenl</v>
       </c>
       <c r="F174" t="str">
         <v/>
@@ -5953,10 +5953,10 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H174" t="str">
-        <v>r.gerritsen@p-inst.nl</v>
+        <v/>
       </c>
       <c r="I174" t="str">
-        <v/>
+        <v>facturenl@p-inst.nl</v>
       </c>
       <c r="J174" t="str">
         <v/>
@@ -5964,28 +5964,28 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <v>Geabonneerd</v>
+        <v>Niet bezorgd</v>
       </c>
       <c r="B175" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C175" t="str">
-        <v>Mark</v>
+        <v>Johan</v>
       </c>
       <c r="D175" t="str">
-        <v>Vinkenvleugel</v>
+        <v>Franken</v>
       </c>
       <c r="E175" t="str">
-        <v>Mark Vinkenvleugel</v>
+        <v>Johan Franken</v>
       </c>
       <c r="F175" t="str">
-        <v>Controller, Contactpersoon IT (intern)</v>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G175" t="str">
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H175" t="str">
-        <v>m.vinkenvleugel@p-inst.nl</v>
+        <v>j.franken@p-inst.nl</v>
       </c>
       <c r="I175" t="str">
         <v/>
@@ -6002,22 +6002,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C176" t="str">
-        <v>Barend</v>
+        <v>Lotte</v>
       </c>
       <c r="D176" t="str">
-        <v>Bast</v>
+        <v>Nolet</v>
       </c>
       <c r="E176" t="str">
-        <v>Barend Bast</v>
+        <v>Lotte Nolet</v>
       </c>
       <c r="F176" t="str">
-        <v/>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G176" t="str">
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H176" t="str">
-        <v>b.bast@p-inst.nl</v>
+        <v>l.nolet@p-inst.nl</v>
       </c>
       <c r="I176" t="str">
         <v/>
@@ -6034,13 +6034,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C177" t="str">
-        <v>Francien</v>
+        <v>r.gerritsen@p-inst.nl</v>
       </c>
       <c r="D177" t="str">
-        <v>te Bogt</v>
+        <v/>
       </c>
       <c r="E177" t="str">
-        <v>Francien te Bogt</v>
+        <v>r.gerritsen@p-inst.nl</v>
       </c>
       <c r="F177" t="str">
         <v/>
@@ -6049,7 +6049,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H177" t="str">
-        <v>f.tebogt@p-inst.nl</v>
+        <v>r.gerritsen@p-inst.nl</v>
       </c>
       <c r="I177" t="str">
         <v/>
@@ -6066,22 +6066,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C178" t="str">
-        <v>DaniÃ«l</v>
+        <v>Mark</v>
       </c>
       <c r="D178" t="str">
-        <v>Frenken</v>
+        <v>Vinkenvleugel</v>
       </c>
       <c r="E178" t="str">
-        <v>DaniÃ«l Frenken</v>
+        <v>Mark Vinkenvleugel</v>
       </c>
       <c r="F178" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern)</v>
       </c>
       <c r="G178" t="str">
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H178" t="str">
-        <v>d.frenken@p-inst.nl</v>
+        <v>m.vinkenvleugel@p-inst.nl</v>
       </c>
       <c r="I178" t="str">
         <v/>
@@ -6098,13 +6098,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C179" t="str">
-        <v>Ferry</v>
+        <v>Barend</v>
       </c>
       <c r="D179" t="str">
-        <v>Bruns</v>
+        <v>Bast</v>
       </c>
       <c r="E179" t="str">
-        <v>Ferry Bruns</v>
+        <v>Barend Bast</v>
       </c>
       <c r="F179" t="str">
         <v/>
@@ -6113,7 +6113,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H179" t="str">
-        <v>f.bruns@p-inst.nl</v>
+        <v>b.bast@p-inst.nl</v>
       </c>
       <c r="I179" t="str">
         <v/>
@@ -6130,13 +6130,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C180" t="str">
-        <v>Hans</v>
+        <v>Francien</v>
       </c>
       <c r="D180" t="str">
-        <v>Steenhuis</v>
+        <v>te Bogt</v>
       </c>
       <c r="E180" t="str">
-        <v>Hans Steenhuis</v>
+        <v>Francien te Bogt</v>
       </c>
       <c r="F180" t="str">
         <v/>
@@ -6145,7 +6145,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H180" t="str">
-        <v>h.steenhuis@p-inst.nl</v>
+        <v>f.tebogt@p-inst.nl</v>
       </c>
       <c r="I180" t="str">
         <v/>
@@ -6162,13 +6162,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C181" t="str">
-        <v>Hendrik</v>
+        <v>DaniÃ«l</v>
       </c>
       <c r="D181" t="str">
-        <v>Dijkstra</v>
+        <v>Frenken</v>
       </c>
       <c r="E181" t="str">
-        <v>Hendrik Dijkstra</v>
+        <v>DaniÃ«l Frenken</v>
       </c>
       <c r="F181" t="str">
         <v/>
@@ -6177,7 +6177,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H181" t="str">
-        <v>h.dijkstra@p-inst.nl</v>
+        <v>d.frenken@p-inst.nl</v>
       </c>
       <c r="I181" t="str">
         <v/>
@@ -6194,13 +6194,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C182" t="str">
-        <v>Marcel</v>
+        <v>Ferry</v>
       </c>
       <c r="D182" t="str">
-        <v>Piek</v>
+        <v>Bruns</v>
       </c>
       <c r="E182" t="str">
-        <v>Marcel Piek</v>
+        <v>Ferry Bruns</v>
       </c>
       <c r="F182" t="str">
         <v/>
@@ -6209,7 +6209,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H182" t="str">
-        <v>m.piek@hdfprefab.nl</v>
+        <v>f.bruns@p-inst.nl</v>
       </c>
       <c r="I182" t="str">
         <v/>
@@ -6226,13 +6226,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C183" t="str">
-        <v>Herbert</v>
+        <v>Hans</v>
       </c>
       <c r="D183" t="str">
-        <v>Legters</v>
+        <v>Steenhuis</v>
       </c>
       <c r="E183" t="str">
-        <v>Herbert Legters</v>
+        <v>Hans Steenhuis</v>
       </c>
       <c r="F183" t="str">
         <v/>
@@ -6241,7 +6241,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H183" t="str">
-        <v>h.legters@p-inst.nl</v>
+        <v>h.steenhuis@p-inst.nl</v>
       </c>
       <c r="I183" t="str">
         <v/>
@@ -6258,13 +6258,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C184" t="str">
-        <v>Marije</v>
+        <v>Hendrik</v>
       </c>
       <c r="D184" t="str">
-        <v>Bennink</v>
+        <v>Dijkstra</v>
       </c>
       <c r="E184" t="str">
-        <v>Marije Bennink</v>
+        <v>Hendrik Dijkstra</v>
       </c>
       <c r="F184" t="str">
         <v/>
@@ -6273,7 +6273,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H184" t="str">
-        <v>m.bennink@p-inst.nl</v>
+        <v>h.dijkstra@p-inst.nl</v>
       </c>
       <c r="I184" t="str">
         <v/>
@@ -6290,13 +6290,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C185" t="str">
-        <v>Nieck</v>
+        <v>Marcel</v>
       </c>
       <c r="D185" t="str">
-        <v>Arnold</v>
+        <v>Piek</v>
       </c>
       <c r="E185" t="str">
-        <v>Nieck Arnold</v>
+        <v>Marcel Piek</v>
       </c>
       <c r="F185" t="str">
         <v/>
@@ -6305,7 +6305,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H185" t="str">
-        <v>n.arnold@p-inst.nl</v>
+        <v>m.piek@hdfprefab.nl</v>
       </c>
       <c r="I185" t="str">
         <v/>
@@ -6322,13 +6322,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C186" t="str">
-        <v>Rick</v>
+        <v>Herbert</v>
       </c>
       <c r="D186" t="str">
-        <v>Urselmann</v>
+        <v>Legters</v>
       </c>
       <c r="E186" t="str">
-        <v>Rick Urselmann</v>
+        <v>Herbert Legters</v>
       </c>
       <c r="F186" t="str">
         <v/>
@@ -6337,7 +6337,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H186" t="str">
-        <v>r.urselmann@p-inst.nl</v>
+        <v>h.legters@p-inst.nl</v>
       </c>
       <c r="I186" t="str">
         <v/>
@@ -6354,13 +6354,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C187" t="str">
-        <v>Roland</v>
+        <v>Marije</v>
       </c>
       <c r="D187" t="str">
-        <v>Lieverdink</v>
+        <v>Bennink</v>
       </c>
       <c r="E187" t="str">
-        <v>Roland Lieverdink</v>
+        <v>Marije Bennink</v>
       </c>
       <c r="F187" t="str">
         <v/>
@@ -6369,7 +6369,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H187" t="str">
-        <v>r.lieverdink@p-inst.nl</v>
+        <v>m.bennink@p-inst.nl</v>
       </c>
       <c r="I187" t="str">
         <v/>
@@ -6386,13 +6386,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C188" t="str">
-        <v>Ronald</v>
+        <v>Nieck</v>
       </c>
       <c r="D188" t="str">
-        <v>Luikenhuis</v>
+        <v>Arnold</v>
       </c>
       <c r="E188" t="str">
-        <v>Ronald Luikenhuis</v>
+        <v>Nieck Arnold</v>
       </c>
       <c r="F188" t="str">
         <v/>
@@ -6401,7 +6401,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H188" t="str">
-        <v>r.luikenhuis@p-inst.nl</v>
+        <v>n.arnold@p-inst.nl</v>
       </c>
       <c r="I188" t="str">
         <v/>
@@ -6418,13 +6418,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C189" t="str">
-        <v>Selwyn</v>
+        <v>Rick</v>
       </c>
       <c r="D189" t="str">
-        <v>van Moorsel</v>
+        <v>Urselmann</v>
       </c>
       <c r="E189" t="str">
-        <v>Selwyn van Moorsel</v>
+        <v>Rick Urselmann</v>
       </c>
       <c r="F189" t="str">
         <v/>
@@ -6433,7 +6433,7 @@
         <v>Peters Installatietechniek</v>
       </c>
       <c r="H189" t="str">
-        <v>s.vanmoorsel@p-inst.nl</v>
+        <v>r.urselmann@p-inst.nl</v>
       </c>
       <c r="I189" t="str">
         <v/>
@@ -6450,22 +6450,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C190" t="str">
-        <v>Jelle</v>
+        <v>Roland</v>
       </c>
       <c r="D190" t="str">
-        <v>de Graaf</v>
+        <v>Lieverdink</v>
       </c>
       <c r="E190" t="str">
-        <v>Jelle de Graaf</v>
+        <v>Roland Lieverdink</v>
       </c>
       <c r="F190" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G190" t="str">
-        <v>Provato Techniek</v>
+        <v>Peters Installatietechniek</v>
       </c>
       <c r="H190" t="str">
-        <v>j.degraaf@provatotechniek.nl</v>
+        <v>r.lieverdink@p-inst.nl</v>
       </c>
       <c r="I190" t="str">
         <v/>
@@ -6482,22 +6482,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C191" t="str">
-        <v>Patrick</v>
+        <v>Ronald</v>
       </c>
       <c r="D191" t="str">
-        <v>Schaap</v>
+        <v>Luikenhuis</v>
       </c>
       <c r="E191" t="str">
-        <v>Patrick Schaap</v>
+        <v>Ronald Luikenhuis</v>
       </c>
       <c r="F191" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G191" t="str">
-        <v>Provato Techniek</v>
+        <v>Peters Installatietechniek</v>
       </c>
       <c r="H191" t="str">
-        <v>p.schaap@provatotechniek.nl</v>
+        <v>r.luikenhuis@p-inst.nl</v>
       </c>
       <c r="I191" t="str">
         <v/>
@@ -6508,31 +6508,31 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B192" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C192" t="str">
-        <v>Facturen</v>
+        <v>Selwyn</v>
       </c>
       <c r="D192" t="str">
-        <v/>
+        <v>van Moorsel</v>
       </c>
       <c r="E192" t="str">
-        <v>Facturen</v>
+        <v>Selwyn van Moorsel</v>
       </c>
       <c r="F192" t="str">
         <v/>
       </c>
       <c r="G192" t="str">
-        <v>Provato Techniek</v>
+        <v>Peters Installatietechniek</v>
       </c>
       <c r="H192" t="str">
-        <v/>
+        <v>s.vanmoorsel@p-inst.nl</v>
       </c>
       <c r="I192" t="str">
-        <v>facturen@provatotechniek.nl</v>
+        <v/>
       </c>
       <c r="J192" t="str">
         <v/>
@@ -6546,22 +6546,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C193" t="str">
-        <v>Natasja</v>
+        <v>Jelle</v>
       </c>
       <c r="D193" t="str">
-        <v>Pothoff</v>
+        <v>de Graaf</v>
       </c>
       <c r="E193" t="str">
-        <v>Natasja Pothoff</v>
+        <v>Jelle de Graaf</v>
       </c>
       <c r="F193" t="str">
-        <v/>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G193" t="str">
         <v>Provato Techniek</v>
       </c>
       <c r="H193" t="str">
-        <v>n.pothoff@provatotechniek.nl</v>
+        <v>j.degraaf@provatotechniek.nl</v>
       </c>
       <c r="I193" t="str">
         <v/>
@@ -6578,22 +6578,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C194" t="str">
-        <v>Michel</v>
+        <v>Patrick</v>
       </c>
       <c r="D194" t="str">
-        <v>van der Leest</v>
+        <v>Schaap</v>
       </c>
       <c r="E194" t="str">
-        <v>Michel van der Leest</v>
+        <v>Patrick Schaap</v>
       </c>
       <c r="F194" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G194" t="str">
-        <v>Rensen</v>
+        <v>Provato Techniek</v>
       </c>
       <c r="H194" t="str">
-        <v>m.v.d.leest@rensen.nu</v>
+        <v>p.schaap@provatotechniek.nl</v>
       </c>
       <c r="I194" t="str">
         <v/>
@@ -6604,31 +6604,31 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B195" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C195" t="str">
-        <v>Sjors</v>
+        <v>Facturen</v>
       </c>
       <c r="D195" t="str">
-        <v>Boddingius</v>
+        <v/>
       </c>
       <c r="E195" t="str">
-        <v>Sjors Boddingius</v>
+        <v>Facturen</v>
       </c>
       <c r="F195" t="str">
         <v/>
       </c>
       <c r="G195" t="str">
-        <v>Rensen</v>
+        <v>Provato Techniek</v>
       </c>
       <c r="H195" t="str">
-        <v>s.boddingius@rensen.nu</v>
+        <v/>
       </c>
       <c r="I195" t="str">
-        <v/>
+        <v>facturen@provatotechniek.nl</v>
       </c>
       <c r="J195" t="str">
         <v/>
@@ -6642,22 +6642,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C196" t="str">
-        <v>Ruud</v>
+        <v>Natasja</v>
       </c>
       <c r="D196" t="str">
-        <v>Cuppé</v>
+        <v>Pothoff</v>
       </c>
       <c r="E196" t="str">
-        <v>Ruud Cuppé</v>
+        <v>Natasja Pothoff</v>
       </c>
       <c r="F196" t="str">
         <v/>
       </c>
       <c r="G196" t="str">
-        <v>Rensen</v>
+        <v>Provato Techniek</v>
       </c>
       <c r="H196" t="str">
-        <v>r.cuppe@rensen.nu</v>
+        <v>n.pothoff@provatotechniek.nl</v>
       </c>
       <c r="I196" t="str">
         <v/>
@@ -6674,13 +6674,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C197" t="str">
-        <v>Natascha</v>
+        <v>Michel</v>
       </c>
       <c r="D197" t="str">
-        <v>Geerders</v>
+        <v>van der Leest</v>
       </c>
       <c r="E197" t="str">
-        <v>Natascha Geerders</v>
+        <v>Michel van der Leest</v>
       </c>
       <c r="F197" t="str">
         <v/>
@@ -6689,7 +6689,7 @@
         <v>Rensen</v>
       </c>
       <c r="H197" t="str">
-        <v>n.geerders@rensen.nu</v>
+        <v>m.v.d.leest@rensen.nu</v>
       </c>
       <c r="I197" t="str">
         <v/>
@@ -6706,13 +6706,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C198" t="str">
-        <v>Monique</v>
+        <v>Sjors</v>
       </c>
       <c r="D198" t="str">
-        <v>van Duijn</v>
+        <v>Boddingius</v>
       </c>
       <c r="E198" t="str">
-        <v>Monique van Duijn</v>
+        <v>Sjors Boddingius</v>
       </c>
       <c r="F198" t="str">
         <v/>
@@ -6721,7 +6721,7 @@
         <v>Rensen</v>
       </c>
       <c r="H198" t="str">
-        <v>m.v.duijn@rensen.nu</v>
+        <v>s.boddingius@rensen.nu</v>
       </c>
       <c r="I198" t="str">
         <v/>
@@ -6738,13 +6738,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C199" t="str">
-        <v>Lucien</v>
+        <v>Ruud</v>
       </c>
       <c r="D199" t="str">
-        <v>Jillissen</v>
+        <v>Cuppé</v>
       </c>
       <c r="E199" t="str">
-        <v>Lucien Jillissen</v>
+        <v>Ruud Cuppé</v>
       </c>
       <c r="F199" t="str">
         <v/>
@@ -6753,7 +6753,7 @@
         <v>Rensen</v>
       </c>
       <c r="H199" t="str">
-        <v>l.jilissen@rensen.nu</v>
+        <v>r.cuppe@rensen.nu</v>
       </c>
       <c r="I199" t="str">
         <v/>
@@ -6770,13 +6770,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C200" t="str">
-        <v>Harmen</v>
+        <v>Natascha</v>
       </c>
       <c r="D200" t="str">
-        <v>Kousemaker</v>
+        <v>Geerders</v>
       </c>
       <c r="E200" t="str">
-        <v>Harmen Kousemaker</v>
+        <v>Natascha Geerders</v>
       </c>
       <c r="F200" t="str">
         <v/>
@@ -6785,7 +6785,7 @@
         <v>Rensen</v>
       </c>
       <c r="H200" t="str">
-        <v>h.kousemaker@rensen.nu</v>
+        <v>n.geerders@rensen.nu</v>
       </c>
       <c r="I200" t="str">
         <v/>
@@ -6802,13 +6802,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C201" t="str">
-        <v>Joop</v>
+        <v>Monique</v>
       </c>
       <c r="D201" t="str">
-        <v>Lucassen</v>
+        <v>van Duijn</v>
       </c>
       <c r="E201" t="str">
-        <v>Joop Lucassen</v>
+        <v>Monique van Duijn</v>
       </c>
       <c r="F201" t="str">
         <v/>
@@ -6817,7 +6817,7 @@
         <v>Rensen</v>
       </c>
       <c r="H201" t="str">
-        <v>j.lucassen@rensen.nu</v>
+        <v>m.v.duijn@rensen.nu</v>
       </c>
       <c r="I201" t="str">
         <v/>
@@ -6834,13 +6834,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C202" t="str">
-        <v>Rob</v>
+        <v>Lucien</v>
       </c>
       <c r="D202" t="str">
-        <v>van de Boomen</v>
+        <v>Jillissen</v>
       </c>
       <c r="E202" t="str">
-        <v>Rob van de Boomen</v>
+        <v>Lucien Jillissen</v>
       </c>
       <c r="F202" t="str">
         <v/>
@@ -6849,7 +6849,7 @@
         <v>Rensen</v>
       </c>
       <c r="H202" t="str">
-        <v>r.v.d.boomen@rensen.nu</v>
+        <v>l.jilissen@rensen.nu</v>
       </c>
       <c r="I202" t="str">
         <v/>
@@ -6866,13 +6866,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C203" t="str">
-        <v>Jasper</v>
+        <v>Harmen</v>
       </c>
       <c r="D203" t="str">
-        <v>de Vroed</v>
+        <v>Kousemaker</v>
       </c>
       <c r="E203" t="str">
-        <v>Jasper de Vroed</v>
+        <v>Harmen Kousemaker</v>
       </c>
       <c r="F203" t="str">
         <v/>
@@ -6881,7 +6881,7 @@
         <v>Rensen</v>
       </c>
       <c r="H203" t="str">
-        <v>j.d.vroed@rensen.nu</v>
+        <v>h.kousemaker@rensen.nu</v>
       </c>
       <c r="I203" t="str">
         <v/>
@@ -6892,28 +6892,28 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <v>Niet bezorgd</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B204" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C204" t="str">
-        <v>Jan Willem</v>
+        <v>Joop</v>
       </c>
       <c r="D204" t="str">
-        <v>De Ruijter</v>
+        <v>Lucassen</v>
       </c>
       <c r="E204" t="str">
-        <v>Jan Willem De Ruijter</v>
+        <v>Joop Lucassen</v>
       </c>
       <c r="F204" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G204" t="str">
-        <v>Roodenburg Groep</v>
+        <v>Rensen</v>
       </c>
       <c r="H204" t="str">
-        <v>janwillem.de.ruijter@roodenburg.nl</v>
+        <v>j.lucassen@rensen.nu</v>
       </c>
       <c r="I204" t="str">
         <v/>
@@ -6930,22 +6930,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C205" t="str">
-        <v>Nadine</v>
+        <v>Rob</v>
       </c>
       <c r="D205" t="str">
-        <v>Ronteltap</v>
+        <v>van de Boomen</v>
       </c>
       <c r="E205" t="str">
-        <v>Nadine Ronteltap</v>
+        <v>Rob van de Boomen</v>
       </c>
       <c r="F205" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G205" t="str">
-        <v>Roodenburg Groep</v>
+        <v>Rensen</v>
       </c>
       <c r="H205" t="str">
-        <v>nadine.ronteltap@roodenburg.nl</v>
+        <v>r.v.d.boomen@rensen.nu</v>
       </c>
       <c r="I205" t="str">
         <v/>
@@ -6956,31 +6956,31 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B206" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C206" t="str">
-        <v>Facturen</v>
+        <v>Jasper</v>
       </c>
       <c r="D206" t="str">
-        <v/>
+        <v>de Vroed</v>
       </c>
       <c r="E206" t="str">
-        <v>Facturen</v>
+        <v>Jasper de Vroed</v>
       </c>
       <c r="F206" t="str">
         <v/>
       </c>
       <c r="G206" t="str">
-        <v>Roodenburg Groep</v>
+        <v>Rensen</v>
       </c>
       <c r="H206" t="str">
-        <v/>
+        <v>j.d.vroed@rensen.nu</v>
       </c>
       <c r="I206" t="str">
-        <v>facturen@roodenburg.nl</v>
+        <v/>
       </c>
       <c r="J206" t="str">
         <v/>
@@ -6988,28 +6988,28 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <v>Gearchiveerde</v>
+        <v>Niet bezorgd</v>
       </c>
       <c r="B207" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C207" t="str">
-        <v>Rene</v>
+        <v>Jan Willem</v>
       </c>
       <c r="D207" t="str">
-        <v>Roodenburg</v>
+        <v>De Ruijter</v>
       </c>
       <c r="E207" t="str">
-        <v>Rene Roodenburg</v>
+        <v>Jan Willem De Ruijter</v>
       </c>
       <c r="F207" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G207" t="str">
         <v>Roodenburg Groep</v>
       </c>
       <c r="H207" t="str">
-        <v>rene@roodenburg.nl, rene.roodenburg@roodenburg.nl</v>
+        <v>janwillem.de.ruijter@roodenburg.nl</v>
       </c>
       <c r="I207" t="str">
         <v/>
@@ -7020,28 +7020,28 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B208" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C208" t="str">
-        <v>Goof</v>
+        <v>Nadine</v>
       </c>
       <c r="D208" t="str">
-        <v>Ansems</v>
+        <v>Ronteltap</v>
       </c>
       <c r="E208" t="str">
-        <v>Goof Ansems</v>
+        <v>Nadine Ronteltap</v>
       </c>
       <c r="F208" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G208" t="str">
         <v>Roodenburg Groep</v>
       </c>
       <c r="H208" t="str">
-        <v/>
+        <v>nadine.ronteltap@roodenburg.nl</v>
       </c>
       <c r="I208" t="str">
         <v/>
@@ -7052,19 +7052,19 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B209" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C209" t="str">
-        <v>Tom</v>
+        <v>Facturen</v>
       </c>
       <c r="D209" t="str">
-        <v>Boekhout</v>
+        <v/>
       </c>
       <c r="E209" t="str">
-        <v>Tom Boekhout</v>
+        <v>Facturen</v>
       </c>
       <c r="F209" t="str">
         <v/>
@@ -7073,10 +7073,10 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H209" t="str">
-        <v>tom@roodenburg.nl, tom.boekhout@roodenburg.nl</v>
+        <v/>
       </c>
       <c r="I209" t="str">
-        <v/>
+        <v>facturen@roodenburg.nl</v>
       </c>
       <c r="J209" t="str">
         <v/>
@@ -7084,19 +7084,19 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <v>Geabonneerd</v>
+        <v>Gearchiveerde</v>
       </c>
       <c r="B210" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C210" t="str">
-        <v>Roelant</v>
+        <v>Rene</v>
       </c>
       <c r="D210" t="str">
-        <v>van der Putten</v>
+        <v>Roodenburg</v>
       </c>
       <c r="E210" t="str">
-        <v>Roelant van der Putten</v>
+        <v>Rene Roodenburg</v>
       </c>
       <c r="F210" t="str">
         <v/>
@@ -7105,7 +7105,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H210" t="str">
-        <v>roelant@roodenburg.nl</v>
+        <v>rene@roodenburg.nl, rene.roodenburg@roodenburg.nl</v>
       </c>
       <c r="I210" t="str">
         <v/>
@@ -7116,19 +7116,19 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B211" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C211" t="str">
-        <v>Brian</v>
+        <v>Goof</v>
       </c>
       <c r="D211" t="str">
-        <v>Erkelens</v>
+        <v>Ansems</v>
       </c>
       <c r="E211" t="str">
-        <v>Brian Erkelens</v>
+        <v>Goof Ansems</v>
       </c>
       <c r="F211" t="str">
         <v/>
@@ -7137,7 +7137,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H211" t="str">
-        <v>brian.erkelens@roodenburg.nl</v>
+        <v/>
       </c>
       <c r="I211" t="str">
         <v/>
@@ -7154,13 +7154,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C212" t="str">
-        <v>DaniÃ«l</v>
+        <v>Tom</v>
       </c>
       <c r="D212" t="str">
-        <v>Andeweg</v>
+        <v>Boekhout</v>
       </c>
       <c r="E212" t="str">
-        <v>DaniÃ«l Andeweg</v>
+        <v>Tom Boekhout</v>
       </c>
       <c r="F212" t="str">
         <v/>
@@ -7169,7 +7169,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H212" t="str">
-        <v>daniel.andeweg@roodenburg.nl</v>
+        <v>tom@roodenburg.nl, tom.boekhout@roodenburg.nl</v>
       </c>
       <c r="I212" t="str">
         <v/>
@@ -7186,13 +7186,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C213" t="str">
-        <v>David</v>
+        <v>Roelant</v>
       </c>
       <c r="D213" t="str">
-        <v>Hoogstad</v>
+        <v>van der Putten</v>
       </c>
       <c r="E213" t="str">
-        <v>David Hoogstad</v>
+        <v>Roelant van der Putten</v>
       </c>
       <c r="F213" t="str">
         <v/>
@@ -7201,7 +7201,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H213" t="str">
-        <v>david.hoogstad@roodenburg.nl</v>
+        <v>roelant@roodenburg.nl</v>
       </c>
       <c r="I213" t="str">
         <v/>
@@ -7218,13 +7218,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C214" t="str">
-        <v>Edwin</v>
+        <v>Brian</v>
       </c>
       <c r="D214" t="str">
-        <v>Visser</v>
+        <v>Erkelens</v>
       </c>
       <c r="E214" t="str">
-        <v>Edwin Visser</v>
+        <v>Brian Erkelens</v>
       </c>
       <c r="F214" t="str">
         <v/>
@@ -7233,7 +7233,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H214" t="str">
-        <v>edwin.visser@roodenburg.nl</v>
+        <v>brian.erkelens@roodenburg.nl</v>
       </c>
       <c r="I214" t="str">
         <v/>
@@ -7250,13 +7250,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C215" t="str">
-        <v>Emilie</v>
+        <v>DaniÃ«l</v>
       </c>
       <c r="D215" t="str">
-        <v>van â€™t Hof</v>
+        <v>Andeweg</v>
       </c>
       <c r="E215" t="str">
-        <v>Emilie van â€™t Hof</v>
+        <v>DaniÃ«l Andeweg</v>
       </c>
       <c r="F215" t="str">
         <v/>
@@ -7265,7 +7265,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H215" t="str">
-        <v>emilie@roodenburg.nl</v>
+        <v>daniel.andeweg@roodenburg.nl</v>
       </c>
       <c r="I215" t="str">
         <v/>
@@ -7282,13 +7282,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C216" t="str">
-        <v>Eric</v>
+        <v>David</v>
       </c>
       <c r="D216" t="str">
-        <v>Spek</v>
+        <v>Hoogstad</v>
       </c>
       <c r="E216" t="str">
-        <v>Eric Spek</v>
+        <v>David Hoogstad</v>
       </c>
       <c r="F216" t="str">
         <v/>
@@ -7297,7 +7297,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H216" t="str">
-        <v>eric.spek@roodenburg.nl</v>
+        <v>david.hoogstad@roodenburg.nl</v>
       </c>
       <c r="I216" t="str">
         <v/>
@@ -7314,13 +7314,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C217" t="str">
-        <v>Ferry</v>
+        <v>Edwin</v>
       </c>
       <c r="D217" t="str">
-        <v>Levens</v>
+        <v>Visser</v>
       </c>
       <c r="E217" t="str">
-        <v>Ferry Levens</v>
+        <v>Edwin Visser</v>
       </c>
       <c r="F217" t="str">
         <v/>
@@ -7329,7 +7329,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H217" t="str">
-        <v>ferry.levens@roodenburg.nl</v>
+        <v>edwin.visser@roodenburg.nl</v>
       </c>
       <c r="I217" t="str">
         <v/>
@@ -7346,13 +7346,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C218" t="str">
-        <v>Jaco</v>
+        <v>Emilie</v>
       </c>
       <c r="D218" t="str">
-        <v>Lisjak</v>
+        <v>van â€™t Hof</v>
       </c>
       <c r="E218" t="str">
-        <v>Jaco Lisjak</v>
+        <v>Emilie van â€™t Hof</v>
       </c>
       <c r="F218" t="str">
         <v/>
@@ -7361,7 +7361,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H218" t="str">
-        <v>jaco.lisjak@roodenburg.nl</v>
+        <v>emilie@roodenburg.nl</v>
       </c>
       <c r="I218" t="str">
         <v/>
@@ -7378,13 +7378,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C219" t="str">
-        <v>John</v>
+        <v>Eric</v>
       </c>
       <c r="D219" t="str">
-        <v>Mendes</v>
+        <v>Spek</v>
       </c>
       <c r="E219" t="str">
-        <v>John Mendes</v>
+        <v>Eric Spek</v>
       </c>
       <c r="F219" t="str">
         <v/>
@@ -7393,7 +7393,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H219" t="str">
-        <v>john.mendes@roodenburg.nl</v>
+        <v>eric.spek@roodenburg.nl</v>
       </c>
       <c r="I219" t="str">
         <v/>
@@ -7410,13 +7410,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C220" t="str">
-        <v>Jurgen</v>
+        <v>Ferry</v>
       </c>
       <c r="D220" t="str">
-        <v>van Deventer</v>
+        <v>Levens</v>
       </c>
       <c r="E220" t="str">
-        <v>Jurgen van Deventer</v>
+        <v>Ferry Levens</v>
       </c>
       <c r="F220" t="str">
         <v/>
@@ -7425,7 +7425,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H220" t="str">
-        <v>jurgen.van.deventer@roodenburg.nl</v>
+        <v>ferry.levens@roodenburg.nl</v>
       </c>
       <c r="I220" t="str">
         <v/>
@@ -7442,13 +7442,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C221" t="str">
-        <v>Lernard</v>
+        <v>Jaco</v>
       </c>
       <c r="D221" t="str">
-        <v>Simonis</v>
+        <v>Lisjak</v>
       </c>
       <c r="E221" t="str">
-        <v>Lernard Simonis</v>
+        <v>Jaco Lisjak</v>
       </c>
       <c r="F221" t="str">
         <v/>
@@ -7457,7 +7457,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H221" t="str">
-        <v>lernard.simonis@roodenburg.nl</v>
+        <v>jaco.lisjak@roodenburg.nl</v>
       </c>
       <c r="I221" t="str">
         <v/>
@@ -7474,13 +7474,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C222" t="str">
-        <v>Mandy</v>
+        <v>John</v>
       </c>
       <c r="D222" t="str">
-        <v>Strootman</v>
+        <v>Mendes</v>
       </c>
       <c r="E222" t="str">
-        <v>Mandy Strootman</v>
+        <v>John Mendes</v>
       </c>
       <c r="F222" t="str">
         <v/>
@@ -7489,7 +7489,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H222" t="str">
-        <v>mandy.strootman@roodenburg.nl</v>
+        <v>john.mendes@roodenburg.nl</v>
       </c>
       <c r="I222" t="str">
         <v/>
@@ -7506,13 +7506,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C223" t="str">
-        <v>Marco</v>
+        <v>Jurgen</v>
       </c>
       <c r="D223" t="str">
-        <v>Vervloed</v>
+        <v>van Deventer</v>
       </c>
       <c r="E223" t="str">
-        <v>Marco Vervloed</v>
+        <v>Jurgen van Deventer</v>
       </c>
       <c r="F223" t="str">
         <v/>
@@ -7521,7 +7521,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H223" t="str">
-        <v>marco.vervloed@roodenburg.nl</v>
+        <v>jurgen.van.deventer@roodenburg.nl</v>
       </c>
       <c r="I223" t="str">
         <v/>
@@ -7538,13 +7538,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C224" t="str">
-        <v>Martin</v>
+        <v>Lernard</v>
       </c>
       <c r="D224" t="str">
-        <v>Tanis</v>
+        <v>Simonis</v>
       </c>
       <c r="E224" t="str">
-        <v>Martin Tanis</v>
+        <v>Lernard Simonis</v>
       </c>
       <c r="F224" t="str">
         <v/>
@@ -7553,7 +7553,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H224" t="str">
-        <v>martin.tanis@roodenburg.nl</v>
+        <v>lernard.simonis@roodenburg.nl</v>
       </c>
       <c r="I224" t="str">
         <v/>
@@ -7570,13 +7570,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C225" t="str">
-        <v>Miriam</v>
+        <v>Mandy</v>
       </c>
       <c r="D225" t="str">
-        <v>Boon</v>
+        <v>Strootman</v>
       </c>
       <c r="E225" t="str">
-        <v>Miriam Boon</v>
+        <v>Mandy Strootman</v>
       </c>
       <c r="F225" t="str">
         <v/>
@@ -7585,7 +7585,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H225" t="str">
-        <v>miriam.boon@roodenburg.nl</v>
+        <v>mandy.strootman@roodenburg.nl</v>
       </c>
       <c r="I225" t="str">
         <v/>
@@ -7602,13 +7602,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C226" t="str">
-        <v>Nancy</v>
+        <v>Marco</v>
       </c>
       <c r="D226" t="str">
-        <v>Goedkoop</v>
+        <v>Vervloed</v>
       </c>
       <c r="E226" t="str">
-        <v>Nancy Goedkoop</v>
+        <v>Marco Vervloed</v>
       </c>
       <c r="F226" t="str">
         <v/>
@@ -7617,7 +7617,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H226" t="str">
-        <v>nancy.goedkoop@roodenburg.nl</v>
+        <v>marco.vervloed@roodenburg.nl</v>
       </c>
       <c r="I226" t="str">
         <v/>
@@ -7634,13 +7634,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C227" t="str">
-        <v>Remko</v>
+        <v>Martin</v>
       </c>
       <c r="D227" t="str">
-        <v>de Joode</v>
+        <v>Tanis</v>
       </c>
       <c r="E227" t="str">
-        <v>Remko de Joode</v>
+        <v>Martin Tanis</v>
       </c>
       <c r="F227" t="str">
         <v/>
@@ -7649,7 +7649,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H227" t="str">
-        <v>remko.de.joode@roodenburg.nl</v>
+        <v>martin.tanis@roodenburg.nl</v>
       </c>
       <c r="I227" t="str">
         <v/>
@@ -7666,13 +7666,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C228" t="str">
-        <v>Rens</v>
+        <v>Miriam</v>
       </c>
       <c r="D228" t="str">
-        <v>de Witte</v>
+        <v>Boon</v>
       </c>
       <c r="E228" t="str">
-        <v>Rens de Witte</v>
+        <v>Miriam Boon</v>
       </c>
       <c r="F228" t="str">
         <v/>
@@ -7681,7 +7681,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H228" t="str">
-        <v>rens.de.witte@roodenburg.nl</v>
+        <v>miriam.boon@roodenburg.nl</v>
       </c>
       <c r="I228" t="str">
         <v/>
@@ -7698,13 +7698,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C229" t="str">
-        <v>Robbert</v>
+        <v>Nancy</v>
       </c>
       <c r="D229" t="str">
-        <v>Zevenbergen</v>
+        <v>Goedkoop</v>
       </c>
       <c r="E229" t="str">
-        <v>Robbert Zevenbergen</v>
+        <v>Nancy Goedkoop</v>
       </c>
       <c r="F229" t="str">
         <v/>
@@ -7713,7 +7713,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H229" t="str">
-        <v>robbert.zevenbergen@roodenburg.nl</v>
+        <v>nancy.goedkoop@roodenburg.nl</v>
       </c>
       <c r="I229" t="str">
         <v/>
@@ -7730,13 +7730,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C230" t="str">
-        <v>Simone</v>
+        <v>Remko</v>
       </c>
       <c r="D230" t="str">
-        <v>de Groot</v>
+        <v>de Joode</v>
       </c>
       <c r="E230" t="str">
-        <v>Simone de Groot</v>
+        <v>Remko de Joode</v>
       </c>
       <c r="F230" t="str">
         <v/>
@@ -7745,7 +7745,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H230" t="str">
-        <v>simone.de.groot@roodenburg.nl</v>
+        <v>remko.de.joode@roodenburg.nl</v>
       </c>
       <c r="I230" t="str">
         <v/>
@@ -7762,13 +7762,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C231" t="str">
-        <v>Stephan</v>
+        <v>Rens</v>
       </c>
       <c r="D231" t="str">
-        <v>van der Eijk</v>
+        <v>de Witte</v>
       </c>
       <c r="E231" t="str">
-        <v>Stephan van der Eijk</v>
+        <v>Rens de Witte</v>
       </c>
       <c r="F231" t="str">
         <v/>
@@ -7777,7 +7777,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H231" t="str">
-        <v>stephan.van.der.eijk@roodenburg.nl</v>
+        <v>rens.de.witte@roodenburg.nl</v>
       </c>
       <c r="I231" t="str">
         <v/>
@@ -7794,13 +7794,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C232" t="str">
-        <v>Tom</v>
+        <v>Robbert</v>
       </c>
       <c r="D232" t="str">
-        <v>Boekhout</v>
+        <v>Zevenbergen</v>
       </c>
       <c r="E232" t="str">
-        <v>Tom Boekhout</v>
+        <v>Robbert Zevenbergen</v>
       </c>
       <c r="F232" t="str">
         <v/>
@@ -7809,7 +7809,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H232" t="str">
-        <v>tom.boekhout@roodenburg.nl</v>
+        <v>robbert.zevenbergen@roodenburg.nl</v>
       </c>
       <c r="I232" t="str">
         <v/>
@@ -7820,19 +7820,19 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
-        <v>Niet bezorgd</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B233" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C233" t="str">
-        <v>Wilco</v>
+        <v>Simone</v>
       </c>
       <c r="D233" t="str">
-        <v>Kah</v>
+        <v>de Groot</v>
       </c>
       <c r="E233" t="str">
-        <v>Wilco Kah</v>
+        <v>Simone de Groot</v>
       </c>
       <c r="F233" t="str">
         <v/>
@@ -7841,7 +7841,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H233" t="str">
-        <v>wilco@roodenburg.nl</v>
+        <v>simone.de.groot@roodenburg.nl</v>
       </c>
       <c r="I233" t="str">
         <v/>
@@ -7858,13 +7858,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C234" t="str">
-        <v>Ying</v>
+        <v>Stephan</v>
       </c>
       <c r="D234" t="str">
-        <v>Kid Cheung</v>
+        <v>van der Eijk</v>
       </c>
       <c r="E234" t="str">
-        <v>Ying Kid Cheung</v>
+        <v>Stephan van der Eijk</v>
       </c>
       <c r="F234" t="str">
         <v/>
@@ -7873,7 +7873,7 @@
         <v>Roodenburg Groep</v>
       </c>
       <c r="H234" t="str">
-        <v>ying.kid.cheung@roodenburg.nl</v>
+        <v>stephan.van.der.eijk@roodenburg.nl</v>
       </c>
       <c r="I234" t="str">
         <v/>
@@ -7893,19 +7893,19 @@
         <v>Tom</v>
       </c>
       <c r="D235" t="str">
-        <v>Saarloos</v>
+        <v>Boekhout</v>
       </c>
       <c r="E235" t="str">
-        <v>Tom Saarloos</v>
+        <v>Tom Boekhout</v>
       </c>
       <c r="F235" t="str">
-        <v>Directie, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G235" t="str">
-        <v>Safe Beveiliging</v>
+        <v>Roodenburg Groep</v>
       </c>
       <c r="H235" t="str">
-        <v>t.saarloos@safe-beveiliging.nl</v>
+        <v>tom.boekhout@roodenburg.nl</v>
       </c>
       <c r="I235" t="str">
         <v/>
@@ -7916,28 +7916,28 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
-        <v>Geabonneerd</v>
+        <v>Niet bezorgd</v>
       </c>
       <c r="B236" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C236" t="str">
-        <v>Thomas</v>
+        <v>Wilco</v>
       </c>
       <c r="D236" t="str">
-        <v>Ebenhoch</v>
+        <v>Kah</v>
       </c>
       <c r="E236" t="str">
-        <v>Thomas Ebenhoch</v>
+        <v>Wilco Kah</v>
       </c>
       <c r="F236" t="str">
-        <v>Controller, Contactpersoon IT (intern)</v>
+        <v/>
       </c>
       <c r="G236" t="str">
-        <v>Safe Beveiliging</v>
+        <v>Roodenburg Groep</v>
       </c>
       <c r="H236" t="str">
-        <v>t.ebenhoch@safe-beveiliging.nl</v>
+        <v>wilco@roodenburg.nl</v>
       </c>
       <c r="I236" t="str">
         <v/>
@@ -7948,31 +7948,31 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B237" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C237" t="str">
-        <v>Crediteuren</v>
+        <v>Ying</v>
       </c>
       <c r="D237" t="str">
-        <v/>
+        <v>Kid Cheung</v>
       </c>
       <c r="E237" t="str">
-        <v>Crediteuren</v>
+        <v>Ying Kid Cheung</v>
       </c>
       <c r="F237" t="str">
         <v/>
       </c>
       <c r="G237" t="str">
-        <v>Safe Beveiliging</v>
+        <v>Roodenburg Groep</v>
       </c>
       <c r="H237" t="str">
-        <v/>
+        <v>ying.kid.cheung@roodenburg.nl</v>
       </c>
       <c r="I237" t="str">
-        <v>crediteuren@safe-beveiliging.nl</v>
+        <v/>
       </c>
       <c r="J237" t="str">
         <v/>
@@ -7986,22 +7986,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C238" t="str">
-        <v>Stan</v>
+        <v>Tom</v>
       </c>
       <c r="D238" t="str">
-        <v>van de Zande</v>
+        <v>Saarloos</v>
       </c>
       <c r="E238" t="str">
-        <v>Stan van de Zande</v>
+        <v>Tom Saarloos</v>
       </c>
       <c r="F238" t="str">
-        <v/>
+        <v>Directie, Contactpersoon consultancy</v>
       </c>
       <c r="G238" t="str">
         <v>Safe Beveiliging</v>
       </c>
       <c r="H238" t="str">
-        <v>s.vandezande@safe-beveiliging.nl</v>
+        <v>t.saarloos@safe-beveiliging.nl</v>
       </c>
       <c r="I238" t="str">
         <v/>
@@ -8012,31 +8012,31 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B239" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C239" t="str">
-        <v>Facturen</v>
+        <v>Thomas</v>
       </c>
       <c r="D239" t="str">
-        <v/>
+        <v>Ebenhoch</v>
       </c>
       <c r="E239" t="str">
-        <v>Facturen</v>
+        <v>Thomas Ebenhoch</v>
       </c>
       <c r="F239" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern)</v>
       </c>
       <c r="G239" t="str">
-        <v>Sandee Groenbeheer</v>
+        <v>Safe Beveiliging</v>
       </c>
       <c r="H239" t="str">
-        <v/>
+        <v>t.ebenhoch@safe-beveiliging.nl</v>
       </c>
       <c r="I239" t="str">
-        <v>facturen@sandee.nl</v>
+        <v/>
       </c>
       <c r="J239" t="str">
         <v/>
@@ -8044,31 +8044,31 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
-        <v>Afgemeld</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B240" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C240" t="str">
-        <v>Henri</v>
+        <v>Crediteuren</v>
       </c>
       <c r="D240" t="str">
-        <v>van Steenbergen</v>
+        <v/>
       </c>
       <c r="E240" t="str">
-        <v>Henri van Steenbergen</v>
+        <v>Crediteuren</v>
       </c>
       <c r="F240" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G240" t="str">
-        <v>T&amp;S Klimaattechniek</v>
+        <v>Safe Beveiliging</v>
       </c>
       <c r="H240" t="str">
-        <v>henri@t-en-s.com</v>
+        <v/>
       </c>
       <c r="I240" t="str">
-        <v/>
+        <v>crediteuren@safe-beveiliging.nl</v>
       </c>
       <c r="J240" t="str">
         <v/>
@@ -8082,22 +8082,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C241" t="str">
-        <v>Allard</v>
+        <v>Stan</v>
       </c>
       <c r="D241" t="str">
-        <v>Prins</v>
+        <v>van de Zande</v>
       </c>
       <c r="E241" t="str">
-        <v>Allard Prins</v>
+        <v>Stan van de Zande</v>
       </c>
       <c r="F241" t="str">
-        <v>Directie, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G241" t="str">
-        <v>T&amp;S Klimaattechniek</v>
+        <v>Safe Beveiliging</v>
       </c>
       <c r="H241" t="str">
-        <v>allard@t-en-s.com</v>
+        <v>s.vandezande@safe-beveiliging.nl</v>
       </c>
       <c r="I241" t="str">
         <v/>
@@ -8108,31 +8108,31 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B242" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C242" t="str">
-        <v>Jeroen</v>
+        <v>Facturen</v>
       </c>
       <c r="D242" t="str">
-        <v>van Oort</v>
+        <v/>
       </c>
       <c r="E242" t="str">
-        <v>Jeroen van Oort</v>
+        <v>Facturen</v>
       </c>
       <c r="F242" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G242" t="str">
-        <v>T&amp;S Klimaattechniek</v>
+        <v>Sandee Groenbeheer</v>
       </c>
       <c r="H242" t="str">
-        <v>jeroenvanoort@t-en-s.com</v>
+        <v/>
       </c>
       <c r="I242" t="str">
-        <v/>
+        <v>facturen@sandee.nl</v>
       </c>
       <c r="J242" t="str">
         <v/>
@@ -8140,31 +8140,31 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
-        <v>Geen toestemming</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B243" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C243" t="str">
-        <v>Administratie</v>
+        <v>Henri</v>
       </c>
       <c r="D243" t="str">
-        <v/>
+        <v>van Steenbergen</v>
       </c>
       <c r="E243" t="str">
-        <v>Administratie</v>
+        <v>Henri van Steenbergen</v>
       </c>
       <c r="F243" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G243" t="str">
         <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H243" t="str">
-        <v/>
+        <v>henri@t-en-s.com</v>
       </c>
       <c r="I243" t="str">
-        <v>administratie@t-en-s.com</v>
+        <v/>
       </c>
       <c r="J243" t="str">
         <v/>
@@ -8172,28 +8172,28 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B244" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C244" t="str">
-        <v>Kenneth</v>
+        <v>Allard</v>
       </c>
       <c r="D244" t="str">
-        <v>Kortekaas</v>
+        <v>Prins</v>
       </c>
       <c r="E244" t="str">
-        <v>Kenneth Kortekaas</v>
+        <v>Allard Prins</v>
       </c>
       <c r="F244" t="str">
-        <v/>
+        <v>Directie, Contactpersoon consultancy</v>
       </c>
       <c r="G244" t="str">
         <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H244" t="str">
-        <v>kenneth@t-en-s.com</v>
+        <v>allard@t-en-s.com</v>
       </c>
       <c r="I244" t="str">
         <v/>
@@ -8210,22 +8210,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C245" t="str">
-        <v>Joey</v>
+        <v>Jeroen</v>
       </c>
       <c r="D245" t="str">
-        <v>Kroon</v>
+        <v>van Oort</v>
       </c>
       <c r="E245" t="str">
-        <v>Joey Kroon</v>
+        <v>Jeroen van Oort</v>
       </c>
       <c r="F245" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G245" t="str">
         <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H245" t="str">
-        <v>JoeyKroon@t-en-s.com</v>
+        <v>jeroenvanoort@t-en-s.com</v>
       </c>
       <c r="I245" t="str">
         <v/>
@@ -8236,31 +8236,31 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B246" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C246" t="str">
-        <v>Niels</v>
+        <v>Administratie</v>
       </c>
       <c r="D246" t="str">
-        <v>Bronkhorst</v>
+        <v/>
       </c>
       <c r="E246" t="str">
-        <v>Niels Bronkhorst</v>
+        <v>Administratie</v>
       </c>
       <c r="F246" t="str">
-        <v>Directie, Contactpersoon IT (intern)</v>
+        <v/>
       </c>
       <c r="G246" t="str">
         <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H246" t="str">
-        <v>nielsbronkhorst@t-en-s.com</v>
+        <v/>
       </c>
       <c r="I246" t="str">
-        <v/>
+        <v>administratie@t-en-s.com</v>
       </c>
       <c r="J246" t="str">
         <v/>
@@ -8268,19 +8268,19 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B247" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C247" t="str">
-        <v>Linda</v>
+        <v>Kenneth</v>
       </c>
       <c r="D247" t="str">
-        <v>Koolhaas</v>
+        <v>Kortekaas</v>
       </c>
       <c r="E247" t="str">
-        <v>Linda Koolhaas</v>
+        <v>Kenneth Kortekaas</v>
       </c>
       <c r="F247" t="str">
         <v/>
@@ -8289,7 +8289,7 @@
         <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H247" t="str">
-        <v>lindakoolhaas@t-en-s.com</v>
+        <v>kenneth@t-en-s.com</v>
       </c>
       <c r="I247" t="str">
         <v/>
@@ -8306,22 +8306,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C248" t="str">
-        <v>Erik</v>
+        <v>Joey</v>
       </c>
       <c r="D248" t="str">
-        <v>Wissink</v>
+        <v>Kroon</v>
       </c>
       <c r="E248" t="str">
-        <v>Erik Wissink</v>
+        <v>Joey Kroon</v>
       </c>
       <c r="F248" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G248" t="str">
-        <v>Te Kloeze Riooltechniek</v>
+        <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H248" t="str">
-        <v>e.wissink@tekloeze.nl</v>
+        <v>JoeyKroon@t-en-s.com</v>
       </c>
       <c r="I248" t="str">
         <v/>
@@ -8338,22 +8338,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C249" t="str">
-        <v>Vincent</v>
+        <v>Niels</v>
       </c>
       <c r="D249" t="str">
-        <v>Nibbelink</v>
+        <v>Bronkhorst</v>
       </c>
       <c r="E249" t="str">
-        <v>Vincent Nibbelink</v>
+        <v>Niels Bronkhorst</v>
       </c>
       <c r="F249" t="str">
-        <v>Controller</v>
+        <v>Directie, Contactpersoon IT (intern)</v>
       </c>
       <c r="G249" t="str">
-        <v>Te Kloeze Riooltechniek</v>
+        <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H249" t="str">
-        <v>v.nibbelink@tekloeze.nl</v>
+        <v>nielsbronkhorst@t-en-s.com</v>
       </c>
       <c r="I249" t="str">
         <v/>
@@ -8370,22 +8370,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C250" t="str">
-        <v>Christel</v>
+        <v>Linda</v>
       </c>
       <c r="D250" t="str">
-        <v>Kamphuis</v>
+        <v>Koolhaas</v>
       </c>
       <c r="E250" t="str">
-        <v>Christel Kamphuis</v>
+        <v>Linda Koolhaas</v>
       </c>
       <c r="F250" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G250" t="str">
-        <v>Te Kloeze Riooltechniek</v>
+        <v>T&amp;S Klimaattechniek</v>
       </c>
       <c r="H250" t="str">
-        <v>c.kamphuis@tekloeze.nl</v>
+        <v>lindakoolhaas@t-en-s.com</v>
       </c>
       <c r="I250" t="str">
         <v/>
@@ -8402,22 +8402,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C251" t="str">
-        <v>Nico</v>
+        <v>Erik</v>
       </c>
       <c r="D251" t="str">
-        <v>Lensink</v>
+        <v>Wissink</v>
       </c>
       <c r="E251" t="str">
-        <v>Nico Lensink</v>
+        <v>Erik Wissink</v>
       </c>
       <c r="F251" t="str">
-        <v>Directie</v>
+        <v>Controller</v>
       </c>
       <c r="G251" t="str">
         <v>Te Kloeze Riooltechniek</v>
       </c>
       <c r="H251" t="str">
-        <v>n.lensink@tekloeze.nl</v>
+        <v>e.wissink@tekloeze.nl</v>
       </c>
       <c r="I251" t="str">
         <v/>
@@ -8428,19 +8428,19 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B252" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C252" t="str">
-        <v>Robert</v>
+        <v>Vincent</v>
       </c>
       <c r="D252" t="str">
-        <v>Rutjens</v>
+        <v>Nibbelink</v>
       </c>
       <c r="E252" t="str">
-        <v>Robert Rutjens</v>
+        <v>Vincent Nibbelink</v>
       </c>
       <c r="F252" t="str">
         <v>Controller</v>
@@ -8449,7 +8449,7 @@
         <v>Te Kloeze Riooltechniek</v>
       </c>
       <c r="H252" t="str">
-        <v>r.rutjes@tekloeze.nl</v>
+        <v>v.nibbelink@tekloeze.nl</v>
       </c>
       <c r="I252" t="str">
         <v/>
@@ -8466,22 +8466,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C253" t="str">
-        <v>Anneke</v>
+        <v>Christel</v>
       </c>
       <c r="D253" t="str">
-        <v>Klein Tank</v>
+        <v>Kamphuis</v>
       </c>
       <c r="E253" t="str">
-        <v>Anneke Klein Tank</v>
+        <v>Christel Kamphuis</v>
       </c>
       <c r="F253" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G253" t="str">
         <v>Te Kloeze Riooltechniek</v>
       </c>
       <c r="H253" t="str">
-        <v>a.kleintank@tekloeze.nl</v>
+        <v>c.kamphuis@tekloeze.nl</v>
       </c>
       <c r="I253" t="str">
         <v/>
@@ -8492,28 +8492,28 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B254" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C254" t="str">
-        <v>Ivar</v>
+        <v>Nico</v>
       </c>
       <c r="D254" t="str">
-        <v>Raadtgever</v>
+        <v>Lensink</v>
       </c>
       <c r="E254" t="str">
-        <v>Ivar Raadtgever</v>
+        <v>Nico Lensink</v>
       </c>
       <c r="F254" t="str">
         <v>Directie</v>
       </c>
       <c r="G254" t="str">
-        <v>Technisch Buro Tom</v>
+        <v>Te Kloeze Riooltechniek</v>
       </c>
       <c r="H254" t="str">
-        <v>iraadtgever@tbtom.nl</v>
+        <v>n.lensink@tekloeze.nl</v>
       </c>
       <c r="I254" t="str">
         <v/>
@@ -8524,28 +8524,28 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B255" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C255" t="str">
-        <v>Raymond</v>
+        <v>Robert</v>
       </c>
       <c r="D255" t="str">
-        <v>Rüter</v>
+        <v>Rutjens</v>
       </c>
       <c r="E255" t="str">
-        <v>Raymond Rüter</v>
+        <v>Robert Rutjens</v>
       </c>
       <c r="F255" t="str">
-        <v>Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v>Controller</v>
       </c>
       <c r="G255" t="str">
-        <v>Technisch Buro Tom</v>
+        <v>Te Kloeze Riooltechniek</v>
       </c>
       <c r="H255" t="str">
-        <v>raymon@tbtom.nl</v>
+        <v>r.rutjes@tekloeze.nl</v>
       </c>
       <c r="I255" t="str">
         <v/>
@@ -8562,22 +8562,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C256" t="str">
-        <v>Christiaan</v>
+        <v>Anneke</v>
       </c>
       <c r="D256" t="str">
-        <v>Carranza Kemp</v>
+        <v>Klein Tank</v>
       </c>
       <c r="E256" t="str">
-        <v>Christiaan Carranza Kemp</v>
+        <v>Anneke Klein Tank</v>
       </c>
       <c r="F256" t="str">
         <v/>
       </c>
       <c r="G256" t="str">
-        <v>Technisch Buro Tom</v>
+        <v>Te Kloeze Riooltechniek</v>
       </c>
       <c r="H256" t="str">
-        <v>ccarranza@tomtechniek.com</v>
+        <v>a.kleintank@tekloeze.nl</v>
       </c>
       <c r="I256" t="str">
         <v/>
@@ -8588,28 +8588,28 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
-        <v>Geen toestemming</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B257" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C257" t="str">
-        <v>Patrick</v>
+        <v>Ivar</v>
       </c>
       <c r="D257" t="str">
-        <v>Matthijssen</v>
+        <v>Raadtgever</v>
       </c>
       <c r="E257" t="str">
-        <v>Patrick Matthijssen</v>
+        <v>Ivar Raadtgever</v>
       </c>
       <c r="F257" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G257" t="str">
-        <v>Technisch Buro Wissing B.V.</v>
+        <v>Technisch Buro Tom</v>
       </c>
       <c r="H257" t="str">
-        <v>patrick@tbwissing.nl</v>
+        <v>iraadtgever@tbtom.nl</v>
       </c>
       <c r="I257" t="str">
         <v/>
@@ -8626,22 +8626,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C258" t="str">
-        <v>Mark</v>
+        <v>Raymond</v>
       </c>
       <c r="D258" t="str">
-        <v>Haring</v>
+        <v>Rüter</v>
       </c>
       <c r="E258" t="str">
-        <v>Mark Haring</v>
+        <v>Raymond Rüter</v>
       </c>
       <c r="F258" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v>Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G258" t="str">
-        <v>testklant syntess</v>
+        <v>Technisch Buro Tom</v>
       </c>
       <c r="H258" t="str">
-        <v>mark@notifica.nl</v>
+        <v>raymon@tbtom.nl</v>
       </c>
       <c r="I258" t="str">
         <v/>
@@ -8658,22 +8658,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C259" t="str">
-        <v>arthur</v>
+        <v>Christiaan</v>
       </c>
       <c r="D259" t="str">
-        <v>Gartz</v>
+        <v>Carranza Kemp</v>
       </c>
       <c r="E259" t="str">
-        <v>arthur Gartz</v>
+        <v>Christiaan Carranza Kemp</v>
       </c>
       <c r="F259" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G259" t="str">
-        <v>testklant syntess</v>
+        <v>Technisch Buro Tom</v>
       </c>
       <c r="H259" t="str">
-        <v>arthur@notifica.nl</v>
+        <v>ccarranza@tomtechniek.com</v>
       </c>
       <c r="I259" t="str">
         <v/>
@@ -8684,28 +8684,28 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B260" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C260" t="str">
-        <v>Tobias</v>
+        <v>Patrick</v>
       </c>
       <c r="D260" t="str">
-        <v>Boog</v>
+        <v>Matthijssen</v>
       </c>
       <c r="E260" t="str">
-        <v>Tobias Boog</v>
+        <v>Patrick Matthijssen</v>
       </c>
       <c r="F260" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G260" t="str">
-        <v>testklant syntess</v>
+        <v>Technisch Buro Wissing B.V.</v>
       </c>
       <c r="H260" t="str">
-        <v>tobias@notifica.nl</v>
+        <v>patrick@tbwissing.nl</v>
       </c>
       <c r="I260" t="str">
         <v/>
@@ -8722,22 +8722,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C261" t="str">
-        <v>Dolf</v>
+        <v>Mark</v>
       </c>
       <c r="D261" t="str">
-        <v>Jansonius</v>
+        <v>Haring</v>
       </c>
       <c r="E261" t="str">
-        <v>Dolf Jansonius</v>
+        <v>Mark Haring</v>
       </c>
       <c r="F261" t="str">
-        <v/>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G261" t="str">
         <v>testklant syntess</v>
       </c>
       <c r="H261" t="str">
-        <v>dolf@notifica.nl</v>
+        <v>mark@notifica.nl</v>
       </c>
       <c r="I261" t="str">
         <v/>
@@ -8754,22 +8754,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C262" t="str">
-        <v>Domien</v>
+        <v>arthur</v>
       </c>
       <c r="D262" t="str">
-        <v>Parren</v>
+        <v>Gartz</v>
       </c>
       <c r="E262" t="str">
-        <v>Domien Parren</v>
+        <v>arthur Gartz</v>
       </c>
       <c r="F262" t="str">
-        <v/>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G262" t="str">
         <v>testklant syntess</v>
       </c>
       <c r="H262" t="str">
-        <v>domienparren@dppowerbioplossingen.onmicrosoft.com</v>
+        <v>arthur@notifica.nl</v>
       </c>
       <c r="I262" t="str">
         <v/>
@@ -8786,22 +8786,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C263" t="str">
-        <v>Robert</v>
+        <v>Tobias</v>
       </c>
       <c r="D263" t="str">
-        <v>Haasbroek</v>
+        <v>Boog</v>
       </c>
       <c r="E263" t="str">
-        <v>Robert Haasbroek</v>
+        <v>Tobias Boog</v>
       </c>
       <c r="F263" t="str">
-        <v/>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G263" t="str">
-        <v>Unica</v>
+        <v>testklant syntess</v>
       </c>
       <c r="H263" t="str">
-        <v>rhaasbroek@unica.nl</v>
+        <v>tobias@notifica.nl</v>
       </c>
       <c r="I263" t="str">
         <v/>
@@ -8818,22 +8818,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C264" t="str">
-        <v>Arno</v>
+        <v>Dolf</v>
       </c>
       <c r="D264" t="str">
-        <v>Uiterweerd</v>
+        <v>Jansonius</v>
       </c>
       <c r="E264" t="str">
-        <v>Arno Uiterweerd</v>
+        <v>Dolf Jansonius</v>
       </c>
       <c r="F264" t="str">
         <v/>
       </c>
       <c r="G264" t="str">
-        <v>Unica</v>
+        <v>testklant syntess</v>
       </c>
       <c r="H264" t="str">
-        <v>auiterweerd@unica.nl</v>
+        <v>dolf@notifica.nl</v>
       </c>
       <c r="I264" t="str">
         <v/>
@@ -8850,22 +8850,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C265" t="str">
-        <v>Maarten</v>
+        <v>Domien</v>
       </c>
       <c r="D265" t="str">
-        <v>Visser</v>
+        <v>Parren</v>
       </c>
       <c r="E265" t="str">
-        <v>Maarten Visser</v>
+        <v>Domien Parren</v>
       </c>
       <c r="F265" t="str">
         <v/>
       </c>
       <c r="G265" t="str">
-        <v>Unica</v>
+        <v>testklant syntess</v>
       </c>
       <c r="H265" t="str">
-        <v>mvisser@unica.nl, mvisser@mve-bv.nl</v>
+        <v>domienparren@dppowerbioplossingen.onmicrosoft.com</v>
       </c>
       <c r="I265" t="str">
         <v/>
@@ -8882,13 +8882,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C266" t="str">
-        <v>Martin</v>
+        <v>Robert</v>
       </c>
       <c r="D266" t="str">
-        <v>Misseyer</v>
+        <v>Haasbroek</v>
       </c>
       <c r="E266" t="str">
-        <v>Martin Misseyer</v>
+        <v>Robert Haasbroek</v>
       </c>
       <c r="F266" t="str">
         <v/>
@@ -8897,7 +8897,7 @@
         <v>Unica</v>
       </c>
       <c r="H266" t="str">
-        <v>mmisseyer@unica.nl</v>
+        <v>rhaasbroek@unica.nl</v>
       </c>
       <c r="I266" t="str">
         <v/>
@@ -8914,13 +8914,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C267" t="str">
-        <v>Frederik</v>
+        <v>Arno</v>
       </c>
       <c r="D267" t="str">
-        <v>Vennemann</v>
+        <v>Uiterweerd</v>
       </c>
       <c r="E267" t="str">
-        <v>Frederik Vennemann</v>
+        <v>Arno Uiterweerd</v>
       </c>
       <c r="F267" t="str">
         <v/>
@@ -8929,7 +8929,7 @@
         <v>Unica</v>
       </c>
       <c r="H267" t="str">
-        <v>fvennemann@unica.nl</v>
+        <v>auiterweerd@unica.nl</v>
       </c>
       <c r="I267" t="str">
         <v/>
@@ -8946,13 +8946,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C268" t="str">
-        <v>Gerard</v>
+        <v>Maarten</v>
       </c>
       <c r="D268" t="str">
-        <v>Niemeijer</v>
+        <v>Visser</v>
       </c>
       <c r="E268" t="str">
-        <v>Gerard Niemeijer</v>
+        <v>Maarten Visser</v>
       </c>
       <c r="F268" t="str">
         <v/>
@@ -8961,7 +8961,7 @@
         <v>Unica</v>
       </c>
       <c r="H268" t="str">
-        <v>gerard.niemeijer@unica.nl</v>
+        <v>mvisser@unica.nl, mvisser@mve-bv.nl</v>
       </c>
       <c r="I268" t="str">
         <v/>
@@ -8978,13 +8978,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C269" t="str">
-        <v>Bart</v>
+        <v>Martin</v>
       </c>
       <c r="D269" t="str">
-        <v>Castenmiller</v>
+        <v>Misseyer</v>
       </c>
       <c r="E269" t="str">
-        <v>Bart Castenmiller</v>
+        <v>Martin Misseyer</v>
       </c>
       <c r="F269" t="str">
         <v/>
@@ -8993,7 +8993,7 @@
         <v>Unica</v>
       </c>
       <c r="H269" t="str">
-        <v>bcastenmiller@unica.nl</v>
+        <v>mmisseyer@unica.nl</v>
       </c>
       <c r="I269" t="str">
         <v/>
@@ -9010,13 +9010,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C270" t="str">
-        <v>Richard</v>
+        <v>Frederik</v>
       </c>
       <c r="D270" t="str">
-        <v>Overweg</v>
+        <v>Vennemann</v>
       </c>
       <c r="E270" t="str">
-        <v>Richard Overweg</v>
+        <v>Frederik Vennemann</v>
       </c>
       <c r="F270" t="str">
         <v/>
@@ -9025,7 +9025,7 @@
         <v>Unica</v>
       </c>
       <c r="H270" t="str">
-        <v>richard@unica.nl</v>
+        <v>fvennemann@unica.nl</v>
       </c>
       <c r="I270" t="str">
         <v/>
@@ -9042,13 +9042,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C271" t="str">
-        <v>Christiaan</v>
+        <v>Gerard</v>
       </c>
       <c r="D271" t="str">
-        <v>Enter</v>
+        <v>Niemeijer</v>
       </c>
       <c r="E271" t="str">
-        <v>Christiaan Enter</v>
+        <v>Gerard Niemeijer</v>
       </c>
       <c r="F271" t="str">
         <v/>
@@ -9057,7 +9057,7 @@
         <v>Unica</v>
       </c>
       <c r="H271" t="str">
-        <v>center@unica.nl</v>
+        <v>gerard.niemeijer@unica.nl</v>
       </c>
       <c r="I271" t="str">
         <v/>
@@ -9068,28 +9068,28 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B272" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C272" t="str">
-        <v>Brigitte</v>
+        <v>Bart</v>
       </c>
       <c r="D272" t="str">
-        <v>Esser</v>
+        <v>Castenmiller</v>
       </c>
       <c r="E272" t="str">
-        <v>Brigitte Esser</v>
+        <v>Bart Castenmiller</v>
       </c>
       <c r="F272" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G272" t="str">
-        <v>Van Abeelen</v>
+        <v>Unica</v>
       </c>
       <c r="H272" t="str">
-        <v>brigitte@vanabeelen.eu, wheijkoop@vanabeelen.eu</v>
+        <v>bcastenmiller@unica.nl</v>
       </c>
       <c r="I272" t="str">
         <v/>
@@ -9106,22 +9106,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C273" t="str">
-        <v>Gijs</v>
+        <v>Richard</v>
       </c>
       <c r="D273" t="str">
-        <v>van Abeelen</v>
+        <v>Overweg</v>
       </c>
       <c r="E273" t="str">
-        <v>Gijs van Abeelen</v>
+        <v>Richard Overweg</v>
       </c>
       <c r="F273" t="str">
-        <v>Controller, Contactpersoon IT (intern)</v>
+        <v/>
       </c>
       <c r="G273" t="str">
-        <v>Van Abeelen</v>
+        <v>Unica</v>
       </c>
       <c r="H273" t="str">
-        <v>gijs@vanabeelen.eu</v>
+        <v>richard@unica.nl</v>
       </c>
       <c r="I273" t="str">
         <v/>
@@ -9138,22 +9138,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C274" t="str">
-        <v>Patrick</v>
+        <v>Christiaan</v>
       </c>
       <c r="D274" t="str">
-        <v>van de Veerdonk</v>
+        <v>Enter</v>
       </c>
       <c r="E274" t="str">
-        <v>Patrick van de Veerdonk</v>
+        <v>Christiaan Enter</v>
       </c>
       <c r="F274" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G274" t="str">
-        <v>Van Abeelen</v>
+        <v>Unica</v>
       </c>
       <c r="H274" t="str">
-        <v>pvandeveerdonk@vanabeelen.eu</v>
+        <v>center@unica.nl</v>
       </c>
       <c r="I274" t="str">
         <v/>
@@ -9164,28 +9164,28 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B275" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C275" t="str">
-        <v>Bart</v>
+        <v>Brigitte</v>
       </c>
       <c r="D275" t="str">
-        <v>Brekelmans</v>
+        <v>Esser</v>
       </c>
       <c r="E275" t="str">
-        <v>Bart Brekelmans</v>
+        <v>Brigitte Esser</v>
       </c>
       <c r="F275" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v>Controller</v>
       </c>
       <c r="G275" t="str">
         <v>Van Abeelen</v>
       </c>
       <c r="H275" t="str">
-        <v>bart@vanabeelen.eu</v>
+        <v>brigitte@vanabeelen.eu, wheijkoop@vanabeelen.eu</v>
       </c>
       <c r="I275" t="str">
         <v/>
@@ -9196,31 +9196,31 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B276" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C276" t="str">
-        <v>Invoices</v>
+        <v>Gijs</v>
       </c>
       <c r="D276" t="str">
-        <v/>
+        <v>van Abeelen</v>
       </c>
       <c r="E276" t="str">
-        <v>Invoices</v>
+        <v>Gijs van Abeelen</v>
       </c>
       <c r="F276" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern)</v>
       </c>
       <c r="G276" t="str">
         <v>Van Abeelen</v>
       </c>
       <c r="H276" t="str">
-        <v/>
+        <v>gijs@vanabeelen.eu</v>
       </c>
       <c r="I276" t="str">
-        <v>invoices@vanabeelen.eu</v>
+        <v/>
       </c>
       <c r="J276" t="str">
         <v/>
@@ -9234,22 +9234,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C277" t="str">
-        <v>Desiree</v>
+        <v>Patrick</v>
       </c>
       <c r="D277" t="str">
-        <v>van der Staak</v>
+        <v>van de Veerdonk</v>
       </c>
       <c r="E277" t="str">
-        <v>Desiree van der Staak</v>
+        <v>Patrick van de Veerdonk</v>
       </c>
       <c r="F277" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G277" t="str">
         <v>Van Abeelen</v>
       </c>
       <c r="H277" t="str">
-        <v>desiree@vanabeelen.eu</v>
+        <v>pvandeveerdonk@vanabeelen.eu</v>
       </c>
       <c r="I277" t="str">
         <v/>
@@ -9266,22 +9266,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C278" t="str">
-        <v>Rob</v>
+        <v>Bart</v>
       </c>
       <c r="D278" t="str">
-        <v>Robben</v>
+        <v>Brekelmans</v>
       </c>
       <c r="E278" t="str">
-        <v>Rob Robben</v>
+        <v>Bart Brekelmans</v>
       </c>
       <c r="F278" t="str">
         <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G278" t="str">
-        <v>Van Delft</v>
+        <v>Van Abeelen</v>
       </c>
       <c r="H278" t="str">
-        <v>robrobben@vandelftgroep.nl</v>
+        <v>bart@vanabeelen.eu</v>
       </c>
       <c r="I278" t="str">
         <v/>
@@ -9292,31 +9292,31 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
-        <v>Afgemeld</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B279" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C279" t="str">
-        <v>Miranda</v>
+        <v>Invoices</v>
       </c>
       <c r="D279" t="str">
-        <v>Boer</v>
+        <v/>
       </c>
       <c r="E279" t="str">
-        <v>Miranda Boer</v>
+        <v>Invoices</v>
       </c>
       <c r="F279" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G279" t="str">
-        <v>Van Delft</v>
+        <v>Van Abeelen</v>
       </c>
       <c r="H279" t="str">
-        <v>mirandaboer@vandelftgroep.nl</v>
+        <v/>
       </c>
       <c r="I279" t="str">
-        <v/>
+        <v>invoices@vanabeelen.eu</v>
       </c>
       <c r="J279" t="str">
         <v/>
@@ -9324,28 +9324,28 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B280" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C280" t="str">
-        <v>Rob</v>
+        <v>Desiree</v>
       </c>
       <c r="D280" t="str">
-        <v>de Kok</v>
+        <v>van der Staak</v>
       </c>
       <c r="E280" t="str">
-        <v>Rob de Kok</v>
+        <v>Desiree van der Staak</v>
       </c>
       <c r="F280" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G280" t="str">
-        <v>Van Gerwen Installaties</v>
+        <v>Van Abeelen</v>
       </c>
       <c r="H280" t="str">
-        <v>r.dekok@vangerweninstallaties.nl</v>
+        <v>desiree@vanabeelen.eu</v>
       </c>
       <c r="I280" t="str">
         <v/>
@@ -9362,22 +9362,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C281" t="str">
-        <v>Ferry</v>
+        <v>Rob</v>
       </c>
       <c r="D281" t="str">
-        <v>Bijdevier</v>
+        <v>Robben</v>
       </c>
       <c r="E281" t="str">
-        <v>Ferry Bijdevier</v>
+        <v>Rob Robben</v>
       </c>
       <c r="F281" t="str">
-        <v>Directie, Contactpersoon consultancy</v>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G281" t="str">
-        <v>Van Gerwen Installaties</v>
+        <v>Van Delft</v>
       </c>
       <c r="H281" t="str">
-        <v>f.bijdevier@vangerweninstallaties.nl</v>
+        <v>robrobben@vandelftgroep.nl</v>
       </c>
       <c r="I281" t="str">
         <v/>
@@ -9388,28 +9388,28 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B282" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C282" t="str">
-        <v>Bas</v>
+        <v>Miranda</v>
       </c>
       <c r="D282" t="str">
-        <v>van de Klundert</v>
+        <v>Boer</v>
       </c>
       <c r="E282" t="str">
-        <v>Bas van de Klundert</v>
+        <v>Miranda Boer</v>
       </c>
       <c r="F282" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G282" t="str">
-        <v>Van Gerwen Installaties</v>
+        <v>Van Delft</v>
       </c>
       <c r="H282" t="str">
-        <v>b.vandeklundert@vangerweninstallaties.nl</v>
+        <v>mirandaboer@vandelftgroep.nl</v>
       </c>
       <c r="I282" t="str">
         <v/>
@@ -9420,28 +9420,28 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B283" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C283" t="str">
-        <v>Bennie</v>
+        <v>Rob</v>
       </c>
       <c r="D283" t="str">
-        <v>Derix</v>
+        <v>de Kok</v>
       </c>
       <c r="E283" t="str">
-        <v>Bennie Derix</v>
+        <v>Rob de Kok</v>
       </c>
       <c r="F283" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G283" t="str">
         <v>Van Gerwen Installaties</v>
       </c>
       <c r="H283" t="str">
-        <v>b.derix@vangerweninstallaties.nl</v>
+        <v>r.dekok@vangerweninstallaties.nl</v>
       </c>
       <c r="I283" t="str">
         <v/>
@@ -9458,22 +9458,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C284" t="str">
-        <v>Cas</v>
+        <v>Ferry</v>
       </c>
       <c r="D284" t="str">
-        <v>Wolff</v>
+        <v>Bijdevier</v>
       </c>
       <c r="E284" t="str">
-        <v>Cas Wolff</v>
+        <v>Ferry Bijdevier</v>
       </c>
       <c r="F284" t="str">
-        <v/>
+        <v>Directie, Contactpersoon consultancy</v>
       </c>
       <c r="G284" t="str">
         <v>Van Gerwen Installaties</v>
       </c>
       <c r="H284" t="str">
-        <v>c.wolff@vangerweninstallaties.nl</v>
+        <v>f.bijdevier@vangerweninstallaties.nl</v>
       </c>
       <c r="I284" t="str">
         <v/>
@@ -9490,13 +9490,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C285" t="str">
-        <v>Maarten</v>
+        <v>Bas</v>
       </c>
       <c r="D285" t="str">
-        <v>Graat</v>
+        <v>van de Klundert</v>
       </c>
       <c r="E285" t="str">
-        <v>Maarten Graat</v>
+        <v>Bas van de Klundert</v>
       </c>
       <c r="F285" t="str">
         <v/>
@@ -9505,7 +9505,7 @@
         <v>Van Gerwen Installaties</v>
       </c>
       <c r="H285" t="str">
-        <v>m.graat@vangerweninstallaties.nl</v>
+        <v>b.vandeklundert@vangerweninstallaties.nl</v>
       </c>
       <c r="I285" t="str">
         <v/>
@@ -9522,13 +9522,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C286" t="str">
-        <v>Patrick</v>
+        <v>Bennie</v>
       </c>
       <c r="D286" t="str">
-        <v>Kleijn</v>
+        <v>Derix</v>
       </c>
       <c r="E286" t="str">
-        <v>Patrick Kleijn</v>
+        <v>Bennie Derix</v>
       </c>
       <c r="F286" t="str">
         <v/>
@@ -9537,7 +9537,7 @@
         <v>Van Gerwen Installaties</v>
       </c>
       <c r="H286" t="str">
-        <v>p.kleijn@vangerweninstallaties.nl</v>
+        <v>b.derix@vangerweninstallaties.nl</v>
       </c>
       <c r="I286" t="str">
         <v/>
@@ -9554,13 +9554,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C287" t="str">
-        <v>Paul</v>
+        <v>Cas</v>
       </c>
       <c r="D287" t="str">
-        <v>de Jong</v>
+        <v>Wolff</v>
       </c>
       <c r="E287" t="str">
-        <v>Paul de Jong</v>
+        <v>Cas Wolff</v>
       </c>
       <c r="F287" t="str">
         <v/>
@@ -9569,7 +9569,7 @@
         <v>Van Gerwen Installaties</v>
       </c>
       <c r="H287" t="str">
-        <v>p.dejong@vangerweninstallaties.nl</v>
+        <v>c.wolff@vangerweninstallaties.nl</v>
       </c>
       <c r="I287" t="str">
         <v/>
@@ -9580,28 +9580,28 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
-        <v>Gearchiveerde</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B288" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C288" t="str">
-        <v>Nick</v>
+        <v>Maarten</v>
       </c>
       <c r="D288" t="str">
-        <v>van de Sande</v>
+        <v>Graat</v>
       </c>
       <c r="E288" t="str">
-        <v>Nick van de Sande</v>
+        <v>Maarten Graat</v>
       </c>
       <c r="F288" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G288" t="str">
-        <v>VandenbuijsInstall</v>
+        <v>Van Gerwen Installaties</v>
       </c>
       <c r="H288" t="str">
-        <v>nick@vandenbuijs.nl, nick@vandenbuijs.onmicrosoft.com</v>
+        <v>m.graat@vangerweninstallaties.nl</v>
       </c>
       <c r="I288" t="str">
         <v/>
@@ -9612,28 +9612,28 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
-        <v>Gearchiveerde</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B289" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C289" t="str">
-        <v>Eline</v>
+        <v>Patrick</v>
       </c>
       <c r="D289" t="str">
-        <v>van den Buijs</v>
+        <v>Kleijn</v>
       </c>
       <c r="E289" t="str">
-        <v>Eline van den Buijs</v>
+        <v>Patrick Kleijn</v>
       </c>
       <c r="F289" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G289" t="str">
-        <v>VandenbuijsInstall</v>
+        <v>Van Gerwen Installaties</v>
       </c>
       <c r="H289" t="str">
-        <v>eline@vandenbuijs.nl, eline@vandenbuijs.onmicrosoft.com</v>
+        <v>p.kleijn@vangerweninstallaties.nl</v>
       </c>
       <c r="I289" t="str">
         <v/>
@@ -9650,22 +9650,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C290" t="str">
-        <v>Erwin</v>
+        <v>Paul</v>
       </c>
       <c r="D290" t="str">
-        <v>de Meijer</v>
+        <v>de Jong</v>
       </c>
       <c r="E290" t="str">
-        <v>Erwin de Meijer</v>
+        <v>Paul de Jong</v>
       </c>
       <c r="F290" t="str">
         <v/>
       </c>
       <c r="G290" t="str">
-        <v>VandenbuijsInstall</v>
+        <v>Van Gerwen Installaties</v>
       </c>
       <c r="H290" t="str">
-        <v>erwin@vandenbuijs.onmicrosoft.com</v>
+        <v>p.dejong@vangerweninstallaties.nl</v>
       </c>
       <c r="I290" t="str">
         <v/>
@@ -9676,28 +9676,28 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
-        <v>Geabonneerd</v>
+        <v>Gearchiveerde</v>
       </c>
       <c r="B291" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C291" t="str">
-        <v>Francis</v>
+        <v>Nick</v>
       </c>
       <c r="D291" t="str">
-        <v>van Sundert</v>
+        <v>van de Sande</v>
       </c>
       <c r="E291" t="str">
-        <v>Francis van Sundert</v>
+        <v>Nick van de Sande</v>
       </c>
       <c r="F291" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G291" t="str">
         <v>VandenbuijsInstall</v>
       </c>
       <c r="H291" t="str">
-        <v>francis@vandenbuijs.onmicrosoft.com</v>
+        <v>nick@vandenbuijs.nl, nick@vandenbuijs.onmicrosoft.com</v>
       </c>
       <c r="I291" t="str">
         <v/>
@@ -9708,28 +9708,28 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
-        <v>Geabonneerd</v>
+        <v>Gearchiveerde</v>
       </c>
       <c r="B292" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C292" t="str">
-        <v>Frank</v>
+        <v>Eline</v>
       </c>
       <c r="D292" t="str">
-        <v>van Sundert</v>
+        <v>van den Buijs</v>
       </c>
       <c r="E292" t="str">
-        <v>Frank van Sundert</v>
+        <v>Eline van den Buijs</v>
       </c>
       <c r="F292" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G292" t="str">
         <v>VandenbuijsInstall</v>
       </c>
       <c r="H292" t="str">
-        <v>frank@vandenbuijs.onmicrosoft.com</v>
+        <v>eline@vandenbuijs.nl, eline@vandenbuijs.onmicrosoft.com</v>
       </c>
       <c r="I292" t="str">
         <v/>
@@ -9746,13 +9746,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C293" t="str">
-        <v>Kees</v>
+        <v>Erwin</v>
       </c>
       <c r="D293" t="str">
-        <v>van den Buijs</v>
+        <v>de Meijer</v>
       </c>
       <c r="E293" t="str">
-        <v>Kees van den Buijs</v>
+        <v>Erwin de Meijer</v>
       </c>
       <c r="F293" t="str">
         <v/>
@@ -9761,7 +9761,7 @@
         <v>VandenbuijsInstall</v>
       </c>
       <c r="H293" t="str">
-        <v>kees@vandenbuijs.onmicrosoft.com</v>
+        <v>erwin@vandenbuijs.onmicrosoft.com</v>
       </c>
       <c r="I293" t="str">
         <v/>
@@ -9778,13 +9778,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C294" t="str">
-        <v>Thijs</v>
+        <v>Francis</v>
       </c>
       <c r="D294" t="str">
-        <v>van den Buijs</v>
+        <v>van Sundert</v>
       </c>
       <c r="E294" t="str">
-        <v>Thijs van den Buijs</v>
+        <v>Francis van Sundert</v>
       </c>
       <c r="F294" t="str">
         <v/>
@@ -9793,7 +9793,7 @@
         <v>VandenbuijsInstall</v>
       </c>
       <c r="H294" t="str">
-        <v>thijs@vandenbuijs.onmicrosoft.com</v>
+        <v>francis@vandenbuijs.onmicrosoft.com</v>
       </c>
       <c r="I294" t="str">
         <v/>
@@ -9810,22 +9810,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C295" t="str">
-        <v>Maartan</v>
+        <v>Frank</v>
       </c>
       <c r="D295" t="str">
-        <v>Schoots</v>
+        <v>van Sundert</v>
       </c>
       <c r="E295" t="str">
-        <v>Maartan Schoots</v>
+        <v>Frank van Sundert</v>
       </c>
       <c r="F295" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G295" t="str">
-        <v>Veld Koeltechniek (voorm. Retail Technics)</v>
+        <v>VandenbuijsInstall</v>
       </c>
       <c r="H295" t="str">
-        <v>maartan.schoots@retailtechnics.com</v>
+        <v>frank@vandenbuijs.onmicrosoft.com</v>
       </c>
       <c r="I295" t="str">
         <v/>
@@ -9842,22 +9842,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C296" t="str">
-        <v>Hein</v>
+        <v>Kees</v>
       </c>
       <c r="D296" t="str">
-        <v>Hogenhout</v>
+        <v>van den Buijs</v>
       </c>
       <c r="E296" t="str">
-        <v>Hein Hogenhout</v>
+        <v>Kees van den Buijs</v>
       </c>
       <c r="F296" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G296" t="str">
-        <v>Veld Koeltechniek (voorm. Retail Technics)</v>
+        <v>VandenbuijsInstall</v>
       </c>
       <c r="H296" t="str">
-        <v>hein.hogenhout@retailtechnics.com</v>
+        <v>kees@vandenbuijs.onmicrosoft.com</v>
       </c>
       <c r="I296" t="str">
         <v/>
@@ -9868,31 +9868,31 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B297" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C297" t="str">
-        <v>Crediteuren</v>
+        <v>Thijs</v>
       </c>
       <c r="D297" t="str">
-        <v/>
+        <v>van den Buijs</v>
       </c>
       <c r="E297" t="str">
-        <v>Crediteuren</v>
+        <v>Thijs van den Buijs</v>
       </c>
       <c r="F297" t="str">
         <v/>
       </c>
       <c r="G297" t="str">
-        <v>Veld Koeltechniek (voorm. Retail Technics)</v>
+        <v>VandenbuijsInstall</v>
       </c>
       <c r="H297" t="str">
-        <v/>
+        <v>thijs@vandenbuijs.onmicrosoft.com</v>
       </c>
       <c r="I297" t="str">
-        <v>crediteuren@retailtechnics.com</v>
+        <v/>
       </c>
       <c r="J297" t="str">
         <v/>
@@ -9906,22 +9906,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C298" t="str">
-        <v>Vincent</v>
+        <v>Maartan</v>
       </c>
       <c r="D298" t="str">
-        <v>Kouer</v>
+        <v>Schoots</v>
       </c>
       <c r="E298" t="str">
-        <v>Vincent Kouer</v>
+        <v>Maartan Schoots</v>
       </c>
       <c r="F298" t="str">
-        <v>Controller</v>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G298" t="str">
-        <v>Verkade Klimaat BV</v>
+        <v>Veld Koeltechniek (voorm. Retail Technics)</v>
       </c>
       <c r="H298" t="str">
-        <v>vk@verkadeklimaat.nl</v>
+        <v>maartan.schoots@retailtechnics.com</v>
       </c>
       <c r="I298" t="str">
         <v/>
@@ -9938,22 +9938,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C299" t="str">
-        <v>Thomas</v>
+        <v>Hein</v>
       </c>
       <c r="D299" t="str">
-        <v>Collignon</v>
+        <v>Hogenhout</v>
       </c>
       <c r="E299" t="str">
-        <v>Thomas Collignon</v>
+        <v>Hein Hogenhout</v>
       </c>
       <c r="F299" t="str">
-        <v>Directie</v>
+        <v>Controller</v>
       </c>
       <c r="G299" t="str">
-        <v>Verkade Klimaat BV</v>
+        <v>Veld Koeltechniek (voorm. Retail Technics)</v>
       </c>
       <c r="H299" t="str">
-        <v>tc@verkadeklimaat.nl</v>
+        <v>hein.hogenhout@retailtechnics.com</v>
       </c>
       <c r="I299" t="str">
         <v/>
@@ -9964,31 +9964,31 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B300" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C300" t="str">
-        <v>Joost</v>
+        <v>Crediteuren</v>
       </c>
       <c r="D300" t="str">
-        <v>de Waard</v>
+        <v/>
       </c>
       <c r="E300" t="str">
-        <v>Joost de Waard</v>
+        <v>Crediteuren</v>
       </c>
       <c r="F300" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G300" t="str">
-        <v>Verkade Klimaat BV</v>
+        <v>Veld Koeltechniek (voorm. Retail Technics)</v>
       </c>
       <c r="H300" t="str">
-        <v>jdw@verkadeklimaat.nl</v>
+        <v/>
       </c>
       <c r="I300" t="str">
-        <v/>
+        <v>crediteuren@retailtechnics.com</v>
       </c>
       <c r="J300" t="str">
         <v/>
@@ -9996,31 +9996,31 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B301" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C301" t="str">
-        <v>Crediteuren</v>
+        <v>Vincent</v>
       </c>
       <c r="D301" t="str">
-        <v/>
+        <v>Kouer</v>
       </c>
       <c r="E301" t="str">
-        <v>Crediteuren</v>
+        <v>Vincent Kouer</v>
       </c>
       <c r="F301" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G301" t="str">
         <v>Verkade Klimaat BV</v>
       </c>
       <c r="H301" t="str">
-        <v/>
+        <v>vk@verkadeklimaat.nl</v>
       </c>
       <c r="I301" t="str">
-        <v>crediteuren@verkadeklimaat.nl</v>
+        <v/>
       </c>
       <c r="J301" t="str">
         <v/>
@@ -10034,22 +10034,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C302" t="str">
-        <v>Edwin</v>
+        <v>Thomas</v>
       </c>
       <c r="D302" t="str">
-        <v>Prins</v>
+        <v>Collignon</v>
       </c>
       <c r="E302" t="str">
-        <v>Edwin Prins</v>
+        <v>Thomas Collignon</v>
       </c>
       <c r="F302" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G302" t="str">
         <v>Verkade Klimaat BV</v>
       </c>
       <c r="H302" t="str">
-        <v>ep@verkadeklimaat.nl</v>
+        <v>tc@verkadeklimaat.nl</v>
       </c>
       <c r="I302" t="str">
         <v/>
@@ -10066,22 +10066,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C303" t="str">
-        <v>Caroline</v>
+        <v>Joost</v>
       </c>
       <c r="D303" t="str">
-        <v>van Helmond</v>
+        <v>de Waard</v>
       </c>
       <c r="E303" t="str">
-        <v>Caroline van Helmond</v>
+        <v>Joost de Waard</v>
       </c>
       <c r="F303" t="str">
-        <v>Directie, Controller, Contactpersoon consultancy</v>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G303" t="str">
-        <v>VHI Koudetechniek</v>
+        <v>Verkade Klimaat BV</v>
       </c>
       <c r="H303" t="str">
-        <v>caroline@vhi-koudetechniek.nl</v>
+        <v>jdw@verkadeklimaat.nl</v>
       </c>
       <c r="I303" t="str">
         <v/>
@@ -10092,31 +10092,31 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B304" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C304" t="str">
-        <v>Bart</v>
+        <v>Crediteuren</v>
       </c>
       <c r="D304" t="str">
-        <v>van Helmond</v>
+        <v/>
       </c>
       <c r="E304" t="str">
-        <v>Bart van Helmond</v>
+        <v>Crediteuren</v>
       </c>
       <c r="F304" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G304" t="str">
-        <v>VHI Koudetechniek</v>
+        <v>Verkade Klimaat BV</v>
       </c>
       <c r="H304" t="str">
-        <v>bart@vhi-koudetechniek.nl</v>
+        <v/>
       </c>
       <c r="I304" t="str">
-        <v/>
+        <v>crediteuren@verkadeklimaat.nl</v>
       </c>
       <c r="J304" t="str">
         <v/>
@@ -10130,22 +10130,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C305" t="str">
-        <v>Maurice</v>
+        <v>Edwin</v>
       </c>
       <c r="D305" t="str">
-        <v>Hesen</v>
+        <v>Prins</v>
       </c>
       <c r="E305" t="str">
-        <v>Maurice Hesen</v>
+        <v>Edwin Prins</v>
       </c>
       <c r="F305" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G305" t="str">
-        <v>VHI Koudetechniek</v>
+        <v>Verkade Klimaat BV</v>
       </c>
       <c r="H305" t="str">
-        <v>maurice@vhi-koudetechniek.nl</v>
+        <v>ep@verkadeklimaat.nl</v>
       </c>
       <c r="I305" t="str">
         <v/>
@@ -10162,22 +10162,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C306" t="str">
-        <v>Peter</v>
+        <v>Caroline</v>
       </c>
       <c r="D306" t="str">
-        <v>Pouwels</v>
+        <v>van Helmond</v>
       </c>
       <c r="E306" t="str">
-        <v>Peter Pouwels</v>
+        <v>Caroline van Helmond</v>
       </c>
       <c r="F306" t="str">
-        <v>Controller</v>
+        <v>Directie, Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G306" t="str">
         <v>VHI Koudetechniek</v>
       </c>
       <c r="H306" t="str">
-        <v>peter@vhi-koudetechniek.nl</v>
+        <v>caroline@vhi-koudetechniek.nl</v>
       </c>
       <c r="I306" t="str">
         <v/>
@@ -10188,31 +10188,31 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B307" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C307" t="str">
-        <v>Crediteuren</v>
+        <v>Bart</v>
       </c>
       <c r="D307" t="str">
-        <v/>
+        <v>van Helmond</v>
       </c>
       <c r="E307" t="str">
-        <v>Crediteuren</v>
+        <v>Bart van Helmond</v>
       </c>
       <c r="F307" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G307" t="str">
         <v>VHI Koudetechniek</v>
       </c>
       <c r="H307" t="str">
-        <v/>
+        <v>bart@vhi-koudetechniek.nl</v>
       </c>
       <c r="I307" t="str">
-        <v>crediteuren@vhi-koudetechniek.nl</v>
+        <v/>
       </c>
       <c r="J307" t="str">
         <v/>
@@ -10229,19 +10229,19 @@
         <v>Maurice</v>
       </c>
       <c r="D308" t="str">
-        <v>Haan</v>
+        <v>Hesen</v>
       </c>
       <c r="E308" t="str">
-        <v>Maurice Haan</v>
+        <v>Maurice Hesen</v>
       </c>
       <c r="F308" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G308" t="str">
         <v>VHI Koudetechniek</v>
       </c>
       <c r="H308" t="str">
-        <v>maurice.haan@vhi-koudetechniek.nl</v>
+        <v>maurice@vhi-koudetechniek.nl</v>
       </c>
       <c r="I308" t="str">
         <v/>
@@ -10258,22 +10258,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C309" t="str">
-        <v>Sven</v>
+        <v>Peter</v>
       </c>
       <c r="D309" t="str">
-        <v>van de Velde</v>
+        <v>Pouwels</v>
       </c>
       <c r="E309" t="str">
-        <v>Sven van de Velde</v>
+        <v>Peter Pouwels</v>
       </c>
       <c r="F309" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G309" t="str">
         <v>VHI Koudetechniek</v>
       </c>
       <c r="H309" t="str">
-        <v>sven@vhi-koudetechniek.nl</v>
+        <v>peter@vhi-koudetechniek.nl</v>
       </c>
       <c r="I309" t="str">
         <v/>
@@ -10284,19 +10284,19 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B310" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C310" t="str">
-        <v>Stanislav</v>
+        <v>Crediteuren</v>
       </c>
       <c r="D310" t="str">
-        <v>Japalau</v>
+        <v/>
       </c>
       <c r="E310" t="str">
-        <v>Stanislav Japalau</v>
+        <v>Crediteuren</v>
       </c>
       <c r="F310" t="str">
         <v/>
@@ -10305,10 +10305,10 @@
         <v>VHI Koudetechniek</v>
       </c>
       <c r="H310" t="str">
-        <v>stanislav@vhi-koudetechniek.nl</v>
+        <v/>
       </c>
       <c r="I310" t="str">
-        <v/>
+        <v>crediteuren@vhi-koudetechniek.nl</v>
       </c>
       <c r="J310" t="str">
         <v/>
@@ -10322,22 +10322,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C311" t="str">
-        <v>Simon</v>
+        <v>Maurice</v>
       </c>
       <c r="D311" t="str">
-        <v>Brandt</v>
+        <v>Haan</v>
       </c>
       <c r="E311" t="str">
-        <v>Simon Brandt</v>
+        <v>Maurice Haan</v>
       </c>
       <c r="F311" t="str">
-        <v>Controller</v>
+        <v/>
       </c>
       <c r="G311" t="str">
-        <v>Vink Installatiegroep</v>
+        <v>VHI Koudetechniek</v>
       </c>
       <c r="H311" t="str">
-        <v>simon.brandt@vinkinstallatiegroep.nl</v>
+        <v>maurice.haan@vhi-koudetechniek.nl</v>
       </c>
       <c r="I311" t="str">
         <v/>
@@ -10354,22 +10354,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C312" t="str">
-        <v>Jochem</v>
+        <v>Sven</v>
       </c>
       <c r="D312" t="str">
-        <v>Van Ruiten</v>
+        <v>van de Velde</v>
       </c>
       <c r="E312" t="str">
-        <v>Jochem Van Ruiten</v>
+        <v>Sven van de Velde</v>
       </c>
       <c r="F312" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G312" t="str">
-        <v>Vink Installatiegroep</v>
+        <v>VHI Koudetechniek</v>
       </c>
       <c r="H312" t="str">
-        <v>jochem.vanruiten@vinkinstallatiegroep.nl</v>
+        <v>sven@vhi-koudetechniek.nl</v>
       </c>
       <c r="I312" t="str">
         <v/>
@@ -10380,31 +10380,31 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B313" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C313" t="str">
-        <v>Inkoopfacturen</v>
+        <v>Stanislav</v>
       </c>
       <c r="D313" t="str">
-        <v/>
+        <v>Japalau</v>
       </c>
       <c r="E313" t="str">
-        <v>Inkoopfacturen</v>
+        <v>Stanislav Japalau</v>
       </c>
       <c r="F313" t="str">
         <v/>
       </c>
       <c r="G313" t="str">
-        <v>Vink Installatiegroep</v>
+        <v>VHI Koudetechniek</v>
       </c>
       <c r="H313" t="str">
-        <v/>
+        <v>stanislav@vhi-koudetechniek.nl</v>
       </c>
       <c r="I313" t="str">
-        <v>inkoopfacturen@vinkinstallatiegroep.nl</v>
+        <v/>
       </c>
       <c r="J313" t="str">
         <v/>
@@ -10418,13 +10418,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C314" t="str">
-        <v>Sander</v>
+        <v>Simon</v>
       </c>
       <c r="D314" t="str">
-        <v>van Klink</v>
+        <v>Brandt</v>
       </c>
       <c r="E314" t="str">
-        <v>Sander van Klink</v>
+        <v>Simon Brandt</v>
       </c>
       <c r="F314" t="str">
         <v>Controller</v>
@@ -10433,7 +10433,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H314" t="str">
-        <v>sander.van.klink@vinkinstallatiegroep.nl</v>
+        <v>simon.brandt@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I314" t="str">
         <v/>
@@ -10450,22 +10450,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C315" t="str">
-        <v>Marloes</v>
+        <v>Jochem</v>
       </c>
       <c r="D315" t="str">
-        <v>van het Hof</v>
+        <v>Van Ruiten</v>
       </c>
       <c r="E315" t="str">
-        <v>Marloes van het Hof</v>
+        <v>Jochem Van Ruiten</v>
       </c>
       <c r="F315" t="str">
-        <v>Controller</v>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G315" t="str">
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H315" t="str">
-        <v>marloes.van.hoff@vinkinstallatiegroep.nl</v>
+        <v>jochem.vanruiten@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I315" t="str">
         <v/>
@@ -10482,13 +10482,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C316" t="str">
-        <v>Jan</v>
+        <v>Inkoopfacturen</v>
       </c>
       <c r="D316" t="str">
-        <v>Vink</v>
+        <v/>
       </c>
       <c r="E316" t="str">
-        <v>Jan Vink</v>
+        <v>Inkoopfacturen</v>
       </c>
       <c r="F316" t="str">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="I316" t="str">
-        <v/>
+        <v>inkoopfacturen@vinkinstallatiegroep.nl</v>
       </c>
       <c r="J316" t="str">
         <v/>
@@ -10514,22 +10514,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C317" t="str">
-        <v>Corne</v>
+        <v>Sander</v>
       </c>
       <c r="D317" t="str">
-        <v>van der Kwaak</v>
+        <v>van Klink</v>
       </c>
       <c r="E317" t="str">
-        <v>Corne van der Kwaak</v>
+        <v>Sander van Klink</v>
       </c>
       <c r="F317" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G317" t="str">
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H317" t="str">
-        <v>corne.vanderkwaak@vinkinstallatiegroep.nl</v>
+        <v>sander.van.klink@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I317" t="str">
         <v/>
@@ -10546,22 +10546,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C318" t="str">
-        <v>Dante</v>
+        <v>Marloes</v>
       </c>
       <c r="D318" t="str">
-        <v>Schrama</v>
+        <v>van het Hof</v>
       </c>
       <c r="E318" t="str">
-        <v>Dante Schrama</v>
+        <v>Marloes van het Hof</v>
       </c>
       <c r="F318" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G318" t="str">
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H318" t="str">
-        <v>dante.schrama@vinkinstallatiegroep.nl</v>
+        <v>marloes.van.hoff@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I318" t="str">
         <v/>
@@ -10572,19 +10572,19 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B319" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C319" t="str">
-        <v>Ed</v>
+        <v>Jan</v>
       </c>
       <c r="D319" t="str">
-        <v>Buren</v>
+        <v>Vink</v>
       </c>
       <c r="E319" t="str">
-        <v>Ed Buren</v>
+        <v>Jan Vink</v>
       </c>
       <c r="F319" t="str">
         <v/>
@@ -10593,7 +10593,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H319" t="str">
-        <v>ed.buren@vinkinstallatiegroep.nl</v>
+        <v/>
       </c>
       <c r="I319" t="str">
         <v/>
@@ -10610,13 +10610,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C320" t="str">
-        <v>Gerard</v>
+        <v>Corne</v>
       </c>
       <c r="D320" t="str">
-        <v>van den Oever</v>
+        <v>van der Kwaak</v>
       </c>
       <c r="E320" t="str">
-        <v>Gerard van den Oever</v>
+        <v>Corne van der Kwaak</v>
       </c>
       <c r="F320" t="str">
         <v/>
@@ -10625,7 +10625,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H320" t="str">
-        <v>gerard.vandenoever@vinkinstallatiegroep.nl</v>
+        <v>corne.vanderkwaak@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I320" t="str">
         <v/>
@@ -10642,13 +10642,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C321" t="str">
-        <v>Harmen</v>
+        <v>Dante</v>
       </c>
       <c r="D321" t="str">
-        <v>Verweij</v>
+        <v>Schrama</v>
       </c>
       <c r="E321" t="str">
-        <v>Harmen Verweij</v>
+        <v>Dante Schrama</v>
       </c>
       <c r="F321" t="str">
         <v/>
@@ -10657,7 +10657,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H321" t="str">
-        <v>harmen.verweij@vinkinstallatiegroep.nl</v>
+        <v>dante.schrama@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I321" t="str">
         <v/>
@@ -10674,13 +10674,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C322" t="str">
-        <v>Jer</v>
+        <v>Ed</v>
       </c>
       <c r="D322" t="str">
-        <v>de Wolf</v>
+        <v>Buren</v>
       </c>
       <c r="E322" t="str">
-        <v>Jer de Wolf</v>
+        <v>Ed Buren</v>
       </c>
       <c r="F322" t="str">
         <v/>
@@ -10689,7 +10689,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H322" t="str">
-        <v>jer.dewolf@vinkinstallatiegroep.nl</v>
+        <v>ed.buren@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I322" t="str">
         <v/>
@@ -10706,13 +10706,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C323" t="str">
-        <v>Marloes</v>
+        <v>Gerard</v>
       </c>
       <c r="D323" t="str">
-        <v>van Hoff</v>
+        <v>van den Oever</v>
       </c>
       <c r="E323" t="str">
-        <v>Marloes van Hoff</v>
+        <v>Gerard van den Oever</v>
       </c>
       <c r="F323" t="str">
         <v/>
@@ -10721,7 +10721,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H323" t="str">
-        <v>marloes.vanhoff@vinkinstallatiegroep.nl</v>
+        <v>gerard.vandenoever@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I323" t="str">
         <v/>
@@ -10738,13 +10738,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C324" t="str">
-        <v>Max</v>
+        <v>Harmen</v>
       </c>
       <c r="D324" t="str">
-        <v>Vesseur</v>
+        <v>Verweij</v>
       </c>
       <c r="E324" t="str">
-        <v>Max Vesseur</v>
+        <v>Harmen Verweij</v>
       </c>
       <c r="F324" t="str">
         <v/>
@@ -10753,7 +10753,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H324" t="str">
-        <v>max.vesseur@vinkinstallatiegroep.nl</v>
+        <v>harmen.verweij@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I324" t="str">
         <v/>
@@ -10770,13 +10770,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C325" t="str">
-        <v>Nico</v>
+        <v>Jer</v>
       </c>
       <c r="D325" t="str">
-        <v>Guijt</v>
+        <v>de Wolf</v>
       </c>
       <c r="E325" t="str">
-        <v>Nico Guijt</v>
+        <v>Jer de Wolf</v>
       </c>
       <c r="F325" t="str">
         <v/>
@@ -10785,7 +10785,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H325" t="str">
-        <v>nico.guijt@vinkinstallatiegroep.nl</v>
+        <v>jer.dewolf@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I325" t="str">
         <v/>
@@ -10802,13 +10802,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C326" t="str">
-        <v>Niels</v>
+        <v>Marloes</v>
       </c>
       <c r="D326" t="str">
-        <v>Smit</v>
+        <v>van Hoff</v>
       </c>
       <c r="E326" t="str">
-        <v>Niels Smit</v>
+        <v>Marloes van Hoff</v>
       </c>
       <c r="F326" t="str">
         <v/>
@@ -10817,7 +10817,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H326" t="str">
-        <v>niels.smit@vinkinstallatiegroep.nl</v>
+        <v>marloes.vanhoff@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I326" t="str">
         <v/>
@@ -10834,13 +10834,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C327" t="str">
-        <v>Peter</v>
+        <v>Max</v>
       </c>
       <c r="D327" t="str">
-        <v>de Geus</v>
+        <v>Vesseur</v>
       </c>
       <c r="E327" t="str">
-        <v>Peter de Geus</v>
+        <v>Max Vesseur</v>
       </c>
       <c r="F327" t="str">
         <v/>
@@ -10849,7 +10849,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H327" t="str">
-        <v>peter.degeus@vinkinstallatiegroep.nl</v>
+        <v>max.vesseur@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I327" t="str">
         <v/>
@@ -10866,13 +10866,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C328" t="str">
-        <v>Randy</v>
+        <v>Nico</v>
       </c>
       <c r="D328" t="str">
-        <v>Turk</v>
+        <v>Guijt</v>
       </c>
       <c r="E328" t="str">
-        <v>Randy Turk</v>
+        <v>Nico Guijt</v>
       </c>
       <c r="F328" t="str">
         <v/>
@@ -10881,7 +10881,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H328" t="str">
-        <v>randy.turk@vinkinstallatiegroep.nl</v>
+        <v>nico.guijt@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I328" t="str">
         <v/>
@@ -10898,13 +10898,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C329" t="str">
-        <v>Remko</v>
+        <v>Niels</v>
       </c>
       <c r="D329" t="str">
-        <v>van Meurs</v>
+        <v>Smit</v>
       </c>
       <c r="E329" t="str">
-        <v>Remko van Meurs</v>
+        <v>Niels Smit</v>
       </c>
       <c r="F329" t="str">
         <v/>
@@ -10913,7 +10913,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H329" t="str">
-        <v>remko.vanmeurs@vinkinstallatiegroep.nl</v>
+        <v>niels.smit@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I329" t="str">
         <v/>
@@ -10930,13 +10930,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C330" t="str">
-        <v>Ricardo</v>
+        <v>Peter</v>
       </c>
       <c r="D330" t="str">
-        <v>Pret</v>
+        <v>de Geus</v>
       </c>
       <c r="E330" t="str">
-        <v>Ricardo Pret</v>
+        <v>Peter de Geus</v>
       </c>
       <c r="F330" t="str">
         <v/>
@@ -10945,7 +10945,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H330" t="str">
-        <v>ricardo.pret@vinkinstallatiegroep.nl</v>
+        <v>peter.degeus@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I330" t="str">
         <v/>
@@ -10962,13 +10962,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C331" t="str">
-        <v>Robin</v>
+        <v>Randy</v>
       </c>
       <c r="D331" t="str">
-        <v>Bakker</v>
+        <v>Turk</v>
       </c>
       <c r="E331" t="str">
-        <v>Robin Bakker</v>
+        <v>Randy Turk</v>
       </c>
       <c r="F331" t="str">
         <v/>
@@ -10977,7 +10977,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H331" t="str">
-        <v>robin.bakker@vinkinstallatiegroep.nl</v>
+        <v>randy.turk@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I331" t="str">
         <v/>
@@ -10994,13 +10994,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C332" t="str">
-        <v>Sander</v>
+        <v>Remko</v>
       </c>
       <c r="D332" t="str">
-        <v>Nales</v>
+        <v>van Meurs</v>
       </c>
       <c r="E332" t="str">
-        <v>Sander Nales</v>
+        <v>Remko van Meurs</v>
       </c>
       <c r="F332" t="str">
         <v/>
@@ -11009,7 +11009,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H332" t="str">
-        <v>sander.nales@vinkinstallatiegroep.nl</v>
+        <v>remko.vanmeurs@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I332" t="str">
         <v/>
@@ -11026,13 +11026,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C333" t="str">
-        <v>Sander</v>
+        <v>Ricardo</v>
       </c>
       <c r="D333" t="str">
-        <v>van Klink</v>
+        <v>Pret</v>
       </c>
       <c r="E333" t="str">
-        <v>Sander van Klink</v>
+        <v>Ricardo Pret</v>
       </c>
       <c r="F333" t="str">
         <v/>
@@ -11041,7 +11041,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H333" t="str">
-        <v>sander.vanklink@vinkinstallatiegroep.nl</v>
+        <v>ricardo.pret@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I333" t="str">
         <v/>
@@ -11058,13 +11058,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C334" t="str">
-        <v>Teddo</v>
+        <v>Robin</v>
       </c>
       <c r="D334" t="str">
         <v>Bakker</v>
       </c>
       <c r="E334" t="str">
-        <v>Teddo Bakker</v>
+        <v>Robin Bakker</v>
       </c>
       <c r="F334" t="str">
         <v/>
@@ -11073,7 +11073,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H334" t="str">
-        <v>teddo.bakker@vinkinstallatiegroep.nl</v>
+        <v>robin.bakker@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I334" t="str">
         <v/>
@@ -11090,13 +11090,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C335" t="str">
-        <v>Tom</v>
+        <v>Sander</v>
       </c>
       <c r="D335" t="str">
-        <v>Hammer</v>
+        <v>Nales</v>
       </c>
       <c r="E335" t="str">
-        <v>Tom Hammer</v>
+        <v>Sander Nales</v>
       </c>
       <c r="F335" t="str">
         <v/>
@@ -11105,7 +11105,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H335" t="str">
-        <v>tom.hammer@vinkinstallatiegroep.nl</v>
+        <v>sander.nales@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I335" t="str">
         <v/>
@@ -11122,13 +11122,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C336" t="str">
-        <v>Twan</v>
+        <v>Sander</v>
       </c>
       <c r="D336" t="str">
-        <v>de Graaf</v>
+        <v>van Klink</v>
       </c>
       <c r="E336" t="str">
-        <v>Twan de Graaf</v>
+        <v>Sander van Klink</v>
       </c>
       <c r="F336" t="str">
         <v/>
@@ -11137,7 +11137,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H336" t="str">
-        <v>twan.degraaf@vinkinstallatiegroep.nl</v>
+        <v>sander.vanklink@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I336" t="str">
         <v/>
@@ -11148,19 +11148,19 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B337" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C337" t="str">
-        <v>Inkoopfacturen</v>
+        <v>Teddo</v>
       </c>
       <c r="D337" t="str">
-        <v/>
+        <v>Bakker</v>
       </c>
       <c r="E337" t="str">
-        <v>Inkoopfacturen</v>
+        <v>Teddo Bakker</v>
       </c>
       <c r="F337" t="str">
         <v/>
@@ -11169,7 +11169,7 @@
         <v>Vink Installatiegroep</v>
       </c>
       <c r="H337" t="str">
-        <v/>
+        <v>teddo.bakker@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I337" t="str">
         <v/>
@@ -11180,31 +11180,31 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B338" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C338" t="str">
-        <v>Facturen</v>
+        <v>Tom</v>
       </c>
       <c r="D338" t="str">
-        <v/>
+        <v>Hammer</v>
       </c>
       <c r="E338" t="str">
-        <v>Facturen</v>
+        <v>Tom Hammer</v>
       </c>
       <c r="F338" t="str">
         <v/>
       </c>
       <c r="G338" t="str">
-        <v>Wassink</v>
+        <v>Vink Installatiegroep</v>
       </c>
       <c r="H338" t="str">
-        <v/>
+        <v>tom.hammer@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I338" t="str">
-        <v>facturen@wassink.nl</v>
+        <v/>
       </c>
       <c r="J338" t="str">
         <v/>
@@ -11212,28 +11212,28 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B339" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C339" t="str">
-        <v>H.G.M.</v>
+        <v>Twan</v>
       </c>
       <c r="D339" t="str">
-        <v>Straver</v>
+        <v>de Graaf</v>
       </c>
       <c r="E339" t="str">
-        <v>H.G.M. Straver</v>
+        <v>Twan de Graaf</v>
       </c>
       <c r="F339" t="str">
         <v/>
       </c>
       <c r="G339" t="str">
-        <v>Wetec B.V.</v>
+        <v>Vink Installatiegroep</v>
       </c>
       <c r="H339" t="str">
-        <v>r.straver@wetec-europe.com</v>
+        <v>twan.degraaf@vinkinstallatiegroep.nl</v>
       </c>
       <c r="I339" t="str">
         <v/>
@@ -11244,28 +11244,28 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B340" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C340" t="str">
-        <v>Kees</v>
+        <v>Inkoopfacturen</v>
       </c>
       <c r="D340" t="str">
-        <v>Kroese</v>
+        <v/>
       </c>
       <c r="E340" t="str">
-        <v>Kees Kroese</v>
+        <v>Inkoopfacturen</v>
       </c>
       <c r="F340" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G340" t="str">
-        <v>Wetec B.V.</v>
+        <v>Vink Installatiegroep</v>
       </c>
       <c r="H340" t="str">
-        <v>kees@wetec-europe.com</v>
+        <v/>
       </c>
       <c r="I340" t="str">
         <v/>
@@ -11276,31 +11276,31 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B341" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C341" t="str">
-        <v>Johan</v>
+        <v>Facturen</v>
       </c>
       <c r="D341" t="str">
-        <v>van Erkelens</v>
+        <v/>
       </c>
       <c r="E341" t="str">
-        <v>Johan van Erkelens</v>
+        <v>Facturen</v>
       </c>
       <c r="F341" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G341" t="str">
-        <v>Wetec B.V.</v>
+        <v>Wassink</v>
       </c>
       <c r="H341" t="str">
-        <v>j.vanerkelens@wetec-europe.com</v>
+        <v/>
       </c>
       <c r="I341" t="str">
-        <v/>
+        <v>facturen@wassink.nl</v>
       </c>
       <c r="J341" t="str">
         <v/>
@@ -11308,19 +11308,19 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B342" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C342" t="str">
-        <v>Marcel</v>
+        <v>H.G.M.</v>
       </c>
       <c r="D342" t="str">
-        <v/>
+        <v>Straver</v>
       </c>
       <c r="E342" t="str">
-        <v>Marcel</v>
+        <v>H.G.M. Straver</v>
       </c>
       <c r="F342" t="str">
         <v/>
@@ -11329,7 +11329,7 @@
         <v>Wetec B.V.</v>
       </c>
       <c r="H342" t="str">
-        <v>marcel@wetec-europe.com</v>
+        <v>r.straver@wetec-europe.com</v>
       </c>
       <c r="I342" t="str">
         <v/>
@@ -11346,22 +11346,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C343" t="str">
-        <v>Klaas</v>
+        <v>Kees</v>
       </c>
       <c r="D343" t="str">
-        <v>de Berg</v>
+        <v>Kroese</v>
       </c>
       <c r="E343" t="str">
-        <v>Klaas de Berg</v>
+        <v>Kees Kroese</v>
       </c>
       <c r="F343" t="str">
-        <v>Controller, Contactpersoon consultancy</v>
+        <v>Directie</v>
       </c>
       <c r="G343" t="str">
         <v>Wetec B.V.</v>
       </c>
       <c r="H343" t="str">
-        <v>k.deberg@wetec-europe.com</v>
+        <v>kees@wetec-europe.com</v>
       </c>
       <c r="I343" t="str">
         <v/>
@@ -11378,22 +11378,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C344" t="str">
-        <v>Martin</v>
+        <v>Johan</v>
       </c>
       <c r="D344" t="str">
-        <v>Verhage</v>
+        <v>van Erkelens</v>
       </c>
       <c r="E344" t="str">
-        <v>Martin Verhage</v>
+        <v>Johan van Erkelens</v>
       </c>
       <c r="F344" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G344" t="str">
         <v>Wetec B.V.</v>
       </c>
       <c r="H344" t="str">
-        <v>m.verhage@wetec-europe.com</v>
+        <v>j.vanerkelens@wetec-europe.com</v>
       </c>
       <c r="I344" t="str">
         <v/>
@@ -11410,22 +11410,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C345" t="str">
-        <v>John</v>
+        <v>Marcel</v>
       </c>
       <c r="D345" t="str">
-        <v>Heins</v>
+        <v/>
       </c>
       <c r="E345" t="str">
-        <v>John Heins</v>
+        <v>Marcel</v>
       </c>
       <c r="F345" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G345" t="str">
-        <v>Zenith Security</v>
+        <v>Wetec B.V.</v>
       </c>
       <c r="H345" t="str">
-        <v>j.heins@zenithsecurity.nl</v>
+        <v>marcel@wetec-europe.com</v>
       </c>
       <c r="I345" t="str">
         <v/>
@@ -11442,22 +11442,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C346" t="str">
-        <v>Marleen</v>
+        <v>Klaas</v>
       </c>
       <c r="D346" t="str">
-        <v>Edel</v>
+        <v>de Berg</v>
       </c>
       <c r="E346" t="str">
-        <v>Marleen Edel</v>
+        <v>Klaas de Berg</v>
       </c>
       <c r="F346" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v>Controller, Contactpersoon consultancy</v>
       </c>
       <c r="G346" t="str">
-        <v>Zenith Security</v>
+        <v>Wetec B.V.</v>
       </c>
       <c r="H346" t="str">
-        <v>m.edel@zenithsecurity.nl</v>
+        <v>k.deberg@wetec-europe.com</v>
       </c>
       <c r="I346" t="str">
         <v/>
@@ -11474,22 +11474,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C347" t="str">
-        <v>Tijs</v>
+        <v>Martin</v>
       </c>
       <c r="D347" t="str">
-        <v>Westdorp</v>
+        <v>Verhage</v>
       </c>
       <c r="E347" t="str">
-        <v>Tijs Westdorp</v>
+        <v>Martin Verhage</v>
       </c>
       <c r="F347" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G347" t="str">
-        <v>Zenith Security</v>
+        <v>Wetec B.V.</v>
       </c>
       <c r="H347" t="str">
-        <v>t.westdorp@zenithsecurity.nl</v>
+        <v>m.verhage@wetec-europe.com</v>
       </c>
       <c r="I347" t="str">
         <v/>
@@ -11506,22 +11506,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C348" t="str">
-        <v>Ralph</v>
+        <v>John</v>
       </c>
       <c r="D348" t="str">
-        <v>Stoops</v>
+        <v>Heins</v>
       </c>
       <c r="E348" t="str">
-        <v>Ralph Stoops</v>
+        <v>John Heins</v>
       </c>
       <c r="F348" t="str">
-        <v>Controller</v>
+        <v>Directie</v>
       </c>
       <c r="G348" t="str">
         <v>Zenith Security</v>
       </c>
       <c r="H348" t="str">
-        <v>r.stoops@zenithsecurity.nl</v>
+        <v>j.heins@zenithsecurity.nl</v>
       </c>
       <c r="I348" t="str">
         <v/>
@@ -11532,31 +11532,31 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B349" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C349" t="str">
-        <v>Invoice-xml</v>
+        <v>Marleen</v>
       </c>
       <c r="D349" t="str">
-        <v/>
+        <v>Edel</v>
       </c>
       <c r="E349" t="str">
-        <v>Invoice-xml</v>
+        <v>Marleen Edel</v>
       </c>
       <c r="F349" t="str">
-        <v/>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G349" t="str">
         <v>Zenith Security</v>
       </c>
       <c r="H349" t="str">
-        <v/>
+        <v>m.edel@zenithsecurity.nl</v>
       </c>
       <c r="I349" t="str">
-        <v>invoice-xml@zenithsecurity.nl</v>
+        <v/>
       </c>
       <c r="J349" t="str">
         <v/>
@@ -11564,28 +11564,28 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B350" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C350" t="str">
-        <v>Anton</v>
+        <v>Tijs</v>
       </c>
       <c r="D350" t="str">
-        <v>van Duin</v>
+        <v>Westdorp</v>
       </c>
       <c r="E350" t="str">
-        <v>Anton van Duin</v>
+        <v>Tijs Westdorp</v>
       </c>
       <c r="F350" t="str">
-        <v>Contactpersoon IT (intern)</v>
+        <v>Directie</v>
       </c>
       <c r="G350" t="str">
         <v>Zenith Security</v>
       </c>
       <c r="H350" t="str">
-        <v>a.vanduin@zenithsecurity.nl</v>
+        <v>t.westdorp@zenithsecurity.nl</v>
       </c>
       <c r="I350" t="str">
         <v/>
@@ -11602,22 +11602,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C351" t="str">
-        <v>Arno</v>
+        <v>Ralph</v>
       </c>
       <c r="D351" t="str">
-        <v>Slappendel</v>
+        <v>Stoops</v>
       </c>
       <c r="E351" t="str">
-        <v>Arno Slappendel</v>
+        <v>Ralph Stoops</v>
       </c>
       <c r="F351" t="str">
-        <v/>
+        <v>Controller</v>
       </c>
       <c r="G351" t="str">
         <v>Zenith Security</v>
       </c>
       <c r="H351" t="str">
-        <v>a.slappendel@zenithsecurity.nl</v>
+        <v>r.stoops@zenithsecurity.nl</v>
       </c>
       <c r="I351" t="str">
         <v/>
@@ -11628,19 +11628,19 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B352" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C352" t="str">
-        <v>Casper</v>
+        <v>Invoice-xml</v>
       </c>
       <c r="D352" t="str">
-        <v>Molenaar</v>
+        <v/>
       </c>
       <c r="E352" t="str">
-        <v>Casper Molenaar</v>
+        <v>Invoice-xml</v>
       </c>
       <c r="F352" t="str">
         <v/>
@@ -11649,10 +11649,10 @@
         <v>Zenith Security</v>
       </c>
       <c r="H352" t="str">
-        <v>c.molenaar@zenithsecurity.nl</v>
+        <v/>
       </c>
       <c r="I352" t="str">
-        <v/>
+        <v>invoice-xml@zenithsecurity.nl</v>
       </c>
       <c r="J352" t="str">
         <v/>
@@ -11660,28 +11660,28 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B353" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C353" t="str">
-        <v>Cindy</v>
+        <v>Anton</v>
       </c>
       <c r="D353" t="str">
-        <v>Willems</v>
+        <v>van Duin</v>
       </c>
       <c r="E353" t="str">
-        <v>Cindy Willems</v>
+        <v>Anton van Duin</v>
       </c>
       <c r="F353" t="str">
-        <v/>
+        <v>Contactpersoon IT (intern)</v>
       </c>
       <c r="G353" t="str">
         <v>Zenith Security</v>
       </c>
       <c r="H353" t="str">
-        <v>c.willems@zenithsecurity.nl</v>
+        <v>a.vanduin@zenithsecurity.nl</v>
       </c>
       <c r="I353" t="str">
         <v/>
@@ -11698,13 +11698,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C354" t="str">
-        <v>Geraldo</v>
+        <v>Arno</v>
       </c>
       <c r="D354" t="str">
-        <v>van Maanen - Zenith (GU)</v>
+        <v>Slappendel</v>
       </c>
       <c r="E354" t="str">
-        <v>Geraldo van Maanen - Zenith (GU)</v>
+        <v>Arno Slappendel</v>
       </c>
       <c r="F354" t="str">
         <v/>
@@ -11713,7 +11713,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H354" t="str">
-        <v>g.vanmaanen@zenithsecurity.nl</v>
+        <v>a.slappendel@zenithsecurity.nl</v>
       </c>
       <c r="I354" t="str">
         <v/>
@@ -11730,13 +11730,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C355" t="str">
-        <v>Ian</v>
+        <v>Casper</v>
       </c>
       <c r="D355" t="str">
-        <v>Krouwel</v>
+        <v>Molenaar</v>
       </c>
       <c r="E355" t="str">
-        <v>Ian Krouwel</v>
+        <v>Casper Molenaar</v>
       </c>
       <c r="F355" t="str">
         <v/>
@@ -11745,7 +11745,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H355" t="str">
-        <v>i.krouwel@zenithsecurity.nl</v>
+        <v>c.molenaar@zenithsecurity.nl</v>
       </c>
       <c r="I355" t="str">
         <v/>
@@ -11762,13 +11762,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C356" t="str">
-        <v>Jeffry</v>
+        <v>Cindy</v>
       </c>
       <c r="D356" t="str">
-        <v>van Asselen</v>
+        <v>Willems</v>
       </c>
       <c r="E356" t="str">
-        <v>Jeffry van Asselen</v>
+        <v>Cindy Willems</v>
       </c>
       <c r="F356" t="str">
         <v/>
@@ -11777,7 +11777,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H356" t="str">
-        <v>j.vanasselen@zenithsecurity.nl</v>
+        <v>c.willems@zenithsecurity.nl</v>
       </c>
       <c r="I356" t="str">
         <v/>
@@ -11794,13 +11794,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C357" t="str">
-        <v>Jeroen</v>
+        <v>Geraldo</v>
       </c>
       <c r="D357" t="str">
-        <v>Kwint</v>
+        <v>van Maanen - Zenith (GU)</v>
       </c>
       <c r="E357" t="str">
-        <v>Jeroen Kwint</v>
+        <v>Geraldo van Maanen - Zenith (GU)</v>
       </c>
       <c r="F357" t="str">
         <v/>
@@ -11809,7 +11809,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H357" t="str">
-        <v>j.kwint@zenithsecurity.nl</v>
+        <v>g.vanmaanen@zenithsecurity.nl</v>
       </c>
       <c r="I357" t="str">
         <v/>
@@ -11826,13 +11826,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C358" t="str">
-        <v>JosÃ©</v>
+        <v>Ian</v>
       </c>
       <c r="D358" t="str">
-        <v>van der Pool</v>
+        <v>Krouwel</v>
       </c>
       <c r="E358" t="str">
-        <v>JosÃ© van der Pool</v>
+        <v>Ian Krouwel</v>
       </c>
       <c r="F358" t="str">
         <v/>
@@ -11841,7 +11841,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H358" t="str">
-        <v>j.vanderpool@zenithsecurity.nl</v>
+        <v>i.krouwel@zenithsecurity.nl</v>
       </c>
       <c r="I358" t="str">
         <v/>
@@ -11858,13 +11858,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C359" t="str">
-        <v>Kevin</v>
+        <v>Jeffry</v>
       </c>
       <c r="D359" t="str">
-        <v>van den Berg</v>
+        <v>van Asselen</v>
       </c>
       <c r="E359" t="str">
-        <v>Kevin van den Berg</v>
+        <v>Jeffry van Asselen</v>
       </c>
       <c r="F359" t="str">
         <v/>
@@ -11873,7 +11873,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H359" t="str">
-        <v>k.vandenberg@zenithsecurity.nl</v>
+        <v>j.vanasselen@zenithsecurity.nl</v>
       </c>
       <c r="I359" t="str">
         <v/>
@@ -11890,13 +11890,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C360" t="str">
-        <v>Linze</v>
+        <v>Jeroen</v>
       </c>
       <c r="D360" t="str">
-        <v>de Vries</v>
+        <v>Kwint</v>
       </c>
       <c r="E360" t="str">
-        <v>Linze de Vries</v>
+        <v>Jeroen Kwint</v>
       </c>
       <c r="F360" t="str">
         <v/>
@@ -11905,7 +11905,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H360" t="str">
-        <v>l.devries@zenithsecurity.nl</v>
+        <v>j.kwint@zenithsecurity.nl</v>
       </c>
       <c r="I360" t="str">
         <v/>
@@ -11922,13 +11922,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C361" t="str">
-        <v>Rob</v>
+        <v>JosÃ©</v>
       </c>
       <c r="D361" t="str">
-        <v>Dankers</v>
+        <v>van der Pool</v>
       </c>
       <c r="E361" t="str">
-        <v>Rob Dankers</v>
+        <v>JosÃ© van der Pool</v>
       </c>
       <c r="F361" t="str">
         <v/>
@@ -11937,7 +11937,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H361" t="str">
-        <v>r.dankers@zenithsecurity.nl</v>
+        <v>j.vanderpool@zenithsecurity.nl</v>
       </c>
       <c r="I361" t="str">
         <v/>
@@ -11948,19 +11948,19 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B362" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C362" t="str">
-        <v>Roy</v>
+        <v>Kevin</v>
       </c>
       <c r="D362" t="str">
-        <v>Post</v>
+        <v>van den Berg</v>
       </c>
       <c r="E362" t="str">
-        <v>Roy Post</v>
+        <v>Kevin van den Berg</v>
       </c>
       <c r="F362" t="str">
         <v/>
@@ -11969,7 +11969,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H362" t="str">
-        <v>r.post@zenithsecurity.nl</v>
+        <v>k.vandenberg@zenithsecurity.nl</v>
       </c>
       <c r="I362" t="str">
         <v/>
@@ -11986,13 +11986,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C363" t="str">
-        <v>Sabine</v>
+        <v>Linze</v>
       </c>
       <c r="D363" t="str">
-        <v>van Oort</v>
+        <v>de Vries</v>
       </c>
       <c r="E363" t="str">
-        <v>Sabine van Oort</v>
+        <v>Linze de Vries</v>
       </c>
       <c r="F363" t="str">
         <v/>
@@ -12001,7 +12001,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H363" t="str">
-        <v>s.vanoort@zenithsecurity.nl</v>
+        <v>l.devries@zenithsecurity.nl</v>
       </c>
       <c r="I363" t="str">
         <v/>
@@ -12018,13 +12018,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C364" t="str">
-        <v>Sebastiaan</v>
+        <v>Rob</v>
       </c>
       <c r="D364" t="str">
-        <v>Bekker</v>
+        <v>Dankers</v>
       </c>
       <c r="E364" t="str">
-        <v>Sebastiaan Bekker</v>
+        <v>Rob Dankers</v>
       </c>
       <c r="F364" t="str">
         <v/>
@@ -12033,7 +12033,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H364" t="str">
-        <v>s.bekker@zenithsecurity.nl</v>
+        <v>r.dankers@zenithsecurity.nl</v>
       </c>
       <c r="I364" t="str">
         <v/>
@@ -12044,19 +12044,19 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B365" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C365" t="str">
-        <v>Stefan</v>
+        <v>Roy</v>
       </c>
       <c r="D365" t="str">
-        <v>Spaans</v>
+        <v>Post</v>
       </c>
       <c r="E365" t="str">
-        <v>Stefan Spaans</v>
+        <v>Roy Post</v>
       </c>
       <c r="F365" t="str">
         <v/>
@@ -12065,7 +12065,7 @@
         <v>Zenith Security</v>
       </c>
       <c r="H365" t="str">
-        <v>s.spaans@zenithsecurity.nl</v>
+        <v>r.post@zenithsecurity.nl</v>
       </c>
       <c r="I365" t="str">
         <v/>
@@ -12082,22 +12082,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C366" t="str">
-        <v>Bianca</v>
+        <v>Sabine</v>
       </c>
       <c r="D366" t="str">
-        <v>de Langen</v>
+        <v>van Oort</v>
       </c>
       <c r="E366" t="str">
-        <v>Bianca de Langen</v>
+        <v>Sabine van Oort</v>
       </c>
       <c r="F366" t="str">
-        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
+        <v/>
       </c>
       <c r="G366" t="str">
-        <v>ZNIBV</v>
+        <v>Zenith Security</v>
       </c>
       <c r="H366" t="str">
-        <v>blangen@znibv.nl</v>
+        <v>s.vanoort@zenithsecurity.nl</v>
       </c>
       <c r="I366" t="str">
         <v/>
@@ -12114,22 +12114,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C367" t="str">
-        <v>Chiel</v>
+        <v>Sebastiaan</v>
       </c>
       <c r="D367" t="str">
-        <v>van Rossum</v>
+        <v>Bekker</v>
       </c>
       <c r="E367" t="str">
-        <v>Chiel van Rossum</v>
+        <v>Sebastiaan Bekker</v>
       </c>
       <c r="F367" t="str">
-        <v>Directie</v>
+        <v/>
       </c>
       <c r="G367" t="str">
-        <v>ZNIBV</v>
+        <v>Zenith Security</v>
       </c>
       <c r="H367" t="str">
-        <v>crossum@znibv.nl</v>
+        <v>s.bekker@zenithsecurity.nl</v>
       </c>
       <c r="I367" t="str">
         <v/>
@@ -12140,31 +12140,31 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B368" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C368" t="str">
-        <v>Facturen</v>
+        <v>Stefan</v>
       </c>
       <c r="D368" t="str">
-        <v/>
+        <v>Spaans</v>
       </c>
       <c r="E368" t="str">
-        <v>Facturen</v>
+        <v>Stefan Spaans</v>
       </c>
       <c r="F368" t="str">
         <v/>
       </c>
       <c r="G368" t="str">
-        <v>ZNIBV</v>
+        <v>Zenith Security</v>
       </c>
       <c r="H368" t="str">
-        <v/>
+        <v>s.spaans@zenithsecurity.nl</v>
       </c>
       <c r="I368" t="str">
-        <v>facturen@znibv.nl</v>
+        <v/>
       </c>
       <c r="J368" t="str">
         <v/>
@@ -12178,22 +12178,22 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C369" t="str">
-        <v>Marco</v>
+        <v>Bianca</v>
       </c>
       <c r="D369" t="str">
-        <v>Eschbach</v>
+        <v>de Langen</v>
       </c>
       <c r="E369" t="str">
-        <v>Marco Eschbach</v>
+        <v>Bianca de Langen</v>
       </c>
       <c r="F369" t="str">
-        <v>Projecten, Contactpersoon consultancy</v>
+        <v>Controller, Contactpersoon IT (intern), Contactpersoon consultancy</v>
       </c>
       <c r="G369" t="str">
-        <v>Zondervan Rhoon Holding</v>
+        <v>ZNIBV</v>
       </c>
       <c r="H369" t="str">
-        <v>marco.eschbach@zondervan.nl, dick.smit@zondervan.nl</v>
+        <v>blangen@znibv.nl</v>
       </c>
       <c r="I369" t="str">
         <v/>
@@ -12204,31 +12204,31 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
-        <v>Geen toestemming</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B370" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C370" t="str">
-        <v>Ifzt</v>
+        <v>Chiel</v>
       </c>
       <c r="D370" t="str">
-        <v/>
+        <v>van Rossum</v>
       </c>
       <c r="E370" t="str">
-        <v>Ifzt</v>
+        <v>Chiel van Rossum</v>
       </c>
       <c r="F370" t="str">
-        <v/>
+        <v>Directie</v>
       </c>
       <c r="G370" t="str">
-        <v>Zondervan Rhoon Holding</v>
+        <v>ZNIBV</v>
       </c>
       <c r="H370" t="str">
-        <v/>
+        <v>crossum@znibv.nl</v>
       </c>
       <c r="I370" t="str">
-        <v>ifzt@zondervan.nl</v>
+        <v/>
       </c>
       <c r="J370" t="str">
         <v/>
@@ -12236,31 +12236,31 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B371" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C371" t="str">
-        <v>Accountant</v>
+        <v>Facturen</v>
       </c>
       <c r="D371" t="str">
         <v/>
       </c>
       <c r="E371" t="str">
-        <v>Accountant</v>
+        <v>Facturen</v>
       </c>
       <c r="F371" t="str">
         <v/>
       </c>
       <c r="G371" t="str">
-        <v>Zondervan Rhoon Holding</v>
+        <v>ZNIBV</v>
       </c>
       <c r="H371" t="str">
-        <v>accountant@zondervan.nl</v>
+        <v/>
       </c>
       <c r="I371" t="str">
-        <v/>
+        <v>facturen@znibv.nl</v>
       </c>
       <c r="J371" t="str">
         <v/>
@@ -12268,28 +12268,28 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
-        <v>Afgemeld</v>
+        <v>Geabonneerd</v>
       </c>
       <c r="B372" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C372" t="str">
-        <v>Dick</v>
+        <v>Marco</v>
       </c>
       <c r="D372" t="str">
-        <v>Smit</v>
+        <v>Eschbach</v>
       </c>
       <c r="E372" t="str">
-        <v>Dick Smit</v>
+        <v>Marco Eschbach</v>
       </c>
       <c r="F372" t="str">
-        <v/>
+        <v>Projecten, Contactpersoon consultancy</v>
       </c>
       <c r="G372" t="str">
         <v>Zondervan Rhoon Holding</v>
       </c>
       <c r="H372" t="str">
-        <v>dick.smit@zondervan.nl</v>
+        <v>marco.eschbach@zondervan.nl, dick.smit@zondervan.nl</v>
       </c>
       <c r="I372" t="str">
         <v/>
@@ -12300,19 +12300,19 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
-        <v>Geabonneerd</v>
+        <v>Geen toestemming</v>
       </c>
       <c r="B373" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C373" t="str">
-        <v>Francisco</v>
+        <v>Ifzt</v>
       </c>
       <c r="D373" t="str">
-        <v>Lima</v>
+        <v/>
       </c>
       <c r="E373" t="str">
-        <v>Francisco Lima</v>
+        <v>Ifzt</v>
       </c>
       <c r="F373" t="str">
         <v/>
@@ -12321,10 +12321,10 @@
         <v>Zondervan Rhoon Holding</v>
       </c>
       <c r="H373" t="str">
-        <v>francisco.lima@zondervan.nl</v>
+        <v/>
       </c>
       <c r="I373" t="str">
-        <v/>
+        <v>ifzt@zondervan.nl</v>
       </c>
       <c r="J373" t="str">
         <v/>
@@ -12338,13 +12338,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C374" t="str">
-        <v>Manuel</v>
+        <v>Accountant</v>
       </c>
       <c r="D374" t="str">
-        <v>Smit</v>
+        <v/>
       </c>
       <c r="E374" t="str">
-        <v>Manuel Smit</v>
+        <v>Accountant</v>
       </c>
       <c r="F374" t="str">
         <v/>
@@ -12353,7 +12353,7 @@
         <v>Zondervan Rhoon Holding</v>
       </c>
       <c r="H374" t="str">
-        <v>manuel.smit@zondervan.nl</v>
+        <v>accountant@zondervan.nl</v>
       </c>
       <c r="I374" t="str">
         <v/>
@@ -12364,19 +12364,19 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
-        <v>Geabonneerd</v>
+        <v>Afgemeld</v>
       </c>
       <c r="B375" t="str">
         <v>Niet bevestigd</v>
       </c>
       <c r="C375" t="str">
-        <v>Richard</v>
+        <v>Dick</v>
       </c>
       <c r="D375" t="str">
-        <v>de Jong</v>
+        <v>Smit</v>
       </c>
       <c r="E375" t="str">
-        <v>Richard de Jong</v>
+        <v>Dick Smit</v>
       </c>
       <c r="F375" t="str">
         <v/>
@@ -12385,7 +12385,7 @@
         <v>Zondervan Rhoon Holding</v>
       </c>
       <c r="H375" t="str">
-        <v>richard.dejong@zondervan.nl</v>
+        <v>dick.smit@zondervan.nl</v>
       </c>
       <c r="I375" t="str">
         <v/>
@@ -12402,13 +12402,13 @@
         <v>Niet bevestigd</v>
       </c>
       <c r="C376" t="str">
-        <v>Sam</v>
+        <v>Francisco</v>
       </c>
       <c r="D376" t="str">
-        <v>Hahn</v>
+        <v>Lima</v>
       </c>
       <c r="E376" t="str">
-        <v>Sam Hahn</v>
+        <v>Francisco Lima</v>
       </c>
       <c r="F376" t="str">
         <v/>
@@ -12417,12 +12417,108 @@
         <v>Zondervan Rhoon Holding</v>
       </c>
       <c r="H376" t="str">
+        <v>francisco.lima@zondervan.nl</v>
+      </c>
+      <c r="I376" t="str">
+        <v/>
+      </c>
+      <c r="J376" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <v>Geabonneerd</v>
+      </c>
+      <c r="B377" t="str">
+        <v>Niet bevestigd</v>
+      </c>
+      <c r="C377" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="D377" t="str">
+        <v>Smit</v>
+      </c>
+      <c r="E377" t="str">
+        <v>Manuel Smit</v>
+      </c>
+      <c r="F377" t="str">
+        <v/>
+      </c>
+      <c r="G377" t="str">
+        <v>Zondervan Rhoon Holding</v>
+      </c>
+      <c r="H377" t="str">
+        <v>manuel.smit@zondervan.nl</v>
+      </c>
+      <c r="I377" t="str">
+        <v/>
+      </c>
+      <c r="J377" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <v>Geabonneerd</v>
+      </c>
+      <c r="B378" t="str">
+        <v>Niet bevestigd</v>
+      </c>
+      <c r="C378" t="str">
+        <v>Richard</v>
+      </c>
+      <c r="D378" t="str">
+        <v>de Jong</v>
+      </c>
+      <c r="E378" t="str">
+        <v>Richard de Jong</v>
+      </c>
+      <c r="F378" t="str">
+        <v/>
+      </c>
+      <c r="G378" t="str">
+        <v>Zondervan Rhoon Holding</v>
+      </c>
+      <c r="H378" t="str">
+        <v>richard.dejong@zondervan.nl</v>
+      </c>
+      <c r="I378" t="str">
+        <v/>
+      </c>
+      <c r="J378" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <v>Geabonneerd</v>
+      </c>
+      <c r="B379" t="str">
+        <v>Niet bevestigd</v>
+      </c>
+      <c r="C379" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="D379" t="str">
+        <v>Hahn</v>
+      </c>
+      <c r="E379" t="str">
+        <v>Sam Hahn</v>
+      </c>
+      <c r="F379" t="str">
+        <v/>
+      </c>
+      <c r="G379" t="str">
+        <v>Zondervan Rhoon Holding</v>
+      </c>
+      <c r="H379" t="str">
         <v>sam.hahn@zondervan.nl</v>
       </c>
-      <c r="I376" t="str">
-        <v/>
-      </c>
-      <c r="J376" t="str">
+      <c r="I379" t="str">
+        <v/>
+      </c>
+      <c r="J379" t="str">
         <v/>
       </c>
     </row>
